--- a/Uploads/Luis - copia.xlsx
+++ b/Uploads/Luis - copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luis Fer\U\Practica Interna\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1EE2D-6590-47F9-88F0-48B9D688AEC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820479EB-9399-4E7A-AE5E-09509DF6931A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="589">
   <si>
     <t>LISTA DE MATERIAS - NUMERO DE INSCRITOS</t>
   </si>
@@ -1793,7 +1793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1958,6 +1958,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2386,7 +2393,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2416,21 +2423,6 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2457,6 +2449,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2784,8 +2794,8 @@
   </sheetPr>
   <dimension ref="A1:J556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
-      <selection activeCell="E541" sqref="E541"/>
+    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="E492" sqref="E489:E492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2804,44 +2814,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
@@ -2870,10 +2880,10 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2898,10 +2908,10 @@
       <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2926,10 +2936,10 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2954,10 +2964,10 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2982,10 +2992,10 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3010,10 +3020,10 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3038,10 +3048,10 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3066,10 +3076,10 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3094,10 +3104,10 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3122,10 +3132,10 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3150,10 +3160,10 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3178,10 +3188,10 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3206,10 +3216,10 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="11"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3234,10 +3244,10 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="11"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3262,10 +3272,10 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="11"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3290,10 +3300,10 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="11"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3318,10 +3328,10 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3346,10 +3356,10 @@
       <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3374,10 +3384,10 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3402,10 +3412,10 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="11"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3430,10 +3440,10 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="11"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3458,10 +3468,10 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3486,10 +3496,10 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="11"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3514,10 +3524,10 @@
       <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="11"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3542,10 +3552,10 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="11"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3568,8 +3578,8 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3592,8 +3602,8 @@
       <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3618,10 +3628,10 @@
       <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="11"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3646,10 +3656,10 @@
       <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="11"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3674,10 +3684,10 @@
       <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="11"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3702,10 +3712,10 @@
       <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="11"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3730,10 +3740,10 @@
       <c r="G36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="11"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3758,10 +3768,10 @@
       <c r="G37" s="8">
         <v>0</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="11"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3786,10 +3796,10 @@
       <c r="G38" s="8">
         <v>0</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I38" s="11"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3814,10 +3824,10 @@
       <c r="G39" s="8">
         <v>3</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I39" s="11"/>
+      <c r="I39" s="20"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3842,10 +3852,10 @@
       <c r="G40" s="8">
         <v>0</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="11"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3870,10 +3880,10 @@
       <c r="G41" s="8">
         <v>0</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="11"/>
+      <c r="I41" s="20"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3898,10 +3908,10 @@
       <c r="G42" s="8">
         <v>0</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="11"/>
+      <c r="I42" s="20"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3926,10 +3936,10 @@
       <c r="G43" s="8">
         <v>0</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I43" s="11"/>
+      <c r="I43" s="20"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3954,10 +3964,10 @@
       <c r="G44" s="8">
         <v>1</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="11"/>
+      <c r="I44" s="20"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3982,10 +3992,10 @@
       <c r="G45" s="8">
         <v>0</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="11"/>
+      <c r="I45" s="20"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4010,10 +4020,10 @@
       <c r="G46" s="8">
         <v>0</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="11"/>
+      <c r="I46" s="20"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4036,10 +4046,10 @@
       <c r="G47" s="8">
         <v>0</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I47" s="11"/>
+      <c r="I47" s="20"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4062,10 +4072,10 @@
       <c r="G48" s="8">
         <v>0</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="11"/>
+      <c r="I48" s="20"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4088,10 +4098,10 @@
       <c r="G49" s="8">
         <v>0</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I49" s="11"/>
+      <c r="I49" s="20"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4116,10 +4126,10 @@
       <c r="G50" s="8">
         <v>0</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I50" s="11"/>
+      <c r="I50" s="20"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4144,10 +4154,10 @@
       <c r="G51" s="8">
         <v>0</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I51" s="11"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4172,10 +4182,10 @@
       <c r="G52" s="8">
         <v>0</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I52" s="11"/>
+      <c r="I52" s="20"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4200,10 +4210,10 @@
       <c r="G53" s="8">
         <v>0</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I53" s="11"/>
+      <c r="I53" s="20"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4228,10 +4238,10 @@
       <c r="G54" s="8">
         <v>0</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I54" s="11"/>
+      <c r="I54" s="20"/>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4256,10 +4266,10 @@
       <c r="G55" s="8">
         <v>0</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I55" s="11"/>
+      <c r="I55" s="20"/>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4284,10 +4294,10 @@
       <c r="G56" s="8">
         <v>0</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I56" s="11"/>
+      <c r="I56" s="20"/>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4312,10 +4322,10 @@
       <c r="G57" s="8">
         <v>0</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I57" s="11"/>
+      <c r="I57" s="20"/>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4340,10 +4350,10 @@
       <c r="G58" s="8">
         <v>1</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I58" s="11"/>
+      <c r="I58" s="20"/>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4368,10 +4378,10 @@
       <c r="G59" s="8">
         <v>0</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="I59" s="11"/>
+      <c r="I59" s="20"/>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4396,10 +4406,10 @@
       <c r="G60" s="8">
         <v>0</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I60" s="11"/>
+      <c r="I60" s="20"/>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4424,10 +4434,10 @@
       <c r="G61" s="8">
         <v>0</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H61" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I61" s="11"/>
+      <c r="I61" s="20"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4452,10 +4462,10 @@
       <c r="G62" s="8">
         <v>1</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I62" s="11"/>
+      <c r="I62" s="20"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4478,10 +4488,10 @@
       <c r="G63" s="8">
         <v>0</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I63" s="11"/>
+      <c r="I63" s="20"/>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4506,10 +4516,10 @@
       <c r="G64" s="8">
         <v>2</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I64" s="11"/>
+      <c r="I64" s="20"/>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4534,10 +4544,10 @@
       <c r="G65" s="8">
         <v>0</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I65" s="11"/>
+      <c r="I65" s="20"/>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4562,10 +4572,10 @@
       <c r="G66" s="8">
         <v>0</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I66" s="11"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4588,8 +4598,8 @@
       <c r="G67" s="8">
         <v>0</v>
       </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4614,10 +4624,10 @@
       <c r="G68" s="8">
         <v>0</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I68" s="11"/>
+      <c r="I68" s="20"/>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4642,10 +4652,10 @@
       <c r="G69" s="8">
         <v>0</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="H69" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I69" s="11"/>
+      <c r="I69" s="20"/>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4670,10 +4680,10 @@
       <c r="G70" s="8">
         <v>0</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I70" s="11"/>
+      <c r="I70" s="20"/>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4698,10 +4708,10 @@
       <c r="G71" s="8">
         <v>0</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I71" s="11"/>
+      <c r="I71" s="20"/>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4726,10 +4736,10 @@
       <c r="G72" s="8">
         <v>0</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H72" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I72" s="11"/>
+      <c r="I72" s="20"/>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4754,10 +4764,10 @@
       <c r="G73" s="8">
         <v>0</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I73" s="11"/>
+      <c r="I73" s="20"/>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4782,10 +4792,10 @@
       <c r="G74" s="8">
         <v>1</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I74" s="11"/>
+      <c r="I74" s="20"/>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4810,10 +4820,10 @@
       <c r="G75" s="8">
         <v>0</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I75" s="11"/>
+      <c r="I75" s="20"/>
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4838,10 +4848,10 @@
       <c r="G76" s="8">
         <v>0</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="H76" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I76" s="11"/>
+      <c r="I76" s="20"/>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4866,10 +4876,10 @@
       <c r="G77" s="8">
         <v>0</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I77" s="11"/>
+      <c r="I77" s="20"/>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4894,10 +4904,10 @@
       <c r="G78" s="8">
         <v>0</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I78" s="11"/>
+      <c r="I78" s="20"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4922,10 +4932,10 @@
       <c r="G79" s="8">
         <v>1</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="H79" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I79" s="11"/>
+      <c r="I79" s="20"/>
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4950,10 +4960,10 @@
       <c r="G80" s="8">
         <v>0</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I80" s="11"/>
+      <c r="I80" s="20"/>
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4978,10 +4988,10 @@
       <c r="G81" s="8">
         <v>0</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I81" s="11"/>
+      <c r="I81" s="20"/>
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5006,10 +5016,10 @@
       <c r="G82" s="8">
         <v>1</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="H82" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I82" s="11"/>
+      <c r="I82" s="20"/>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5034,10 +5044,10 @@
       <c r="G83" s="8">
         <v>0</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="H83" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I83" s="11"/>
+      <c r="I83" s="20"/>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5062,10 +5072,10 @@
       <c r="G84" s="8">
         <v>0</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="H84" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I84" s="11"/>
+      <c r="I84" s="20"/>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5090,10 +5100,10 @@
       <c r="G85" s="8">
         <v>0</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="H85" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="I85" s="11"/>
+      <c r="I85" s="20"/>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5118,10 +5128,10 @@
       <c r="G86" s="8">
         <v>0</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="H86" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="I86" s="11"/>
+      <c r="I86" s="20"/>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5144,8 +5154,8 @@
       <c r="G87" s="8">
         <v>0</v>
       </c>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5170,10 +5180,10 @@
       <c r="G88" s="8">
         <v>0</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="I88" s="11"/>
+      <c r="I88" s="20"/>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5198,10 +5208,10 @@
       <c r="G89" s="8">
         <v>0</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="I89" s="11"/>
+      <c r="I89" s="20"/>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5226,10 +5236,10 @@
       <c r="G90" s="8">
         <v>0</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I90" s="11"/>
+      <c r="I90" s="20"/>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5254,10 +5264,10 @@
       <c r="G91" s="8">
         <v>0</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="H91" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I91" s="11"/>
+      <c r="I91" s="20"/>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5282,10 +5292,10 @@
       <c r="G92" s="8">
         <v>0</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I92" s="11"/>
+      <c r="I92" s="20"/>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5310,10 +5320,10 @@
       <c r="G93" s="8">
         <v>0</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H93" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I93" s="11"/>
+      <c r="I93" s="20"/>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5338,10 +5348,10 @@
       <c r="G94" s="8">
         <v>0</v>
       </c>
-      <c r="H94" s="11" t="s">
+      <c r="H94" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I94" s="11"/>
+      <c r="I94" s="20"/>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5366,10 +5376,10 @@
       <c r="G95" s="8">
         <v>0</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="H95" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I95" s="11"/>
+      <c r="I95" s="20"/>
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5394,10 +5404,10 @@
       <c r="G96" s="8">
         <v>0</v>
       </c>
-      <c r="H96" s="11" t="s">
+      <c r="H96" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I96" s="11"/>
+      <c r="I96" s="20"/>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5422,10 +5432,10 @@
       <c r="G97" s="8">
         <v>0</v>
       </c>
-      <c r="H97" s="11" t="s">
+      <c r="H97" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I97" s="11"/>
+      <c r="I97" s="20"/>
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5450,10 +5460,10 @@
       <c r="G98" s="8">
         <v>0</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H98" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I98" s="11"/>
+      <c r="I98" s="20"/>
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5478,10 +5488,10 @@
       <c r="G99" s="8">
         <v>2</v>
       </c>
-      <c r="H99" s="11" t="s">
+      <c r="H99" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="I99" s="11"/>
+      <c r="I99" s="20"/>
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5506,10 +5516,10 @@
       <c r="G100" s="8">
         <v>0</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="H100" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="I100" s="11"/>
+      <c r="I100" s="20"/>
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5534,10 +5544,10 @@
       <c r="G101" s="8">
         <v>0</v>
       </c>
-      <c r="H101" s="11" t="s">
+      <c r="H101" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="I101" s="11"/>
+      <c r="I101" s="20"/>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5560,8 +5570,8 @@
       <c r="G102" s="8">
         <v>0</v>
       </c>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5586,10 +5596,10 @@
       <c r="G103" s="8">
         <v>0</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H103" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="I103" s="11"/>
+      <c r="I103" s="20"/>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5614,10 +5624,10 @@
       <c r="G104" s="8">
         <v>0</v>
       </c>
-      <c r="H104" s="11" t="s">
+      <c r="H104" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="I104" s="11"/>
+      <c r="I104" s="20"/>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5642,10 +5652,10 @@
       <c r="G105" s="8">
         <v>0</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="H105" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="I105" s="11"/>
+      <c r="I105" s="20"/>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5670,10 +5680,10 @@
       <c r="G106" s="8">
         <v>0</v>
       </c>
-      <c r="H106" s="11" t="s">
+      <c r="H106" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="I106" s="11"/>
+      <c r="I106" s="20"/>
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5698,10 +5708,10 @@
       <c r="G107" s="8">
         <v>0</v>
       </c>
-      <c r="H107" s="11" t="s">
+      <c r="H107" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="I107" s="11"/>
+      <c r="I107" s="20"/>
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5724,8 +5734,8 @@
       <c r="G108" s="8">
         <v>0</v>
       </c>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5750,10 +5760,10 @@
       <c r="G109" s="8">
         <v>0</v>
       </c>
-      <c r="H109" s="11" t="s">
+      <c r="H109" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="I109" s="11"/>
+      <c r="I109" s="20"/>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5778,10 +5788,10 @@
       <c r="G110" s="8">
         <v>0</v>
       </c>
-      <c r="H110" s="11" t="s">
+      <c r="H110" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="I110" s="11"/>
+      <c r="I110" s="20"/>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5804,10 +5814,10 @@
       <c r="G111" s="8">
         <v>0</v>
       </c>
-      <c r="H111" s="11" t="s">
+      <c r="H111" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="I111" s="11"/>
+      <c r="I111" s="20"/>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5830,8 +5840,8 @@
       <c r="G112" s="8">
         <v>0</v>
       </c>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5856,10 +5866,10 @@
       <c r="G113" s="8">
         <v>0</v>
       </c>
-      <c r="H113" s="11" t="s">
+      <c r="H113" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="I113" s="11"/>
+      <c r="I113" s="20"/>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5882,10 +5892,10 @@
       <c r="G114" s="8">
         <v>0</v>
       </c>
-      <c r="H114" s="11" t="s">
+      <c r="H114" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="I114" s="11"/>
+      <c r="I114" s="20"/>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5910,10 +5920,10 @@
       <c r="G115" s="8">
         <v>0</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H115" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="I115" s="11"/>
+      <c r="I115" s="20"/>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5938,10 +5948,10 @@
       <c r="G116" s="8">
         <v>1</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H116" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="I116" s="11"/>
+      <c r="I116" s="20"/>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5964,8 +5974,8 @@
       <c r="G117" s="8">
         <v>0</v>
       </c>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5990,10 +6000,10 @@
       <c r="G118" s="8">
         <v>1</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="H118" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="I118" s="11"/>
+      <c r="I118" s="20"/>
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6016,10 +6026,10 @@
       <c r="G119" s="8">
         <v>0</v>
       </c>
-      <c r="H119" s="11" t="s">
+      <c r="H119" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="I119" s="11"/>
+      <c r="I119" s="20"/>
       <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6044,10 +6054,10 @@
       <c r="G120" s="8">
         <v>0</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="I120" s="11"/>
+      <c r="I120" s="20"/>
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6072,10 +6082,10 @@
       <c r="G121" s="8">
         <v>1</v>
       </c>
-      <c r="H121" s="11" t="s">
+      <c r="H121" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="I121" s="11"/>
+      <c r="I121" s="20"/>
       <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6100,10 +6110,10 @@
       <c r="G122" s="8">
         <v>1</v>
       </c>
-      <c r="H122" s="11" t="s">
+      <c r="H122" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="I122" s="11"/>
+      <c r="I122" s="20"/>
       <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6126,10 +6136,10 @@
       <c r="G123" s="8">
         <v>0</v>
       </c>
-      <c r="H123" s="11" t="s">
+      <c r="H123" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="I123" s="11"/>
+      <c r="I123" s="20"/>
       <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6154,10 +6164,10 @@
       <c r="G124" s="8">
         <v>0</v>
       </c>
-      <c r="H124" s="11" t="s">
+      <c r="H124" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="I124" s="11"/>
+      <c r="I124" s="20"/>
       <c r="J124" s="3"/>
     </row>
     <row r="125" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6182,10 +6192,10 @@
       <c r="G125" s="8">
         <v>0</v>
       </c>
-      <c r="H125" s="11" t="s">
+      <c r="H125" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="I125" s="11"/>
+      <c r="I125" s="20"/>
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6210,10 +6220,10 @@
       <c r="G126" s="8">
         <v>0</v>
       </c>
-      <c r="H126" s="11" t="s">
+      <c r="H126" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="I126" s="11"/>
+      <c r="I126" s="20"/>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6238,10 +6248,10 @@
       <c r="G127" s="8">
         <v>0</v>
       </c>
-      <c r="H127" s="11" t="s">
+      <c r="H127" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="I127" s="11"/>
+      <c r="I127" s="20"/>
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6266,10 +6276,10 @@
       <c r="G128" s="8">
         <v>0</v>
       </c>
-      <c r="H128" s="11" t="s">
+      <c r="H128" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="I128" s="11"/>
+      <c r="I128" s="20"/>
       <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6294,10 +6304,10 @@
       <c r="G129" s="8">
         <v>0</v>
       </c>
-      <c r="H129" s="11" t="s">
+      <c r="H129" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="I129" s="11"/>
+      <c r="I129" s="20"/>
       <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6322,10 +6332,10 @@
       <c r="G130" s="8">
         <v>2</v>
       </c>
-      <c r="H130" s="11" t="s">
+      <c r="H130" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="I130" s="11"/>
+      <c r="I130" s="20"/>
       <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6348,8 +6358,8 @@
       <c r="G131" s="8">
         <v>0</v>
       </c>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
       <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6374,10 +6384,10 @@
       <c r="G132" s="8">
         <v>2</v>
       </c>
-      <c r="H132" s="11" t="s">
+      <c r="H132" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="I132" s="11"/>
+      <c r="I132" s="20"/>
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6400,8 +6410,8 @@
       <c r="G133" s="8">
         <v>0</v>
       </c>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
       <c r="J133" s="3"/>
     </row>
     <row r="134" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6424,8 +6434,8 @@
       <c r="G134" s="8">
         <v>0</v>
       </c>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
       <c r="J134" s="3"/>
     </row>
     <row r="135" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6448,8 +6458,8 @@
       <c r="G135" s="8">
         <v>0</v>
       </c>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6474,10 +6484,10 @@
       <c r="G136" s="8">
         <v>0</v>
       </c>
-      <c r="H136" s="11" t="s">
+      <c r="H136" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="I136" s="11"/>
+      <c r="I136" s="20"/>
       <c r="J136" s="3"/>
     </row>
     <row r="137" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6502,10 +6512,10 @@
       <c r="G137" s="8">
         <v>0</v>
       </c>
-      <c r="H137" s="11" t="s">
+      <c r="H137" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="I137" s="11"/>
+      <c r="I137" s="20"/>
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6530,10 +6540,10 @@
       <c r="G138" s="8">
         <v>0</v>
       </c>
-      <c r="H138" s="11" t="s">
+      <c r="H138" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="I138" s="11"/>
+      <c r="I138" s="20"/>
       <c r="J138" s="3"/>
     </row>
     <row r="139" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6558,10 +6568,10 @@
       <c r="G139" s="8">
         <v>0</v>
       </c>
-      <c r="H139" s="11" t="s">
+      <c r="H139" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="I139" s="11"/>
+      <c r="I139" s="20"/>
       <c r="J139" s="3"/>
     </row>
     <row r="140" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6586,10 +6596,10 @@
       <c r="G140" s="8">
         <v>0</v>
       </c>
-      <c r="H140" s="11" t="s">
+      <c r="H140" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I140" s="11"/>
+      <c r="I140" s="20"/>
       <c r="J140" s="3"/>
     </row>
     <row r="141" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6614,10 +6624,10 @@
       <c r="G141" s="8">
         <v>0</v>
       </c>
-      <c r="H141" s="11" t="s">
+      <c r="H141" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I141" s="11"/>
+      <c r="I141" s="20"/>
       <c r="J141" s="3"/>
     </row>
     <row r="142" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6642,10 +6652,10 @@
       <c r="G142" s="8">
         <v>0</v>
       </c>
-      <c r="H142" s="11" t="s">
+      <c r="H142" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="I142" s="11"/>
+      <c r="I142" s="20"/>
       <c r="J142" s="3"/>
     </row>
     <row r="143" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6670,10 +6680,10 @@
       <c r="G143" s="8">
         <v>0</v>
       </c>
-      <c r="H143" s="11" t="s">
+      <c r="H143" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I143" s="11"/>
+      <c r="I143" s="20"/>
       <c r="J143" s="3"/>
     </row>
     <row r="144" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6696,10 +6706,10 @@
       <c r="G144" s="8">
         <v>0</v>
       </c>
-      <c r="H144" s="11" t="s">
+      <c r="H144" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="I144" s="11"/>
+      <c r="I144" s="20"/>
       <c r="J144" s="3"/>
     </row>
     <row r="145" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6724,10 +6734,10 @@
       <c r="G145" s="8">
         <v>0</v>
       </c>
-      <c r="H145" s="11" t="s">
+      <c r="H145" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="I145" s="11"/>
+      <c r="I145" s="20"/>
       <c r="J145" s="3"/>
     </row>
     <row r="146" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6752,10 +6762,10 @@
       <c r="G146" s="8">
         <v>0</v>
       </c>
-      <c r="H146" s="11" t="s">
+      <c r="H146" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="I146" s="11"/>
+      <c r="I146" s="20"/>
       <c r="J146" s="3"/>
     </row>
     <row r="147" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6780,10 +6790,10 @@
       <c r="G147" s="8">
         <v>0</v>
       </c>
-      <c r="H147" s="11" t="s">
+      <c r="H147" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="I147" s="11"/>
+      <c r="I147" s="20"/>
       <c r="J147" s="3"/>
     </row>
     <row r="148" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6808,10 +6818,10 @@
       <c r="G148" s="8">
         <v>0</v>
       </c>
-      <c r="H148" s="11" t="s">
+      <c r="H148" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="I148" s="11"/>
+      <c r="I148" s="20"/>
       <c r="J148" s="3"/>
     </row>
     <row r="149" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6836,10 +6846,10 @@
       <c r="G149" s="8">
         <v>1</v>
       </c>
-      <c r="H149" s="11" t="s">
+      <c r="H149" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I149" s="11"/>
+      <c r="I149" s="20"/>
       <c r="J149" s="3"/>
     </row>
     <row r="150" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6864,10 +6874,10 @@
       <c r="G150" s="8">
         <v>1</v>
       </c>
-      <c r="H150" s="11" t="s">
+      <c r="H150" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I150" s="11"/>
+      <c r="I150" s="20"/>
       <c r="J150" s="3"/>
     </row>
     <row r="151" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6892,10 +6902,10 @@
       <c r="G151" s="8">
         <v>1</v>
       </c>
-      <c r="H151" s="11" t="s">
+      <c r="H151" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="I151" s="11"/>
+      <c r="I151" s="20"/>
       <c r="J151" s="3"/>
     </row>
     <row r="152" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6920,10 +6930,10 @@
       <c r="G152" s="8">
         <v>0</v>
       </c>
-      <c r="H152" s="11" t="s">
+      <c r="H152" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I152" s="11"/>
+      <c r="I152" s="20"/>
       <c r="J152" s="3"/>
     </row>
     <row r="153" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6948,10 +6958,10 @@
       <c r="G153" s="8">
         <v>0</v>
       </c>
-      <c r="H153" s="11" t="s">
+      <c r="H153" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="I153" s="11"/>
+      <c r="I153" s="20"/>
       <c r="J153" s="3"/>
     </row>
     <row r="154" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6976,10 +6986,10 @@
       <c r="G154" s="8">
         <v>0</v>
       </c>
-      <c r="H154" s="11" t="s">
+      <c r="H154" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="I154" s="11"/>
+      <c r="I154" s="20"/>
       <c r="J154" s="3"/>
     </row>
     <row r="155" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7004,10 +7014,10 @@
       <c r="G155" s="8">
         <v>0</v>
       </c>
-      <c r="H155" s="11" t="s">
+      <c r="H155" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="I155" s="11"/>
+      <c r="I155" s="20"/>
       <c r="J155" s="3"/>
     </row>
     <row r="156" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7032,10 +7042,10 @@
       <c r="G156" s="8">
         <v>0</v>
       </c>
-      <c r="H156" s="11" t="s">
+      <c r="H156" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I156" s="11"/>
+      <c r="I156" s="20"/>
       <c r="J156" s="3"/>
     </row>
     <row r="157" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7060,10 +7070,10 @@
       <c r="G157" s="8">
         <v>0</v>
       </c>
-      <c r="H157" s="11" t="s">
+      <c r="H157" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I157" s="11"/>
+      <c r="I157" s="20"/>
       <c r="J157" s="3"/>
     </row>
     <row r="158" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7088,10 +7098,10 @@
       <c r="G158" s="8">
         <v>0</v>
       </c>
-      <c r="H158" s="11" t="s">
+      <c r="H158" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="I158" s="11"/>
+      <c r="I158" s="20"/>
       <c r="J158" s="3"/>
     </row>
     <row r="159" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7116,10 +7126,10 @@
       <c r="G159" s="8">
         <v>0</v>
       </c>
-      <c r="H159" s="11" t="s">
+      <c r="H159" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="I159" s="11"/>
+      <c r="I159" s="20"/>
       <c r="J159" s="3"/>
     </row>
     <row r="160" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7144,10 +7154,10 @@
       <c r="G160" s="8">
         <v>0</v>
       </c>
-      <c r="H160" s="11" t="s">
+      <c r="H160" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="I160" s="11"/>
+      <c r="I160" s="20"/>
       <c r="J160" s="3"/>
     </row>
     <row r="161" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7172,10 +7182,10 @@
       <c r="G161" s="8">
         <v>0</v>
       </c>
-      <c r="H161" s="11" t="s">
+      <c r="H161" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="I161" s="11"/>
+      <c r="I161" s="20"/>
       <c r="J161" s="3"/>
     </row>
     <row r="162" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7198,10 +7208,10 @@
       <c r="G162" s="8">
         <v>0</v>
       </c>
-      <c r="H162" s="11" t="s">
+      <c r="H162" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="I162" s="11"/>
+      <c r="I162" s="20"/>
       <c r="J162" s="3"/>
     </row>
     <row r="163" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7224,10 +7234,10 @@
       <c r="G163" s="8">
         <v>0</v>
       </c>
-      <c r="H163" s="11" t="s">
+      <c r="H163" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="I163" s="11"/>
+      <c r="I163" s="20"/>
       <c r="J163" s="3"/>
     </row>
     <row r="164" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7252,10 +7262,10 @@
       <c r="G164" s="8">
         <v>0</v>
       </c>
-      <c r="H164" s="11" t="s">
+      <c r="H164" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="I164" s="11"/>
+      <c r="I164" s="20"/>
       <c r="J164" s="3"/>
     </row>
     <row r="165" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7280,10 +7290,10 @@
       <c r="G165" s="8">
         <v>1</v>
       </c>
-      <c r="H165" s="11" t="s">
+      <c r="H165" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I165" s="11"/>
+      <c r="I165" s="20"/>
       <c r="J165" s="3"/>
     </row>
     <row r="166" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7308,10 +7318,10 @@
       <c r="G166" s="8">
         <v>1</v>
       </c>
-      <c r="H166" s="11" t="s">
+      <c r="H166" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="I166" s="11"/>
+      <c r="I166" s="20"/>
       <c r="J166" s="3"/>
     </row>
     <row r="167" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7336,10 +7346,10 @@
       <c r="G167" s="8">
         <v>0</v>
       </c>
-      <c r="H167" s="11" t="s">
+      <c r="H167" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="I167" s="11"/>
+      <c r="I167" s="20"/>
       <c r="J167" s="3"/>
     </row>
     <row r="168" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7364,10 +7374,10 @@
       <c r="G168" s="8">
         <v>0</v>
       </c>
-      <c r="H168" s="11" t="s">
+      <c r="H168" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="I168" s="11"/>
+      <c r="I168" s="20"/>
       <c r="J168" s="3"/>
     </row>
     <row r="169" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7392,10 +7402,10 @@
       <c r="G169" s="8">
         <v>0</v>
       </c>
-      <c r="H169" s="11" t="s">
+      <c r="H169" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="I169" s="11"/>
+      <c r="I169" s="20"/>
       <c r="J169" s="3"/>
     </row>
     <row r="170" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7420,10 +7430,10 @@
       <c r="G170" s="8">
         <v>0</v>
       </c>
-      <c r="H170" s="11" t="s">
+      <c r="H170" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I170" s="11"/>
+      <c r="I170" s="20"/>
       <c r="J170" s="3"/>
     </row>
     <row r="171" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7448,10 +7458,10 @@
       <c r="G171" s="8">
         <v>0</v>
       </c>
-      <c r="H171" s="11" t="s">
+      <c r="H171" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I171" s="11"/>
+      <c r="I171" s="20"/>
       <c r="J171" s="3"/>
     </row>
     <row r="172" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7476,10 +7486,10 @@
       <c r="G172" s="8">
         <v>0</v>
       </c>
-      <c r="H172" s="11" t="s">
+      <c r="H172" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I172" s="11"/>
+      <c r="I172" s="20"/>
       <c r="J172" s="3"/>
     </row>
     <row r="173" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7502,10 +7512,10 @@
       <c r="G173" s="8">
         <v>0</v>
       </c>
-      <c r="H173" s="11" t="s">
+      <c r="H173" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I173" s="11"/>
+      <c r="I173" s="20"/>
       <c r="J173" s="3"/>
     </row>
     <row r="174" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7528,8 +7538,8 @@
       <c r="G174" s="8">
         <v>0</v>
       </c>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
       <c r="J174" s="3"/>
     </row>
     <row r="175" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7552,8 +7562,8 @@
       <c r="G175" s="8">
         <v>0</v>
       </c>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
       <c r="J175" s="3"/>
     </row>
     <row r="176" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7576,8 +7586,8 @@
       <c r="G176" s="8">
         <v>0</v>
       </c>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
       <c r="J176" s="3"/>
     </row>
     <row r="177" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7600,8 +7610,8 @@
       <c r="G177" s="8">
         <v>0</v>
       </c>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
       <c r="J177" s="3"/>
     </row>
     <row r="178" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7624,8 +7634,8 @@
       <c r="G178" s="8">
         <v>0</v>
       </c>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
       <c r="J178" s="3"/>
     </row>
     <row r="179" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7648,8 +7658,8 @@
       <c r="G179" s="8">
         <v>0</v>
       </c>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
       <c r="J179" s="3"/>
     </row>
     <row r="180" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7672,8 +7682,8 @@
       <c r="G180" s="8">
         <v>0</v>
       </c>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
       <c r="J180" s="3"/>
     </row>
     <row r="181" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7696,8 +7706,8 @@
       <c r="G181" s="8">
         <v>0</v>
       </c>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
       <c r="J181" s="3"/>
     </row>
     <row r="182" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7720,8 +7730,8 @@
       <c r="G182" s="8">
         <v>0</v>
       </c>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
       <c r="J182" s="3"/>
     </row>
     <row r="183" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7744,8 +7754,8 @@
       <c r="G183" s="8">
         <v>0</v>
       </c>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
       <c r="J183" s="3"/>
     </row>
     <row r="184" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7768,8 +7778,8 @@
       <c r="G184" s="8">
         <v>0</v>
       </c>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
       <c r="J184" s="3"/>
     </row>
     <row r="185" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7792,8 +7802,8 @@
       <c r="G185" s="8">
         <v>0</v>
       </c>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
       <c r="J185" s="3"/>
     </row>
     <row r="186" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7816,8 +7826,8 @@
       <c r="G186" s="8">
         <v>0</v>
       </c>
-      <c r="H186" s="11"/>
-      <c r="I186" s="11"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
       <c r="J186" s="3"/>
     </row>
     <row r="187" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7840,8 +7850,8 @@
       <c r="G187" s="8">
         <v>0</v>
       </c>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
       <c r="J187" s="3"/>
     </row>
     <row r="188" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7864,8 +7874,8 @@
       <c r="G188" s="8">
         <v>0</v>
       </c>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
       <c r="J188" s="3"/>
     </row>
     <row r="189" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7888,8 +7898,8 @@
       <c r="G189" s="8">
         <v>0</v>
       </c>
-      <c r="H189" s="11"/>
-      <c r="I189" s="11"/>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
       <c r="J189" s="3"/>
     </row>
     <row r="190" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7912,8 +7922,8 @@
       <c r="G190" s="8">
         <v>0</v>
       </c>
-      <c r="H190" s="11"/>
-      <c r="I190" s="11"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
       <c r="J190" s="3"/>
     </row>
     <row r="191" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7936,8 +7946,8 @@
       <c r="G191" s="8">
         <v>0</v>
       </c>
-      <c r="H191" s="11"/>
-      <c r="I191" s="11"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
       <c r="J191" s="3"/>
     </row>
     <row r="192" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7960,8 +7970,8 @@
       <c r="G192" s="8">
         <v>0</v>
       </c>
-      <c r="H192" s="11"/>
-      <c r="I192" s="11"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
       <c r="J192" s="3"/>
     </row>
     <row r="193" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7984,8 +7994,8 @@
       <c r="G193" s="8">
         <v>0</v>
       </c>
-      <c r="H193" s="11"/>
-      <c r="I193" s="11"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
       <c r="J193" s="3"/>
     </row>
     <row r="194" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8008,8 +8018,8 @@
       <c r="G194" s="8">
         <v>0</v>
       </c>
-      <c r="H194" s="11"/>
-      <c r="I194" s="11"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
       <c r="J194" s="3"/>
     </row>
     <row r="195" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8032,8 +8042,8 @@
       <c r="G195" s="8">
         <v>0</v>
       </c>
-      <c r="H195" s="11"/>
-      <c r="I195" s="11"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
       <c r="J195" s="3"/>
     </row>
     <row r="196" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8056,8 +8066,8 @@
       <c r="G196" s="8">
         <v>0</v>
       </c>
-      <c r="H196" s="11"/>
-      <c r="I196" s="11"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
       <c r="J196" s="3"/>
     </row>
     <row r="197" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8080,8 +8090,8 @@
       <c r="G197" s="8">
         <v>0</v>
       </c>
-      <c r="H197" s="11"/>
-      <c r="I197" s="11"/>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
       <c r="J197" s="3"/>
     </row>
     <row r="198" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8104,8 +8114,8 @@
       <c r="G198" s="8">
         <v>0</v>
       </c>
-      <c r="H198" s="11"/>
-      <c r="I198" s="11"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
       <c r="J198" s="3"/>
     </row>
     <row r="199" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8128,8 +8138,8 @@
       <c r="G199" s="8">
         <v>0</v>
       </c>
-      <c r="H199" s="11"/>
-      <c r="I199" s="11"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
       <c r="J199" s="3"/>
     </row>
     <row r="200" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8152,8 +8162,8 @@
       <c r="G200" s="8">
         <v>0</v>
       </c>
-      <c r="H200" s="11"/>
-      <c r="I200" s="11"/>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
       <c r="J200" s="3"/>
     </row>
     <row r="201" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8176,8 +8186,8 @@
       <c r="G201" s="8">
         <v>0</v>
       </c>
-      <c r="H201" s="11"/>
-      <c r="I201" s="11"/>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
       <c r="J201" s="3"/>
     </row>
     <row r="202" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8200,8 +8210,8 @@
       <c r="G202" s="8">
         <v>0</v>
       </c>
-      <c r="H202" s="11"/>
-      <c r="I202" s="11"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
       <c r="J202" s="3"/>
     </row>
     <row r="203" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8224,8 +8234,8 @@
       <c r="G203" s="8">
         <v>0</v>
       </c>
-      <c r="H203" s="11"/>
-      <c r="I203" s="11"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
       <c r="J203" s="3"/>
     </row>
     <row r="204" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8248,8 +8258,8 @@
       <c r="G204" s="8">
         <v>0</v>
       </c>
-      <c r="H204" s="11"/>
-      <c r="I204" s="11"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
       <c r="J204" s="3"/>
     </row>
     <row r="205" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8272,8 +8282,8 @@
       <c r="G205" s="8">
         <v>0</v>
       </c>
-      <c r="H205" s="11"/>
-      <c r="I205" s="11"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
       <c r="J205" s="3"/>
     </row>
     <row r="206" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8296,8 +8306,8 @@
       <c r="G206" s="8">
         <v>0</v>
       </c>
-      <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
       <c r="J206" s="3"/>
     </row>
     <row r="207" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8320,8 +8330,8 @@
       <c r="G207" s="8">
         <v>0</v>
       </c>
-      <c r="H207" s="11"/>
-      <c r="I207" s="11"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
       <c r="J207" s="3"/>
     </row>
     <row r="208" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8344,8 +8354,8 @@
       <c r="G208" s="8">
         <v>0</v>
       </c>
-      <c r="H208" s="11"/>
-      <c r="I208" s="11"/>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
       <c r="J208" s="3"/>
     </row>
     <row r="209" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8368,8 +8378,8 @@
       <c r="G209" s="8">
         <v>0</v>
       </c>
-      <c r="H209" s="11"/>
-      <c r="I209" s="11"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
       <c r="J209" s="3"/>
     </row>
     <row r="210" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8392,8 +8402,8 @@
       <c r="G210" s="8">
         <v>0</v>
       </c>
-      <c r="H210" s="11"/>
-      <c r="I210" s="11"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
       <c r="J210" s="3"/>
     </row>
     <row r="211" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8416,8 +8426,8 @@
       <c r="G211" s="8">
         <v>0</v>
       </c>
-      <c r="H211" s="11"/>
-      <c r="I211" s="11"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
       <c r="J211" s="3"/>
     </row>
     <row r="212" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8440,8 +8450,8 @@
       <c r="G212" s="8">
         <v>0</v>
       </c>
-      <c r="H212" s="11"/>
-      <c r="I212" s="11"/>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
       <c r="J212" s="3"/>
     </row>
     <row r="213" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8464,8 +8474,8 @@
       <c r="G213" s="8">
         <v>0</v>
       </c>
-      <c r="H213" s="11"/>
-      <c r="I213" s="11"/>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
       <c r="J213" s="3"/>
     </row>
     <row r="214" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8488,8 +8498,8 @@
       <c r="G214" s="8">
         <v>0</v>
       </c>
-      <c r="H214" s="11"/>
-      <c r="I214" s="11"/>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
       <c r="J214" s="3"/>
     </row>
     <row r="215" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8514,10 +8524,10 @@
       <c r="G215" s="8">
         <v>0</v>
       </c>
-      <c r="H215" s="11" t="s">
+      <c r="H215" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="I215" s="11"/>
+      <c r="I215" s="20"/>
       <c r="J215" s="3"/>
     </row>
     <row r="216" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8542,10 +8552,10 @@
       <c r="G216" s="8">
         <v>0</v>
       </c>
-      <c r="H216" s="11" t="s">
+      <c r="H216" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I216" s="11"/>
+      <c r="I216" s="20"/>
       <c r="J216" s="3"/>
     </row>
     <row r="217" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8570,10 +8580,10 @@
       <c r="G217" s="8">
         <v>0</v>
       </c>
-      <c r="H217" s="11" t="s">
+      <c r="H217" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I217" s="11"/>
+      <c r="I217" s="20"/>
       <c r="J217" s="3"/>
     </row>
     <row r="218" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8598,10 +8608,10 @@
       <c r="G218" s="8">
         <v>0</v>
       </c>
-      <c r="H218" s="11" t="s">
+      <c r="H218" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I218" s="11"/>
+      <c r="I218" s="20"/>
       <c r="J218" s="3"/>
     </row>
     <row r="219" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8626,10 +8636,10 @@
       <c r="G219" s="8">
         <v>0</v>
       </c>
-      <c r="H219" s="11" t="s">
+      <c r="H219" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I219" s="11"/>
+      <c r="I219" s="20"/>
       <c r="J219" s="3"/>
     </row>
     <row r="220" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8654,10 +8664,10 @@
       <c r="G220" s="8">
         <v>0</v>
       </c>
-      <c r="H220" s="11" t="s">
+      <c r="H220" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="I220" s="11"/>
+      <c r="I220" s="20"/>
       <c r="J220" s="3"/>
     </row>
     <row r="221" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8682,10 +8692,10 @@
       <c r="G221" s="8">
         <v>0</v>
       </c>
-      <c r="H221" s="11" t="s">
+      <c r="H221" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="I221" s="11"/>
+      <c r="I221" s="20"/>
       <c r="J221" s="3"/>
     </row>
     <row r="222" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8710,10 +8720,10 @@
       <c r="G222" s="8">
         <v>0</v>
       </c>
-      <c r="H222" s="11" t="s">
+      <c r="H222" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I222" s="11"/>
+      <c r="I222" s="20"/>
       <c r="J222" s="3"/>
     </row>
     <row r="223" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8738,10 +8748,10 @@
       <c r="G223" s="8">
         <v>0</v>
       </c>
-      <c r="H223" s="11" t="s">
+      <c r="H223" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I223" s="11"/>
+      <c r="I223" s="20"/>
       <c r="J223" s="3"/>
     </row>
     <row r="224" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8766,10 +8776,10 @@
       <c r="G224" s="8">
         <v>0</v>
       </c>
-      <c r="H224" s="11" t="s">
+      <c r="H224" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I224" s="11"/>
+      <c r="I224" s="20"/>
       <c r="J224" s="3"/>
     </row>
     <row r="225" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8794,10 +8804,10 @@
       <c r="G225" s="8">
         <v>0</v>
       </c>
-      <c r="H225" s="11" t="s">
+      <c r="H225" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I225" s="11"/>
+      <c r="I225" s="20"/>
       <c r="J225" s="3"/>
     </row>
     <row r="226" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8822,10 +8832,10 @@
       <c r="G226" s="8">
         <v>0</v>
       </c>
-      <c r="H226" s="11" t="s">
+      <c r="H226" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="I226" s="11"/>
+      <c r="I226" s="20"/>
       <c r="J226" s="3"/>
     </row>
     <row r="227" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8850,10 +8860,10 @@
       <c r="G227" s="8">
         <v>0</v>
       </c>
-      <c r="H227" s="11" t="s">
+      <c r="H227" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="I227" s="11"/>
+      <c r="I227" s="20"/>
       <c r="J227" s="3"/>
     </row>
     <row r="228" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8878,10 +8888,10 @@
       <c r="G228" s="8">
         <v>0</v>
       </c>
-      <c r="H228" s="11" t="s">
+      <c r="H228" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I228" s="11"/>
+      <c r="I228" s="20"/>
       <c r="J228" s="3"/>
     </row>
     <row r="229" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8906,10 +8916,10 @@
       <c r="G229" s="8">
         <v>0</v>
       </c>
-      <c r="H229" s="11" t="s">
+      <c r="H229" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="I229" s="11"/>
+      <c r="I229" s="20"/>
       <c r="J229" s="3"/>
     </row>
     <row r="230" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8932,10 +8942,10 @@
       <c r="G230" s="8">
         <v>0</v>
       </c>
-      <c r="H230" s="11" t="s">
+      <c r="H230" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="I230" s="11"/>
+      <c r="I230" s="20"/>
       <c r="J230" s="3"/>
     </row>
     <row r="231" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8960,10 +8970,10 @@
       <c r="G231" s="8">
         <v>0</v>
       </c>
-      <c r="H231" s="11" t="s">
+      <c r="H231" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="I231" s="11"/>
+      <c r="I231" s="20"/>
       <c r="J231" s="3"/>
     </row>
     <row r="232" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8988,10 +8998,10 @@
       <c r="G232" s="8">
         <v>0</v>
       </c>
-      <c r="H232" s="11" t="s">
+      <c r="H232" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="I232" s="11"/>
+      <c r="I232" s="20"/>
       <c r="J232" s="3"/>
     </row>
     <row r="233" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9016,10 +9026,10 @@
       <c r="G233" s="8">
         <v>0</v>
       </c>
-      <c r="H233" s="11" t="s">
+      <c r="H233" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I233" s="11"/>
+      <c r="I233" s="20"/>
       <c r="J233" s="3"/>
     </row>
     <row r="234" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9044,10 +9054,10 @@
       <c r="G234" s="8">
         <v>0</v>
       </c>
-      <c r="H234" s="11" t="s">
+      <c r="H234" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I234" s="11"/>
+      <c r="I234" s="20"/>
       <c r="J234" s="3"/>
     </row>
     <row r="235" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9072,10 +9082,10 @@
       <c r="G235" s="8">
         <v>0</v>
       </c>
-      <c r="H235" s="11" t="s">
+      <c r="H235" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="I235" s="11"/>
+      <c r="I235" s="20"/>
       <c r="J235" s="3"/>
     </row>
     <row r="236" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9100,10 +9110,10 @@
       <c r="G236" s="8">
         <v>1</v>
       </c>
-      <c r="H236" s="11" t="s">
+      <c r="H236" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I236" s="11"/>
+      <c r="I236" s="20"/>
       <c r="J236" s="3"/>
     </row>
     <row r="237" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9128,10 +9138,10 @@
       <c r="G237" s="8">
         <v>0</v>
       </c>
-      <c r="H237" s="11" t="s">
+      <c r="H237" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I237" s="11"/>
+      <c r="I237" s="20"/>
       <c r="J237" s="3"/>
     </row>
     <row r="238" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9156,10 +9166,10 @@
       <c r="G238" s="8">
         <v>0</v>
       </c>
-      <c r="H238" s="11" t="s">
+      <c r="H238" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I238" s="11"/>
+      <c r="I238" s="20"/>
       <c r="J238" s="3"/>
     </row>
     <row r="239" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9184,10 +9194,10 @@
       <c r="G239" s="8">
         <v>0</v>
       </c>
-      <c r="H239" s="11" t="s">
+      <c r="H239" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I239" s="11"/>
+      <c r="I239" s="20"/>
       <c r="J239" s="3"/>
     </row>
     <row r="240" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9212,10 +9222,10 @@
       <c r="G240" s="8">
         <v>0</v>
       </c>
-      <c r="H240" s="11" t="s">
+      <c r="H240" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="I240" s="11"/>
+      <c r="I240" s="20"/>
       <c r="J240" s="3"/>
     </row>
     <row r="241" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9240,10 +9250,10 @@
       <c r="G241" s="8">
         <v>0</v>
       </c>
-      <c r="H241" s="11" t="s">
+      <c r="H241" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="I241" s="11"/>
+      <c r="I241" s="20"/>
       <c r="J241" s="3"/>
     </row>
     <row r="242" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9266,10 +9276,10 @@
       <c r="G242" s="8">
         <v>0</v>
       </c>
-      <c r="H242" s="11" t="s">
+      <c r="H242" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I242" s="11"/>
+      <c r="I242" s="20"/>
       <c r="J242" s="3"/>
     </row>
     <row r="243" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9294,10 +9304,10 @@
       <c r="G243" s="8">
         <v>0</v>
       </c>
-      <c r="H243" s="11" t="s">
+      <c r="H243" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="I243" s="11"/>
+      <c r="I243" s="20"/>
       <c r="J243" s="3"/>
     </row>
     <row r="244" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9322,10 +9332,10 @@
       <c r="G244" s="8">
         <v>0</v>
       </c>
-      <c r="H244" s="11" t="s">
+      <c r="H244" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="I244" s="11"/>
+      <c r="I244" s="20"/>
       <c r="J244" s="3"/>
     </row>
     <row r="245" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9350,10 +9360,10 @@
       <c r="G245" s="8">
         <v>0</v>
       </c>
-      <c r="H245" s="11" t="s">
+      <c r="H245" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="I245" s="11"/>
+      <c r="I245" s="20"/>
       <c r="J245" s="3"/>
     </row>
     <row r="246" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9378,10 +9388,10 @@
       <c r="G246" s="8">
         <v>0</v>
       </c>
-      <c r="H246" s="11" t="s">
+      <c r="H246" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I246" s="11"/>
+      <c r="I246" s="20"/>
       <c r="J246" s="3"/>
     </row>
     <row r="247" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9406,10 +9416,10 @@
       <c r="G247" s="8">
         <v>0</v>
       </c>
-      <c r="H247" s="11" t="s">
+      <c r="H247" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I247" s="11"/>
+      <c r="I247" s="20"/>
       <c r="J247" s="3"/>
     </row>
     <row r="248" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9434,10 +9444,10 @@
       <c r="G248" s="8">
         <v>0</v>
       </c>
-      <c r="H248" s="11" t="s">
+      <c r="H248" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I248" s="11"/>
+      <c r="I248" s="20"/>
       <c r="J248" s="3"/>
     </row>
     <row r="249" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9462,10 +9472,10 @@
       <c r="G249" s="8">
         <v>0</v>
       </c>
-      <c r="H249" s="11" t="s">
+      <c r="H249" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I249" s="11"/>
+      <c r="I249" s="20"/>
       <c r="J249" s="3"/>
     </row>
     <row r="250" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9490,10 +9500,10 @@
       <c r="G250" s="8">
         <v>0</v>
       </c>
-      <c r="H250" s="11" t="s">
+      <c r="H250" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I250" s="11"/>
+      <c r="I250" s="20"/>
       <c r="J250" s="3"/>
     </row>
     <row r="251" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9518,10 +9528,10 @@
       <c r="G251" s="8">
         <v>0</v>
       </c>
-      <c r="H251" s="11" t="s">
+      <c r="H251" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="I251" s="11"/>
+      <c r="I251" s="20"/>
       <c r="J251" s="3"/>
     </row>
     <row r="252" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9544,8 +9554,8 @@
       <c r="G252" s="8">
         <v>0</v>
       </c>
-      <c r="H252" s="11"/>
-      <c r="I252" s="11"/>
+      <c r="H252" s="20"/>
+      <c r="I252" s="20"/>
       <c r="J252" s="3"/>
     </row>
     <row r="253" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9570,10 +9580,10 @@
       <c r="G253" s="8">
         <v>0</v>
       </c>
-      <c r="H253" s="11" t="s">
+      <c r="H253" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="I253" s="11"/>
+      <c r="I253" s="20"/>
       <c r="J253" s="3"/>
     </row>
     <row r="254" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9598,10 +9608,10 @@
       <c r="G254" s="8">
         <v>0</v>
       </c>
-      <c r="H254" s="11" t="s">
+      <c r="H254" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="I254" s="11"/>
+      <c r="I254" s="20"/>
       <c r="J254" s="3"/>
     </row>
     <row r="255" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9626,10 +9636,10 @@
       <c r="G255" s="8">
         <v>0</v>
       </c>
-      <c r="H255" s="11" t="s">
+      <c r="H255" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="I255" s="11"/>
+      <c r="I255" s="20"/>
       <c r="J255" s="3"/>
     </row>
     <row r="256" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9654,10 +9664,10 @@
       <c r="G256" s="8">
         <v>0</v>
       </c>
-      <c r="H256" s="11" t="s">
+      <c r="H256" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="I256" s="11"/>
+      <c r="I256" s="20"/>
       <c r="J256" s="3"/>
     </row>
     <row r="257" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9682,10 +9692,10 @@
       <c r="G257" s="8">
         <v>0</v>
       </c>
-      <c r="H257" s="11" t="s">
+      <c r="H257" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="I257" s="11"/>
+      <c r="I257" s="20"/>
       <c r="J257" s="3"/>
     </row>
     <row r="258" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9710,10 +9720,10 @@
       <c r="G258" s="8">
         <v>0</v>
       </c>
-      <c r="H258" s="11" t="s">
+      <c r="H258" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="I258" s="11"/>
+      <c r="I258" s="20"/>
       <c r="J258" s="3"/>
     </row>
     <row r="259" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9738,10 +9748,10 @@
       <c r="G259" s="8">
         <v>0</v>
       </c>
-      <c r="H259" s="11" t="s">
+      <c r="H259" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I259" s="11"/>
+      <c r="I259" s="20"/>
       <c r="J259" s="3"/>
     </row>
     <row r="260" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9764,10 +9774,10 @@
       <c r="G260" s="8">
         <v>0</v>
       </c>
-      <c r="H260" s="11" t="s">
+      <c r="H260" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I260" s="11"/>
+      <c r="I260" s="20"/>
       <c r="J260" s="3"/>
     </row>
     <row r="261" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9792,10 +9802,10 @@
       <c r="G261" s="8">
         <v>0</v>
       </c>
-      <c r="H261" s="11" t="s">
+      <c r="H261" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I261" s="11"/>
+      <c r="I261" s="20"/>
       <c r="J261" s="3"/>
     </row>
     <row r="262" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9820,10 +9830,10 @@
       <c r="G262" s="8">
         <v>0</v>
       </c>
-      <c r="H262" s="11" t="s">
+      <c r="H262" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I262" s="11"/>
+      <c r="I262" s="20"/>
       <c r="J262" s="3"/>
     </row>
     <row r="263" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9848,10 +9858,10 @@
       <c r="G263" s="8">
         <v>0</v>
       </c>
-      <c r="H263" s="11" t="s">
+      <c r="H263" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I263" s="11"/>
+      <c r="I263" s="20"/>
       <c r="J263" s="3"/>
     </row>
     <row r="264" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9876,10 +9886,10 @@
       <c r="G264" s="8">
         <v>0</v>
       </c>
-      <c r="H264" s="11" t="s">
+      <c r="H264" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="I264" s="11"/>
+      <c r="I264" s="20"/>
       <c r="J264" s="3"/>
     </row>
     <row r="265" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9904,10 +9914,10 @@
       <c r="G265" s="8">
         <v>0</v>
       </c>
-      <c r="H265" s="11" t="s">
+      <c r="H265" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="I265" s="11"/>
+      <c r="I265" s="20"/>
       <c r="J265" s="3"/>
     </row>
     <row r="266" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9932,10 +9942,10 @@
       <c r="G266" s="8">
         <v>0</v>
       </c>
-      <c r="H266" s="11" t="s">
+      <c r="H266" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="I266" s="11"/>
+      <c r="I266" s="20"/>
       <c r="J266" s="3"/>
     </row>
     <row r="267" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9960,10 +9970,10 @@
       <c r="G267" s="8">
         <v>0</v>
       </c>
-      <c r="H267" s="11" t="s">
+      <c r="H267" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I267" s="11"/>
+      <c r="I267" s="20"/>
       <c r="J267" s="3"/>
     </row>
     <row r="268" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9988,10 +9998,10 @@
       <c r="G268" s="8">
         <v>0</v>
       </c>
-      <c r="H268" s="11" t="s">
+      <c r="H268" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="I268" s="11"/>
+      <c r="I268" s="20"/>
       <c r="J268" s="3"/>
     </row>
     <row r="269" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10016,10 +10026,10 @@
       <c r="G269" s="8">
         <v>0</v>
       </c>
-      <c r="H269" s="11" t="s">
+      <c r="H269" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I269" s="11"/>
+      <c r="I269" s="20"/>
       <c r="J269" s="3"/>
     </row>
     <row r="270" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10044,10 +10054,10 @@
       <c r="G270" s="8">
         <v>0</v>
       </c>
-      <c r="H270" s="11" t="s">
+      <c r="H270" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="I270" s="11"/>
+      <c r="I270" s="20"/>
       <c r="J270" s="3"/>
     </row>
     <row r="271" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10072,10 +10082,10 @@
       <c r="G271" s="8">
         <v>0</v>
       </c>
-      <c r="H271" s="11" t="s">
+      <c r="H271" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="I271" s="11"/>
+      <c r="I271" s="20"/>
       <c r="J271" s="3"/>
     </row>
     <row r="272" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10100,10 +10110,10 @@
       <c r="G272" s="8">
         <v>0</v>
       </c>
-      <c r="H272" s="11" t="s">
+      <c r="H272" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I272" s="11"/>
+      <c r="I272" s="20"/>
       <c r="J272" s="3"/>
     </row>
     <row r="273" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10128,10 +10138,10 @@
       <c r="G273" s="8">
         <v>0</v>
       </c>
-      <c r="H273" s="11" t="s">
+      <c r="H273" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I273" s="11"/>
+      <c r="I273" s="20"/>
       <c r="J273" s="3"/>
     </row>
     <row r="274" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10154,8 +10164,8 @@
       <c r="G274" s="8">
         <v>0</v>
       </c>
-      <c r="H274" s="11"/>
-      <c r="I274" s="11"/>
+      <c r="H274" s="20"/>
+      <c r="I274" s="20"/>
       <c r="J274" s="3"/>
     </row>
     <row r="275" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10180,10 +10190,10 @@
       <c r="G275" s="8">
         <v>0</v>
       </c>
-      <c r="H275" s="11" t="s">
+      <c r="H275" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="I275" s="11"/>
+      <c r="I275" s="20"/>
       <c r="J275" s="3"/>
     </row>
     <row r="276" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10208,10 +10218,10 @@
       <c r="G276" s="8">
         <v>0</v>
       </c>
-      <c r="H276" s="11" t="s">
+      <c r="H276" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="I276" s="11"/>
+      <c r="I276" s="20"/>
       <c r="J276" s="3"/>
     </row>
     <row r="277" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10236,10 +10246,10 @@
       <c r="G277" s="8">
         <v>0</v>
       </c>
-      <c r="H277" s="11" t="s">
+      <c r="H277" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="I277" s="11"/>
+      <c r="I277" s="20"/>
       <c r="J277" s="3"/>
     </row>
     <row r="278" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10264,10 +10274,10 @@
       <c r="G278" s="8">
         <v>0</v>
       </c>
-      <c r="H278" s="11" t="s">
+      <c r="H278" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="I278" s="11"/>
+      <c r="I278" s="20"/>
       <c r="J278" s="3"/>
     </row>
     <row r="279" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10292,10 +10302,10 @@
       <c r="G279" s="8">
         <v>0</v>
       </c>
-      <c r="H279" s="11" t="s">
+      <c r="H279" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="I279" s="11"/>
+      <c r="I279" s="20"/>
       <c r="J279" s="3"/>
     </row>
     <row r="280" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10320,10 +10330,10 @@
       <c r="G280" s="8">
         <v>0</v>
       </c>
-      <c r="H280" s="11" t="s">
+      <c r="H280" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="I280" s="11"/>
+      <c r="I280" s="20"/>
       <c r="J280" s="3"/>
     </row>
     <row r="281" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10348,10 +10358,10 @@
       <c r="G281" s="8">
         <v>0</v>
       </c>
-      <c r="H281" s="11" t="s">
+      <c r="H281" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I281" s="11"/>
+      <c r="I281" s="20"/>
       <c r="J281" s="3"/>
     </row>
     <row r="282" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10376,10 +10386,10 @@
       <c r="G282" s="8">
         <v>0</v>
       </c>
-      <c r="H282" s="11" t="s">
+      <c r="H282" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="I282" s="11"/>
+      <c r="I282" s="20"/>
       <c r="J282" s="3"/>
     </row>
     <row r="283" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10402,8 +10412,8 @@
       <c r="G283" s="8">
         <v>0</v>
       </c>
-      <c r="H283" s="11"/>
-      <c r="I283" s="11"/>
+      <c r="H283" s="20"/>
+      <c r="I283" s="20"/>
       <c r="J283" s="3"/>
     </row>
     <row r="284" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10428,10 +10438,10 @@
       <c r="G284" s="8">
         <v>0</v>
       </c>
-      <c r="H284" s="11" t="s">
+      <c r="H284" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I284" s="11"/>
+      <c r="I284" s="20"/>
       <c r="J284" s="3"/>
     </row>
     <row r="285" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10456,10 +10466,10 @@
       <c r="G285" s="8">
         <v>0</v>
       </c>
-      <c r="H285" s="11" t="s">
+      <c r="H285" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="I285" s="11"/>
+      <c r="I285" s="20"/>
       <c r="J285" s="3"/>
     </row>
     <row r="286" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10484,10 +10494,10 @@
       <c r="G286" s="8">
         <v>0</v>
       </c>
-      <c r="H286" s="11" t="s">
+      <c r="H286" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="I286" s="11"/>
+      <c r="I286" s="20"/>
       <c r="J286" s="3"/>
     </row>
     <row r="287" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10510,8 +10520,8 @@
       <c r="G287" s="8">
         <v>0</v>
       </c>
-      <c r="H287" s="11"/>
-      <c r="I287" s="11"/>
+      <c r="H287" s="20"/>
+      <c r="I287" s="20"/>
       <c r="J287" s="3"/>
     </row>
     <row r="288" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10536,10 +10546,10 @@
       <c r="G288" s="8">
         <v>0</v>
       </c>
-      <c r="H288" s="11" t="s">
+      <c r="H288" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="I288" s="11"/>
+      <c r="I288" s="20"/>
       <c r="J288" s="3"/>
     </row>
     <row r="289" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10564,10 +10574,10 @@
       <c r="G289" s="8">
         <v>0</v>
       </c>
-      <c r="H289" s="11" t="s">
+      <c r="H289" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="I289" s="11"/>
+      <c r="I289" s="20"/>
       <c r="J289" s="3"/>
     </row>
     <row r="290" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10592,10 +10602,10 @@
       <c r="G290" s="8">
         <v>0</v>
       </c>
-      <c r="H290" s="11" t="s">
+      <c r="H290" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="I290" s="11"/>
+      <c r="I290" s="20"/>
       <c r="J290" s="3"/>
     </row>
     <row r="291" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10620,10 +10630,10 @@
       <c r="G291" s="8">
         <v>0</v>
       </c>
-      <c r="H291" s="11" t="s">
+      <c r="H291" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I291" s="11"/>
+      <c r="I291" s="20"/>
       <c r="J291" s="3"/>
     </row>
     <row r="292" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10648,10 +10658,10 @@
       <c r="G292" s="8">
         <v>0</v>
       </c>
-      <c r="H292" s="11" t="s">
+      <c r="H292" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I292" s="11"/>
+      <c r="I292" s="20"/>
       <c r="J292" s="3"/>
     </row>
     <row r="293" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10676,10 +10686,10 @@
       <c r="G293" s="8">
         <v>0</v>
       </c>
-      <c r="H293" s="11" t="s">
+      <c r="H293" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I293" s="11"/>
+      <c r="I293" s="20"/>
       <c r="J293" s="3"/>
     </row>
     <row r="294" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10704,10 +10714,10 @@
       <c r="G294" s="8">
         <v>0</v>
       </c>
-      <c r="H294" s="11" t="s">
+      <c r="H294" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I294" s="11"/>
+      <c r="I294" s="20"/>
       <c r="J294" s="3"/>
     </row>
     <row r="295" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10732,10 +10742,10 @@
       <c r="G295" s="8">
         <v>0</v>
       </c>
-      <c r="H295" s="11" t="s">
+      <c r="H295" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I295" s="11"/>
+      <c r="I295" s="20"/>
       <c r="J295" s="3"/>
     </row>
     <row r="296" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10760,10 +10770,10 @@
       <c r="G296" s="8">
         <v>0</v>
       </c>
-      <c r="H296" s="11" t="s">
+      <c r="H296" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="I296" s="11"/>
+      <c r="I296" s="20"/>
       <c r="J296" s="3"/>
     </row>
     <row r="297" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10788,10 +10798,10 @@
       <c r="G297" s="8">
         <v>0</v>
       </c>
-      <c r="H297" s="11" t="s">
+      <c r="H297" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="I297" s="11"/>
+      <c r="I297" s="20"/>
       <c r="J297" s="3"/>
     </row>
     <row r="298" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10816,10 +10826,10 @@
       <c r="G298" s="8">
         <v>0</v>
       </c>
-      <c r="H298" s="11" t="s">
+      <c r="H298" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="I298" s="11"/>
+      <c r="I298" s="20"/>
       <c r="J298" s="3"/>
     </row>
     <row r="299" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10842,8 +10852,8 @@
       <c r="G299" s="8">
         <v>0</v>
       </c>
-      <c r="H299" s="11"/>
-      <c r="I299" s="11"/>
+      <c r="H299" s="20"/>
+      <c r="I299" s="20"/>
       <c r="J299" s="3"/>
     </row>
     <row r="300" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10868,10 +10878,10 @@
       <c r="G300" s="8">
         <v>1</v>
       </c>
-      <c r="H300" s="11" t="s">
+      <c r="H300" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="I300" s="11"/>
+      <c r="I300" s="20"/>
       <c r="J300" s="3"/>
     </row>
     <row r="301" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10896,10 +10906,10 @@
       <c r="G301" s="8">
         <v>0</v>
       </c>
-      <c r="H301" s="11" t="s">
+      <c r="H301" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="I301" s="11"/>
+      <c r="I301" s="20"/>
       <c r="J301" s="3"/>
     </row>
     <row r="302" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10924,10 +10934,10 @@
       <c r="G302" s="8">
         <v>0</v>
       </c>
-      <c r="H302" s="11" t="s">
+      <c r="H302" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="I302" s="11"/>
+      <c r="I302" s="20"/>
       <c r="J302" s="3"/>
     </row>
     <row r="303" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10952,10 +10962,10 @@
       <c r="G303" s="8">
         <v>0</v>
       </c>
-      <c r="H303" s="11" t="s">
+      <c r="H303" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I303" s="11"/>
+      <c r="I303" s="20"/>
       <c r="J303" s="3"/>
     </row>
     <row r="304" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10978,8 +10988,8 @@
       <c r="G304" s="8">
         <v>0</v>
       </c>
-      <c r="H304" s="11"/>
-      <c r="I304" s="11"/>
+      <c r="H304" s="20"/>
+      <c r="I304" s="20"/>
       <c r="J304" s="3"/>
     </row>
     <row r="305" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11004,10 +11014,10 @@
       <c r="G305" s="8">
         <v>0</v>
       </c>
-      <c r="H305" s="11" t="s">
+      <c r="H305" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="I305" s="11"/>
+      <c r="I305" s="20"/>
       <c r="J305" s="3"/>
     </row>
     <row r="306" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11032,10 +11042,10 @@
       <c r="G306" s="8">
         <v>0</v>
       </c>
-      <c r="H306" s="11" t="s">
+      <c r="H306" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="I306" s="11"/>
+      <c r="I306" s="20"/>
       <c r="J306" s="3"/>
     </row>
     <row r="307" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11058,10 +11068,10 @@
       <c r="G307" s="8">
         <v>0</v>
       </c>
-      <c r="H307" s="11" t="s">
+      <c r="H307" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="I307" s="11"/>
+      <c r="I307" s="20"/>
       <c r="J307" s="3"/>
     </row>
     <row r="308" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11086,10 +11096,10 @@
       <c r="G308" s="8">
         <v>2</v>
       </c>
-      <c r="H308" s="11" t="s">
+      <c r="H308" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="I308" s="11"/>
+      <c r="I308" s="20"/>
       <c r="J308" s="3"/>
     </row>
     <row r="309" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11114,10 +11124,10 @@
       <c r="G309" s="8">
         <v>0</v>
       </c>
-      <c r="H309" s="11" t="s">
+      <c r="H309" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I309" s="11"/>
+      <c r="I309" s="20"/>
       <c r="J309" s="3"/>
     </row>
     <row r="310" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11142,10 +11152,10 @@
       <c r="G310" s="8">
         <v>0</v>
       </c>
-      <c r="H310" s="11" t="s">
+      <c r="H310" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I310" s="11"/>
+      <c r="I310" s="20"/>
       <c r="J310" s="3"/>
     </row>
     <row r="311" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11170,10 +11180,10 @@
       <c r="G311" s="8">
         <v>0</v>
       </c>
-      <c r="H311" s="11" t="s">
+      <c r="H311" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I311" s="11"/>
+      <c r="I311" s="20"/>
       <c r="J311" s="3"/>
     </row>
     <row r="312" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11198,10 +11208,10 @@
       <c r="G312" s="8">
         <v>0</v>
       </c>
-      <c r="H312" s="11" t="s">
+      <c r="H312" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I312" s="11"/>
+      <c r="I312" s="20"/>
       <c r="J312" s="3"/>
     </row>
     <row r="313" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11226,10 +11236,10 @@
       <c r="G313" s="8">
         <v>0</v>
       </c>
-      <c r="H313" s="11" t="s">
+      <c r="H313" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I313" s="11"/>
+      <c r="I313" s="20"/>
       <c r="J313" s="3"/>
     </row>
     <row r="314" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11254,10 +11264,10 @@
       <c r="G314" s="8">
         <v>0</v>
       </c>
-      <c r="H314" s="11" t="s">
+      <c r="H314" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I314" s="11"/>
+      <c r="I314" s="20"/>
       <c r="J314" s="3"/>
     </row>
     <row r="315" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11282,10 +11292,10 @@
       <c r="G315" s="8">
         <v>0</v>
       </c>
-      <c r="H315" s="11" t="s">
+      <c r="H315" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I315" s="11"/>
+      <c r="I315" s="20"/>
       <c r="J315" s="3"/>
     </row>
     <row r="316" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11310,10 +11320,10 @@
       <c r="G316" s="8">
         <v>0</v>
       </c>
-      <c r="H316" s="11" t="s">
+      <c r="H316" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I316" s="11"/>
+      <c r="I316" s="20"/>
       <c r="J316" s="3"/>
     </row>
     <row r="317" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11338,10 +11348,10 @@
       <c r="G317" s="8">
         <v>0</v>
       </c>
-      <c r="H317" s="11" t="s">
+      <c r="H317" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="I317" s="11"/>
+      <c r="I317" s="20"/>
       <c r="J317" s="3"/>
     </row>
     <row r="318" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11366,10 +11376,10 @@
       <c r="G318" s="8">
         <v>0</v>
       </c>
-      <c r="H318" s="11" t="s">
+      <c r="H318" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I318" s="11"/>
+      <c r="I318" s="20"/>
       <c r="J318" s="3"/>
     </row>
     <row r="319" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11394,10 +11404,10 @@
       <c r="G319" s="8">
         <v>1</v>
       </c>
-      <c r="H319" s="11" t="s">
+      <c r="H319" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I319" s="11"/>
+      <c r="I319" s="20"/>
       <c r="J319" s="3"/>
     </row>
     <row r="320" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11422,10 +11432,10 @@
       <c r="G320" s="8">
         <v>0</v>
       </c>
-      <c r="H320" s="11" t="s">
+      <c r="H320" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="I320" s="11"/>
+      <c r="I320" s="20"/>
       <c r="J320" s="3"/>
     </row>
     <row r="321" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11450,10 +11460,10 @@
       <c r="G321" s="8">
         <v>0</v>
       </c>
-      <c r="H321" s="11" t="s">
+      <c r="H321" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="I321" s="11"/>
+      <c r="I321" s="20"/>
       <c r="J321" s="3"/>
     </row>
     <row r="322" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11478,10 +11488,10 @@
       <c r="G322" s="8">
         <v>0</v>
       </c>
-      <c r="H322" s="11" t="s">
+      <c r="H322" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I322" s="11"/>
+      <c r="I322" s="20"/>
       <c r="J322" s="3"/>
     </row>
     <row r="323" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11506,10 +11516,10 @@
       <c r="G323" s="8">
         <v>0</v>
       </c>
-      <c r="H323" s="11" t="s">
+      <c r="H323" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I323" s="11"/>
+      <c r="I323" s="20"/>
       <c r="J323" s="3"/>
     </row>
     <row r="324" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11534,10 +11544,10 @@
       <c r="G324" s="8">
         <v>0</v>
       </c>
-      <c r="H324" s="11" t="s">
+      <c r="H324" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I324" s="11"/>
+      <c r="I324" s="20"/>
       <c r="J324" s="3"/>
     </row>
     <row r="325" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11562,10 +11572,10 @@
       <c r="G325" s="8">
         <v>0</v>
       </c>
-      <c r="H325" s="11" t="s">
+      <c r="H325" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="I325" s="11"/>
+      <c r="I325" s="20"/>
       <c r="J325" s="3"/>
     </row>
     <row r="326" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11590,10 +11600,10 @@
       <c r="G326" s="8">
         <v>0</v>
       </c>
-      <c r="H326" s="11" t="s">
+      <c r="H326" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I326" s="11"/>
+      <c r="I326" s="20"/>
       <c r="J326" s="3"/>
     </row>
     <row r="327" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11618,10 +11628,10 @@
       <c r="G327" s="8">
         <v>0</v>
       </c>
-      <c r="H327" s="11" t="s">
+      <c r="H327" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I327" s="11"/>
+      <c r="I327" s="20"/>
       <c r="J327" s="3"/>
     </row>
     <row r="328" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11646,10 +11656,10 @@
       <c r="G328" s="8">
         <v>0</v>
       </c>
-      <c r="H328" s="11" t="s">
+      <c r="H328" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I328" s="11"/>
+      <c r="I328" s="20"/>
       <c r="J328" s="3"/>
     </row>
     <row r="329" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11674,10 +11684,10 @@
       <c r="G329" s="8">
         <v>0</v>
       </c>
-      <c r="H329" s="11" t="s">
+      <c r="H329" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="I329" s="11"/>
+      <c r="I329" s="20"/>
       <c r="J329" s="3"/>
     </row>
     <row r="330" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11702,10 +11712,10 @@
       <c r="G330" s="8">
         <v>0</v>
       </c>
-      <c r="H330" s="11" t="s">
+      <c r="H330" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I330" s="11"/>
+      <c r="I330" s="20"/>
       <c r="J330" s="3"/>
     </row>
     <row r="331" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11730,10 +11740,10 @@
       <c r="G331" s="8">
         <v>0</v>
       </c>
-      <c r="H331" s="11" t="s">
+      <c r="H331" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I331" s="11"/>
+      <c r="I331" s="20"/>
       <c r="J331" s="3"/>
     </row>
     <row r="332" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11758,10 +11768,10 @@
       <c r="G332" s="8">
         <v>0</v>
       </c>
-      <c r="H332" s="11" t="s">
+      <c r="H332" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="I332" s="11"/>
+      <c r="I332" s="20"/>
       <c r="J332" s="3"/>
     </row>
     <row r="333" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11786,10 +11796,10 @@
       <c r="G333" s="8">
         <v>0</v>
       </c>
-      <c r="H333" s="11" t="s">
+      <c r="H333" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I333" s="11"/>
+      <c r="I333" s="20"/>
       <c r="J333" s="3"/>
     </row>
     <row r="334" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11812,8 +11822,8 @@
       <c r="G334" s="8">
         <v>0</v>
       </c>
-      <c r="H334" s="11"/>
-      <c r="I334" s="11"/>
+      <c r="H334" s="20"/>
+      <c r="I334" s="20"/>
       <c r="J334" s="3"/>
     </row>
     <row r="335" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11838,10 +11848,10 @@
       <c r="G335" s="8">
         <v>0</v>
       </c>
-      <c r="H335" s="11" t="s">
+      <c r="H335" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I335" s="11"/>
+      <c r="I335" s="20"/>
       <c r="J335" s="3"/>
     </row>
     <row r="336" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11866,10 +11876,10 @@
       <c r="G336" s="8">
         <v>0</v>
       </c>
-      <c r="H336" s="11" t="s">
+      <c r="H336" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="I336" s="11"/>
+      <c r="I336" s="20"/>
       <c r="J336" s="3"/>
     </row>
     <row r="337" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11892,10 +11902,10 @@
       <c r="G337" s="8">
         <v>0</v>
       </c>
-      <c r="H337" s="11" t="s">
+      <c r="H337" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="I337" s="11"/>
+      <c r="I337" s="20"/>
       <c r="J337" s="3"/>
     </row>
     <row r="338" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11920,10 +11930,10 @@
       <c r="G338" s="8">
         <v>0</v>
       </c>
-      <c r="H338" s="11" t="s">
+      <c r="H338" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="I338" s="11"/>
+      <c r="I338" s="20"/>
       <c r="J338" s="3"/>
     </row>
     <row r="339" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11948,10 +11958,10 @@
       <c r="G339" s="8">
         <v>0</v>
       </c>
-      <c r="H339" s="11" t="s">
+      <c r="H339" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I339" s="11"/>
+      <c r="I339" s="20"/>
       <c r="J339" s="3"/>
     </row>
     <row r="340" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11976,10 +11986,10 @@
       <c r="G340" s="8">
         <v>1</v>
       </c>
-      <c r="H340" s="11" t="s">
+      <c r="H340" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="I340" s="11"/>
+      <c r="I340" s="20"/>
       <c r="J340" s="3"/>
     </row>
     <row r="341" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12004,10 +12014,10 @@
       <c r="G341" s="8">
         <v>0</v>
       </c>
-      <c r="H341" s="11" t="s">
+      <c r="H341" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="I341" s="11"/>
+      <c r="I341" s="20"/>
       <c r="J341" s="3"/>
     </row>
     <row r="342" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12032,10 +12042,10 @@
       <c r="G342" s="8">
         <v>0</v>
       </c>
-      <c r="H342" s="11" t="s">
+      <c r="H342" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I342" s="11"/>
+      <c r="I342" s="20"/>
       <c r="J342" s="3"/>
     </row>
     <row r="343" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12060,10 +12070,10 @@
       <c r="G343" s="8">
         <v>0</v>
       </c>
-      <c r="H343" s="11" t="s">
+      <c r="H343" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I343" s="11"/>
+      <c r="I343" s="20"/>
       <c r="J343" s="3"/>
     </row>
     <row r="344" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12088,10 +12098,10 @@
       <c r="G344" s="8">
         <v>0</v>
       </c>
-      <c r="H344" s="11" t="s">
+      <c r="H344" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I344" s="11"/>
+      <c r="I344" s="20"/>
       <c r="J344" s="3"/>
     </row>
     <row r="345" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12116,10 +12126,10 @@
       <c r="G345" s="8">
         <v>0</v>
       </c>
-      <c r="H345" s="11" t="s">
+      <c r="H345" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I345" s="11"/>
+      <c r="I345" s="20"/>
       <c r="J345" s="3"/>
     </row>
     <row r="346" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12144,10 +12154,10 @@
       <c r="G346" s="8">
         <v>1</v>
       </c>
-      <c r="H346" s="11" t="s">
+      <c r="H346" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I346" s="11"/>
+      <c r="I346" s="20"/>
       <c r="J346" s="3"/>
     </row>
     <row r="347" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12172,10 +12182,10 @@
       <c r="G347" s="8">
         <v>0</v>
       </c>
-      <c r="H347" s="11" t="s">
+      <c r="H347" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="I347" s="11"/>
+      <c r="I347" s="20"/>
       <c r="J347" s="3"/>
     </row>
     <row r="348" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12200,10 +12210,10 @@
       <c r="G348" s="8">
         <v>1</v>
       </c>
-      <c r="H348" s="11" t="s">
+      <c r="H348" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="I348" s="11"/>
+      <c r="I348" s="20"/>
       <c r="J348" s="3"/>
     </row>
     <row r="349" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12228,10 +12238,10 @@
       <c r="G349" s="8">
         <v>0</v>
       </c>
-      <c r="H349" s="11" t="s">
+      <c r="H349" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="I349" s="11"/>
+      <c r="I349" s="20"/>
       <c r="J349" s="3"/>
     </row>
     <row r="350" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12256,10 +12266,10 @@
       <c r="G350" s="8">
         <v>0</v>
       </c>
-      <c r="H350" s="11" t="s">
+      <c r="H350" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I350" s="11"/>
+      <c r="I350" s="20"/>
       <c r="J350" s="3"/>
     </row>
     <row r="351" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12284,10 +12294,10 @@
       <c r="G351" s="8">
         <v>0</v>
       </c>
-      <c r="H351" s="11" t="s">
+      <c r="H351" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I351" s="11"/>
+      <c r="I351" s="20"/>
       <c r="J351" s="3"/>
     </row>
     <row r="352" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12312,10 +12322,10 @@
       <c r="G352" s="8">
         <v>0</v>
       </c>
-      <c r="H352" s="11" t="s">
+      <c r="H352" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I352" s="11"/>
+      <c r="I352" s="20"/>
       <c r="J352" s="3"/>
     </row>
     <row r="353" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12340,10 +12350,10 @@
       <c r="G353" s="8">
         <v>0</v>
       </c>
-      <c r="H353" s="11" t="s">
+      <c r="H353" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I353" s="11"/>
+      <c r="I353" s="20"/>
       <c r="J353" s="3"/>
     </row>
     <row r="354" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12368,10 +12378,10 @@
       <c r="G354" s="8">
         <v>0</v>
       </c>
-      <c r="H354" s="11" t="s">
+      <c r="H354" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I354" s="11"/>
+      <c r="I354" s="20"/>
       <c r="J354" s="3"/>
     </row>
     <row r="355" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12396,10 +12406,10 @@
       <c r="G355" s="8">
         <v>0</v>
       </c>
-      <c r="H355" s="11" t="s">
+      <c r="H355" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I355" s="11"/>
+      <c r="I355" s="20"/>
       <c r="J355" s="3"/>
     </row>
     <row r="356" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12424,10 +12434,10 @@
       <c r="G356" s="8">
         <v>0</v>
       </c>
-      <c r="H356" s="11" t="s">
+      <c r="H356" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="I356" s="11"/>
+      <c r="I356" s="20"/>
       <c r="J356" s="3"/>
     </row>
     <row r="357" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12452,10 +12462,10 @@
       <c r="G357" s="8">
         <v>0</v>
       </c>
-      <c r="H357" s="11" t="s">
+      <c r="H357" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I357" s="11"/>
+      <c r="I357" s="20"/>
       <c r="J357" s="3"/>
     </row>
     <row r="358" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12480,10 +12490,10 @@
       <c r="G358" s="8">
         <v>0</v>
       </c>
-      <c r="H358" s="11" t="s">
+      <c r="H358" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="I358" s="11"/>
+      <c r="I358" s="20"/>
       <c r="J358" s="3"/>
     </row>
     <row r="359" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12508,10 +12518,10 @@
       <c r="G359" s="8">
         <v>0</v>
       </c>
-      <c r="H359" s="11" t="s">
+      <c r="H359" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I359" s="11"/>
+      <c r="I359" s="20"/>
       <c r="J359" s="3"/>
     </row>
     <row r="360" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12536,10 +12546,10 @@
       <c r="G360" s="8">
         <v>0</v>
       </c>
-      <c r="H360" s="11" t="s">
+      <c r="H360" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I360" s="11"/>
+      <c r="I360" s="20"/>
       <c r="J360" s="3"/>
     </row>
     <row r="361" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12564,10 +12574,10 @@
       <c r="G361" s="8">
         <v>0</v>
       </c>
-      <c r="H361" s="11" t="s">
+      <c r="H361" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I361" s="11"/>
+      <c r="I361" s="20"/>
       <c r="J361" s="3"/>
     </row>
     <row r="362" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12592,10 +12602,10 @@
       <c r="G362" s="8">
         <v>0</v>
       </c>
-      <c r="H362" s="11" t="s">
+      <c r="H362" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I362" s="11"/>
+      <c r="I362" s="20"/>
       <c r="J362" s="3"/>
     </row>
     <row r="363" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12620,10 +12630,10 @@
       <c r="G363" s="8">
         <v>0</v>
       </c>
-      <c r="H363" s="11" t="s">
+      <c r="H363" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I363" s="11"/>
+      <c r="I363" s="20"/>
       <c r="J363" s="3"/>
     </row>
     <row r="364" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12648,10 +12658,10 @@
       <c r="G364" s="8">
         <v>0</v>
       </c>
-      <c r="H364" s="11" t="s">
+      <c r="H364" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="I364" s="11"/>
+      <c r="I364" s="20"/>
       <c r="J364" s="3"/>
     </row>
     <row r="365" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12676,10 +12686,10 @@
       <c r="G365" s="8">
         <v>0</v>
       </c>
-      <c r="H365" s="11" t="s">
+      <c r="H365" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I365" s="11"/>
+      <c r="I365" s="20"/>
       <c r="J365" s="3"/>
     </row>
     <row r="366" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12704,10 +12714,10 @@
       <c r="G366" s="8">
         <v>0</v>
       </c>
-      <c r="H366" s="11" t="s">
+      <c r="H366" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I366" s="11"/>
+      <c r="I366" s="20"/>
       <c r="J366" s="3"/>
     </row>
     <row r="367" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12732,10 +12742,10 @@
       <c r="G367" s="8">
         <v>0</v>
       </c>
-      <c r="H367" s="11" t="s">
+      <c r="H367" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="I367" s="11"/>
+      <c r="I367" s="20"/>
       <c r="J367" s="3"/>
     </row>
     <row r="368" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12760,10 +12770,10 @@
       <c r="G368" s="8">
         <v>0</v>
       </c>
-      <c r="H368" s="11" t="s">
+      <c r="H368" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="I368" s="11"/>
+      <c r="I368" s="20"/>
       <c r="J368" s="3"/>
     </row>
     <row r="369" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12788,10 +12798,10 @@
       <c r="G369" s="8">
         <v>0</v>
       </c>
-      <c r="H369" s="11" t="s">
+      <c r="H369" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I369" s="11"/>
+      <c r="I369" s="20"/>
       <c r="J369" s="3"/>
     </row>
     <row r="370" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12816,10 +12826,10 @@
       <c r="G370" s="8">
         <v>0</v>
       </c>
-      <c r="H370" s="11" t="s">
+      <c r="H370" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="I370" s="11"/>
+      <c r="I370" s="20"/>
       <c r="J370" s="3"/>
     </row>
     <row r="371" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12844,10 +12854,10 @@
       <c r="G371" s="8">
         <v>0</v>
       </c>
-      <c r="H371" s="11" t="s">
+      <c r="H371" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="I371" s="11"/>
+      <c r="I371" s="20"/>
       <c r="J371" s="3"/>
     </row>
     <row r="372" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12872,10 +12882,10 @@
       <c r="G372" s="8">
         <v>0</v>
       </c>
-      <c r="H372" s="11" t="s">
+      <c r="H372" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I372" s="11"/>
+      <c r="I372" s="20"/>
       <c r="J372" s="3"/>
     </row>
     <row r="373" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12900,10 +12910,10 @@
       <c r="G373" s="8">
         <v>0</v>
       </c>
-      <c r="H373" s="11" t="s">
+      <c r="H373" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I373" s="11"/>
+      <c r="I373" s="20"/>
       <c r="J373" s="3"/>
     </row>
     <row r="374" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12928,10 +12938,10 @@
       <c r="G374" s="8">
         <v>0</v>
       </c>
-      <c r="H374" s="11" t="s">
+      <c r="H374" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I374" s="11"/>
+      <c r="I374" s="20"/>
       <c r="J374" s="3"/>
     </row>
     <row r="375" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12956,10 +12966,10 @@
       <c r="G375" s="8">
         <v>0</v>
       </c>
-      <c r="H375" s="11" t="s">
+      <c r="H375" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="I375" s="11"/>
+      <c r="I375" s="20"/>
       <c r="J375" s="3"/>
     </row>
     <row r="376" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12984,10 +12994,10 @@
       <c r="G376" s="8">
         <v>0</v>
       </c>
-      <c r="H376" s="11" t="s">
+      <c r="H376" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I376" s="11"/>
+      <c r="I376" s="20"/>
       <c r="J376" s="3"/>
     </row>
     <row r="377" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13012,10 +13022,10 @@
       <c r="G377" s="8">
         <v>0</v>
       </c>
-      <c r="H377" s="11" t="s">
+      <c r="H377" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I377" s="11"/>
+      <c r="I377" s="20"/>
       <c r="J377" s="3"/>
     </row>
     <row r="378" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13040,10 +13050,10 @@
       <c r="G378" s="8">
         <v>0</v>
       </c>
-      <c r="H378" s="11" t="s">
+      <c r="H378" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I378" s="11"/>
+      <c r="I378" s="20"/>
       <c r="J378" s="3"/>
     </row>
     <row r="379" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13068,10 +13078,10 @@
       <c r="G379" s="8">
         <v>0</v>
       </c>
-      <c r="H379" s="11" t="s">
+      <c r="H379" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I379" s="11"/>
+      <c r="I379" s="20"/>
       <c r="J379" s="3"/>
     </row>
     <row r="380" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13096,10 +13106,10 @@
       <c r="G380" s="8">
         <v>0</v>
       </c>
-      <c r="H380" s="11" t="s">
+      <c r="H380" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I380" s="11"/>
+      <c r="I380" s="20"/>
       <c r="J380" s="3"/>
     </row>
     <row r="381" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13124,10 +13134,10 @@
       <c r="G381" s="8">
         <v>1</v>
       </c>
-      <c r="H381" s="11" t="s">
+      <c r="H381" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="I381" s="11"/>
+      <c r="I381" s="20"/>
       <c r="J381" s="3"/>
     </row>
     <row r="382" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13152,10 +13162,10 @@
       <c r="G382" s="8">
         <v>0</v>
       </c>
-      <c r="H382" s="11" t="s">
+      <c r="H382" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="I382" s="11"/>
+      <c r="I382" s="20"/>
       <c r="J382" s="3"/>
     </row>
     <row r="383" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13180,10 +13190,10 @@
       <c r="G383" s="8">
         <v>0</v>
       </c>
-      <c r="H383" s="11" t="s">
+      <c r="H383" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="I383" s="11"/>
+      <c r="I383" s="20"/>
       <c r="J383" s="3"/>
     </row>
     <row r="384" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13208,10 +13218,10 @@
       <c r="G384" s="8">
         <v>0</v>
       </c>
-      <c r="H384" s="11" t="s">
+      <c r="H384" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="I384" s="11"/>
+      <c r="I384" s="20"/>
       <c r="J384" s="3"/>
     </row>
     <row r="385" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13236,10 +13246,10 @@
       <c r="G385" s="8">
         <v>0</v>
       </c>
-      <c r="H385" s="11" t="s">
+      <c r="H385" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I385" s="11"/>
+      <c r="I385" s="20"/>
       <c r="J385" s="3"/>
     </row>
     <row r="386" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13264,10 +13274,10 @@
       <c r="G386" s="8">
         <v>0</v>
       </c>
-      <c r="H386" s="11" t="s">
+      <c r="H386" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="I386" s="11"/>
+      <c r="I386" s="20"/>
       <c r="J386" s="3"/>
     </row>
     <row r="387" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13292,10 +13302,10 @@
       <c r="G387" s="8">
         <v>2</v>
       </c>
-      <c r="H387" s="11" t="s">
+      <c r="H387" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I387" s="11"/>
+      <c r="I387" s="20"/>
       <c r="J387" s="3"/>
     </row>
     <row r="388" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13320,10 +13330,10 @@
       <c r="G388" s="8">
         <v>0</v>
       </c>
-      <c r="H388" s="11" t="s">
+      <c r="H388" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I388" s="11"/>
+      <c r="I388" s="20"/>
       <c r="J388" s="3"/>
     </row>
     <row r="389" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13346,10 +13356,10 @@
       <c r="G389" s="8">
         <v>0</v>
       </c>
-      <c r="H389" s="11" t="s">
+      <c r="H389" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I389" s="11"/>
+      <c r="I389" s="20"/>
       <c r="J389" s="3"/>
     </row>
     <row r="390" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13374,10 +13384,10 @@
       <c r="G390" s="8">
         <v>0</v>
       </c>
-      <c r="H390" s="11" t="s">
+      <c r="H390" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I390" s="11"/>
+      <c r="I390" s="20"/>
       <c r="J390" s="3"/>
     </row>
     <row r="391" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13402,10 +13412,10 @@
       <c r="G391" s="8">
         <v>0</v>
       </c>
-      <c r="H391" s="11" t="s">
+      <c r="H391" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="I391" s="11"/>
+      <c r="I391" s="20"/>
       <c r="J391" s="3"/>
     </row>
     <row r="392" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13430,10 +13440,10 @@
       <c r="G392" s="8">
         <v>0</v>
       </c>
-      <c r="H392" s="11" t="s">
+      <c r="H392" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I392" s="11"/>
+      <c r="I392" s="20"/>
       <c r="J392" s="3"/>
     </row>
     <row r="393" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13458,10 +13468,10 @@
       <c r="G393" s="8">
         <v>0</v>
       </c>
-      <c r="H393" s="11" t="s">
+      <c r="H393" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="I393" s="11"/>
+      <c r="I393" s="20"/>
       <c r="J393" s="3"/>
     </row>
     <row r="394" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13486,10 +13496,10 @@
       <c r="G394" s="8">
         <v>0</v>
       </c>
-      <c r="H394" s="11" t="s">
+      <c r="H394" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="I394" s="11"/>
+      <c r="I394" s="20"/>
       <c r="J394" s="3"/>
     </row>
     <row r="395" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13514,10 +13524,10 @@
       <c r="G395" s="8">
         <v>0</v>
       </c>
-      <c r="H395" s="11" t="s">
+      <c r="H395" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="I395" s="11"/>
+      <c r="I395" s="20"/>
       <c r="J395" s="3"/>
     </row>
     <row r="396" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13542,10 +13552,10 @@
       <c r="G396" s="8">
         <v>0</v>
       </c>
-      <c r="H396" s="11" t="s">
+      <c r="H396" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="I396" s="11"/>
+      <c r="I396" s="20"/>
       <c r="J396" s="3"/>
     </row>
     <row r="397" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13570,10 +13580,10 @@
       <c r="G397" s="8">
         <v>1</v>
       </c>
-      <c r="H397" s="11" t="s">
+      <c r="H397" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="I397" s="11"/>
+      <c r="I397" s="20"/>
       <c r="J397" s="3"/>
     </row>
     <row r="398" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13598,10 +13608,10 @@
       <c r="G398" s="8">
         <v>0</v>
       </c>
-      <c r="H398" s="11" t="s">
+      <c r="H398" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="I398" s="11"/>
+      <c r="I398" s="20"/>
       <c r="J398" s="3"/>
     </row>
     <row r="399" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13626,10 +13636,10 @@
       <c r="G399" s="8">
         <v>0</v>
       </c>
-      <c r="H399" s="11" t="s">
+      <c r="H399" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="I399" s="11"/>
+      <c r="I399" s="20"/>
       <c r="J399" s="3"/>
     </row>
     <row r="400" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13654,10 +13664,10 @@
       <c r="G400" s="8">
         <v>0</v>
       </c>
-      <c r="H400" s="11" t="s">
+      <c r="H400" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="I400" s="11"/>
+      <c r="I400" s="20"/>
       <c r="J400" s="3"/>
     </row>
     <row r="401" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13682,10 +13692,10 @@
       <c r="G401" s="8">
         <v>0</v>
       </c>
-      <c r="H401" s="11" t="s">
+      <c r="H401" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="I401" s="11"/>
+      <c r="I401" s="20"/>
       <c r="J401" s="3"/>
     </row>
     <row r="402" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13710,10 +13720,10 @@
       <c r="G402" s="8">
         <v>0</v>
       </c>
-      <c r="H402" s="11" t="s">
+      <c r="H402" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="I402" s="11"/>
+      <c r="I402" s="20"/>
       <c r="J402" s="3"/>
     </row>
     <row r="403" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13738,10 +13748,10 @@
       <c r="G403" s="8">
         <v>0</v>
       </c>
-      <c r="H403" s="11" t="s">
+      <c r="H403" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="I403" s="11"/>
+      <c r="I403" s="20"/>
       <c r="J403" s="3"/>
     </row>
     <row r="404" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13766,10 +13776,10 @@
       <c r="G404" s="8">
         <v>0</v>
       </c>
-      <c r="H404" s="11" t="s">
+      <c r="H404" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="I404" s="11"/>
+      <c r="I404" s="20"/>
       <c r="J404" s="3"/>
     </row>
     <row r="405" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13792,8 +13802,8 @@
       <c r="G405" s="8">
         <v>0</v>
       </c>
-      <c r="H405" s="11"/>
-      <c r="I405" s="11"/>
+      <c r="H405" s="20"/>
+      <c r="I405" s="20"/>
       <c r="J405" s="3"/>
     </row>
     <row r="406" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13816,8 +13826,8 @@
       <c r="G406" s="8">
         <v>0</v>
       </c>
-      <c r="H406" s="11"/>
-      <c r="I406" s="11"/>
+      <c r="H406" s="20"/>
+      <c r="I406" s="20"/>
       <c r="J406" s="3"/>
     </row>
     <row r="407" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13842,10 +13852,10 @@
       <c r="G407" s="8">
         <v>0</v>
       </c>
-      <c r="H407" s="11" t="s">
+      <c r="H407" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="I407" s="11"/>
+      <c r="I407" s="20"/>
       <c r="J407" s="3"/>
     </row>
     <row r="408" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13870,10 +13880,10 @@
       <c r="G408" s="8">
         <v>0</v>
       </c>
-      <c r="H408" s="11" t="s">
+      <c r="H408" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="I408" s="11"/>
+      <c r="I408" s="20"/>
       <c r="J408" s="3"/>
     </row>
     <row r="409" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13898,10 +13908,10 @@
       <c r="G409" s="8">
         <v>0</v>
       </c>
-      <c r="H409" s="11" t="s">
+      <c r="H409" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="I409" s="11"/>
+      <c r="I409" s="20"/>
       <c r="J409" s="3"/>
     </row>
     <row r="410" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13926,10 +13936,10 @@
       <c r="G410" s="8">
         <v>1</v>
       </c>
-      <c r="H410" s="11" t="s">
+      <c r="H410" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="I410" s="11"/>
+      <c r="I410" s="20"/>
       <c r="J410" s="3"/>
     </row>
     <row r="411" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13954,10 +13964,10 @@
       <c r="G411" s="8">
         <v>0</v>
       </c>
-      <c r="H411" s="11" t="s">
+      <c r="H411" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="I411" s="11"/>
+      <c r="I411" s="20"/>
       <c r="J411" s="3"/>
     </row>
     <row r="412" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13982,10 +13992,10 @@
       <c r="G412" s="8">
         <v>0</v>
       </c>
-      <c r="H412" s="11" t="s">
+      <c r="H412" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="I412" s="11"/>
+      <c r="I412" s="20"/>
       <c r="J412" s="3"/>
     </row>
     <row r="413" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14010,10 +14020,10 @@
       <c r="G413" s="8">
         <v>0</v>
       </c>
-      <c r="H413" s="11" t="s">
+      <c r="H413" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="I413" s="11"/>
+      <c r="I413" s="20"/>
       <c r="J413" s="3"/>
     </row>
     <row r="414" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14038,10 +14048,10 @@
       <c r="G414" s="8">
         <v>0</v>
       </c>
-      <c r="H414" s="11" t="s">
+      <c r="H414" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="I414" s="11"/>
+      <c r="I414" s="20"/>
       <c r="J414" s="3"/>
     </row>
     <row r="415" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14066,10 +14076,10 @@
       <c r="G415" s="8">
         <v>0</v>
       </c>
-      <c r="H415" s="11" t="s">
+      <c r="H415" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="I415" s="11"/>
+      <c r="I415" s="20"/>
       <c r="J415" s="3"/>
     </row>
     <row r="416" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14094,10 +14104,10 @@
       <c r="G416" s="8">
         <v>1</v>
       </c>
-      <c r="H416" s="11" t="s">
+      <c r="H416" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I416" s="11"/>
+      <c r="I416" s="20"/>
       <c r="J416" s="3"/>
     </row>
     <row r="417" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14122,10 +14132,10 @@
       <c r="G417" s="8">
         <v>0</v>
       </c>
-      <c r="H417" s="11" t="s">
+      <c r="H417" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="I417" s="11"/>
+      <c r="I417" s="20"/>
       <c r="J417" s="3"/>
     </row>
     <row r="418" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14148,10 +14158,10 @@
       <c r="G418" s="8">
         <v>1</v>
       </c>
-      <c r="H418" s="11" t="s">
+      <c r="H418" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="I418" s="11"/>
+      <c r="I418" s="20"/>
       <c r="J418" s="3"/>
     </row>
     <row r="419" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14174,10 +14184,10 @@
       <c r="G419" s="8">
         <v>0</v>
       </c>
-      <c r="H419" s="11" t="s">
+      <c r="H419" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="I419" s="11"/>
+      <c r="I419" s="20"/>
       <c r="J419" s="3"/>
     </row>
     <row r="420" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14200,10 +14210,10 @@
       <c r="G420" s="8">
         <v>0</v>
       </c>
-      <c r="H420" s="11" t="s">
+      <c r="H420" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I420" s="11"/>
+      <c r="I420" s="20"/>
       <c r="J420" s="3"/>
     </row>
     <row r="421" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14226,8 +14236,8 @@
       <c r="G421" s="8">
         <v>0</v>
       </c>
-      <c r="H421" s="11"/>
-      <c r="I421" s="11"/>
+      <c r="H421" s="20"/>
+      <c r="I421" s="20"/>
       <c r="J421" s="3"/>
     </row>
     <row r="422" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14250,8 +14260,8 @@
       <c r="G422" s="8">
         <v>0</v>
       </c>
-      <c r="H422" s="11"/>
-      <c r="I422" s="11"/>
+      <c r="H422" s="20"/>
+      <c r="I422" s="20"/>
       <c r="J422" s="3"/>
     </row>
     <row r="423" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14276,10 +14286,10 @@
       <c r="G423" s="8">
         <v>0</v>
       </c>
-      <c r="H423" s="11" t="s">
+      <c r="H423" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I423" s="11"/>
+      <c r="I423" s="20"/>
       <c r="J423" s="3"/>
     </row>
     <row r="424" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14304,10 +14314,10 @@
       <c r="G424" s="8">
         <v>0</v>
       </c>
-      <c r="H424" s="11" t="s">
+      <c r="H424" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I424" s="11"/>
+      <c r="I424" s="20"/>
       <c r="J424" s="3"/>
     </row>
     <row r="425" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14332,10 +14342,10 @@
       <c r="G425" s="8">
         <v>0</v>
       </c>
-      <c r="H425" s="11" t="s">
+      <c r="H425" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I425" s="11"/>
+      <c r="I425" s="20"/>
       <c r="J425" s="3"/>
     </row>
     <row r="426" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14360,10 +14370,10 @@
       <c r="G426" s="8">
         <v>0</v>
       </c>
-      <c r="H426" s="11" t="s">
+      <c r="H426" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I426" s="11"/>
+      <c r="I426" s="20"/>
       <c r="J426" s="3"/>
     </row>
     <row r="427" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14388,10 +14398,10 @@
       <c r="G427" s="8">
         <v>0</v>
       </c>
-      <c r="H427" s="11" t="s">
+      <c r="H427" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I427" s="11"/>
+      <c r="I427" s="20"/>
       <c r="J427" s="3"/>
     </row>
     <row r="428" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14416,10 +14426,10 @@
       <c r="G428" s="8">
         <v>0</v>
       </c>
-      <c r="H428" s="11" t="s">
+      <c r="H428" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I428" s="11"/>
+      <c r="I428" s="20"/>
       <c r="J428" s="3"/>
     </row>
     <row r="429" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14444,10 +14454,10 @@
       <c r="G429" s="8">
         <v>0</v>
       </c>
-      <c r="H429" s="11" t="s">
+      <c r="H429" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I429" s="11"/>
+      <c r="I429" s="20"/>
       <c r="J429" s="3"/>
     </row>
     <row r="430" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14472,10 +14482,10 @@
       <c r="G430" s="8">
         <v>1</v>
       </c>
-      <c r="H430" s="11" t="s">
+      <c r="H430" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I430" s="11"/>
+      <c r="I430" s="20"/>
       <c r="J430" s="3"/>
     </row>
     <row r="431" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14500,10 +14510,10 @@
       <c r="G431" s="8">
         <v>0</v>
       </c>
-      <c r="H431" s="11" t="s">
+      <c r="H431" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="I431" s="11"/>
+      <c r="I431" s="20"/>
       <c r="J431" s="3"/>
     </row>
     <row r="432" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14528,8 +14538,8 @@
       <c r="G432" s="8">
         <v>0</v>
       </c>
-      <c r="H432" s="11"/>
-      <c r="I432" s="11"/>
+      <c r="H432" s="20"/>
+      <c r="I432" s="20"/>
       <c r="J432" s="3"/>
     </row>
     <row r="433" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14552,8 +14562,8 @@
       <c r="G433" s="8">
         <v>0</v>
       </c>
-      <c r="H433" s="11"/>
-      <c r="I433" s="11"/>
+      <c r="H433" s="20"/>
+      <c r="I433" s="20"/>
       <c r="J433" s="3"/>
     </row>
     <row r="434" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14578,10 +14588,10 @@
       <c r="G434" s="8">
         <v>0</v>
       </c>
-      <c r="H434" s="11" t="s">
+      <c r="H434" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I434" s="11"/>
+      <c r="I434" s="20"/>
       <c r="J434" s="3"/>
     </row>
     <row r="435" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14606,10 +14616,10 @@
       <c r="G435" s="8">
         <v>0</v>
       </c>
-      <c r="H435" s="11" t="s">
+      <c r="H435" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="I435" s="11"/>
+      <c r="I435" s="20"/>
       <c r="J435" s="3"/>
     </row>
     <row r="436" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14634,10 +14644,10 @@
       <c r="G436" s="8">
         <v>3</v>
       </c>
-      <c r="H436" s="11" t="s">
+      <c r="H436" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I436" s="11"/>
+      <c r="I436" s="20"/>
       <c r="J436" s="3"/>
     </row>
     <row r="437" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14662,10 +14672,10 @@
       <c r="G437" s="8">
         <v>3</v>
       </c>
-      <c r="H437" s="11" t="s">
+      <c r="H437" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I437" s="11"/>
+      <c r="I437" s="20"/>
       <c r="J437" s="3"/>
     </row>
     <row r="438" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14690,10 +14700,10 @@
       <c r="G438" s="8">
         <v>2</v>
       </c>
-      <c r="H438" s="11" t="s">
+      <c r="H438" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="I438" s="11"/>
+      <c r="I438" s="20"/>
       <c r="J438" s="3"/>
     </row>
     <row r="439" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14718,10 +14728,10 @@
       <c r="G439" s="8">
         <v>0</v>
       </c>
-      <c r="H439" s="11" t="s">
+      <c r="H439" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I439" s="11"/>
+      <c r="I439" s="20"/>
       <c r="J439" s="3"/>
     </row>
     <row r="440" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14744,10 +14754,10 @@
       <c r="G440" s="8">
         <v>0</v>
       </c>
-      <c r="H440" s="11" t="s">
+      <c r="H440" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="I440" s="11"/>
+      <c r="I440" s="20"/>
       <c r="J440" s="3"/>
     </row>
     <row r="441" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14772,10 +14782,10 @@
       <c r="G441" s="8">
         <v>0</v>
       </c>
-      <c r="H441" s="11" t="s">
+      <c r="H441" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="I441" s="11"/>
+      <c r="I441" s="20"/>
       <c r="J441" s="3"/>
     </row>
     <row r="442" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14800,8 +14810,8 @@
       <c r="G442" s="8">
         <v>0</v>
       </c>
-      <c r="H442" s="11"/>
-      <c r="I442" s="11"/>
+      <c r="H442" s="20"/>
+      <c r="I442" s="20"/>
       <c r="J442" s="3"/>
     </row>
     <row r="443" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14824,8 +14834,8 @@
       <c r="G443" s="8">
         <v>0</v>
       </c>
-      <c r="H443" s="11"/>
-      <c r="I443" s="11"/>
+      <c r="H443" s="20"/>
+      <c r="I443" s="20"/>
       <c r="J443" s="3"/>
     </row>
     <row r="444" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14850,10 +14860,10 @@
       <c r="G444" s="8">
         <v>1</v>
       </c>
-      <c r="H444" s="11" t="s">
+      <c r="H444" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="I444" s="11"/>
+      <c r="I444" s="20"/>
       <c r="J444" s="3"/>
     </row>
     <row r="445" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14878,10 +14888,10 @@
       <c r="G445" s="8">
         <v>0</v>
       </c>
-      <c r="H445" s="11" t="s">
+      <c r="H445" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="I445" s="11"/>
+      <c r="I445" s="20"/>
       <c r="J445" s="3"/>
     </row>
     <row r="446" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14906,10 +14916,10 @@
       <c r="G446" s="8">
         <v>0</v>
       </c>
-      <c r="H446" s="11" t="s">
+      <c r="H446" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I446" s="11"/>
+      <c r="I446" s="20"/>
       <c r="J446" s="3"/>
     </row>
     <row r="447" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14934,10 +14944,10 @@
       <c r="G447" s="8">
         <v>0</v>
       </c>
-      <c r="H447" s="11" t="s">
+      <c r="H447" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I447" s="11"/>
+      <c r="I447" s="20"/>
       <c r="J447" s="3"/>
     </row>
     <row r="448" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14962,10 +14972,10 @@
       <c r="G448" s="8">
         <v>0</v>
       </c>
-      <c r="H448" s="11" t="s">
+      <c r="H448" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I448" s="11"/>
+      <c r="I448" s="20"/>
       <c r="J448" s="3"/>
     </row>
     <row r="449" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14990,10 +15000,10 @@
       <c r="G449" s="8">
         <v>0</v>
       </c>
-      <c r="H449" s="11" t="s">
+      <c r="H449" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="I449" s="11"/>
+      <c r="I449" s="20"/>
       <c r="J449" s="3"/>
     </row>
     <row r="450" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15016,10 +15026,10 @@
       <c r="G450" s="8">
         <v>0</v>
       </c>
-      <c r="H450" s="11" t="s">
+      <c r="H450" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="I450" s="11"/>
+      <c r="I450" s="20"/>
       <c r="J450" s="3"/>
     </row>
     <row r="451" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15044,10 +15054,10 @@
       <c r="G451" s="8">
         <v>1</v>
       </c>
-      <c r="H451" s="11" t="s">
+      <c r="H451" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="I451" s="11"/>
+      <c r="I451" s="20"/>
       <c r="J451" s="3"/>
     </row>
     <row r="452" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15072,10 +15082,10 @@
       <c r="G452" s="8">
         <v>0</v>
       </c>
-      <c r="H452" s="11" t="s">
+      <c r="H452" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="I452" s="11"/>
+      <c r="I452" s="20"/>
       <c r="J452" s="3"/>
     </row>
     <row r="453" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15100,10 +15110,10 @@
       <c r="G453" s="8">
         <v>0</v>
       </c>
-      <c r="H453" s="11" t="s">
+      <c r="H453" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="I453" s="11"/>
+      <c r="I453" s="20"/>
       <c r="J453" s="3"/>
     </row>
     <row r="454" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15126,10 +15136,10 @@
       <c r="G454" s="8">
         <v>0</v>
       </c>
-      <c r="H454" s="11" t="s">
+      <c r="H454" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="I454" s="11"/>
+      <c r="I454" s="20"/>
       <c r="J454" s="3"/>
     </row>
     <row r="455" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15154,10 +15164,10 @@
       <c r="G455" s="8">
         <v>0</v>
       </c>
-      <c r="H455" s="11" t="s">
+      <c r="H455" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="I455" s="11"/>
+      <c r="I455" s="20"/>
       <c r="J455" s="3"/>
     </row>
     <row r="456" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15182,10 +15192,10 @@
       <c r="G456" s="8">
         <v>0</v>
       </c>
-      <c r="H456" s="11" t="s">
+      <c r="H456" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I456" s="11"/>
+      <c r="I456" s="20"/>
       <c r="J456" s="3"/>
     </row>
     <row r="457" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15208,10 +15218,10 @@
       <c r="G457" s="8">
         <v>0</v>
       </c>
-      <c r="H457" s="11" t="s">
+      <c r="H457" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="I457" s="11"/>
+      <c r="I457" s="20"/>
       <c r="J457" s="3"/>
     </row>
     <row r="458" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15236,10 +15246,10 @@
       <c r="G458" s="8">
         <v>1</v>
       </c>
-      <c r="H458" s="11" t="s">
+      <c r="H458" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I458" s="11"/>
+      <c r="I458" s="20"/>
       <c r="J458" s="3"/>
     </row>
     <row r="459" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15264,8 +15274,8 @@
       <c r="G459" s="8">
         <v>0</v>
       </c>
-      <c r="H459" s="11"/>
-      <c r="I459" s="11"/>
+      <c r="H459" s="20"/>
+      <c r="I459" s="20"/>
       <c r="J459" s="3"/>
     </row>
     <row r="460" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15290,10 +15300,10 @@
       <c r="G460" s="8">
         <v>0</v>
       </c>
-      <c r="H460" s="11" t="s">
+      <c r="H460" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="I460" s="11"/>
+      <c r="I460" s="20"/>
       <c r="J460" s="3"/>
     </row>
     <row r="461" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15318,10 +15328,10 @@
       <c r="G461" s="8">
         <v>0</v>
       </c>
-      <c r="H461" s="11" t="s">
+      <c r="H461" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="I461" s="11"/>
+      <c r="I461" s="20"/>
       <c r="J461" s="3"/>
     </row>
     <row r="462" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15346,10 +15356,10 @@
       <c r="G462" s="8">
         <v>0</v>
       </c>
-      <c r="H462" s="11" t="s">
+      <c r="H462" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="I462" s="11"/>
+      <c r="I462" s="20"/>
       <c r="J462" s="3"/>
     </row>
     <row r="463" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15374,10 +15384,10 @@
       <c r="G463" s="8">
         <v>0</v>
       </c>
-      <c r="H463" s="11" t="s">
+      <c r="H463" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="I463" s="11"/>
+      <c r="I463" s="20"/>
       <c r="J463" s="3"/>
     </row>
     <row r="464" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15400,10 +15410,10 @@
       <c r="G464" s="8">
         <v>0</v>
       </c>
-      <c r="H464" s="11" t="s">
+      <c r="H464" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="I464" s="11"/>
+      <c r="I464" s="20"/>
       <c r="J464" s="3"/>
     </row>
     <row r="465" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15428,10 +15438,10 @@
       <c r="G465" s="8">
         <v>0</v>
       </c>
-      <c r="H465" s="11" t="s">
+      <c r="H465" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="I465" s="11"/>
+      <c r="I465" s="20"/>
       <c r="J465" s="3"/>
     </row>
     <row r="466" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15456,10 +15466,10 @@
       <c r="G466" s="8">
         <v>0</v>
       </c>
-      <c r="H466" s="11" t="s">
+      <c r="H466" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I466" s="11"/>
+      <c r="I466" s="20"/>
       <c r="J466" s="3"/>
     </row>
     <row r="467" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15484,10 +15494,10 @@
       <c r="G467" s="8">
         <v>0</v>
       </c>
-      <c r="H467" s="11" t="s">
+      <c r="H467" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I467" s="11"/>
+      <c r="I467" s="20"/>
       <c r="J467" s="3"/>
     </row>
     <row r="468" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15512,10 +15522,10 @@
       <c r="G468" s="8">
         <v>0</v>
       </c>
-      <c r="H468" s="11" t="s">
+      <c r="H468" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I468" s="11"/>
+      <c r="I468" s="20"/>
       <c r="J468" s="3"/>
     </row>
     <row r="469" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15540,10 +15550,10 @@
       <c r="G469" s="8">
         <v>0</v>
       </c>
-      <c r="H469" s="11" t="s">
+      <c r="H469" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="I469" s="11"/>
+      <c r="I469" s="20"/>
       <c r="J469" s="3"/>
     </row>
     <row r="470" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15568,10 +15578,10 @@
       <c r="G470" s="8">
         <v>1</v>
       </c>
-      <c r="H470" s="11" t="s">
+      <c r="H470" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="I470" s="11"/>
+      <c r="I470" s="20"/>
       <c r="J470" s="3"/>
     </row>
     <row r="471" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15596,10 +15606,10 @@
       <c r="G471" s="8">
         <v>0</v>
       </c>
-      <c r="H471" s="11" t="s">
+      <c r="H471" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="I471" s="11"/>
+      <c r="I471" s="20"/>
       <c r="J471" s="3"/>
     </row>
     <row r="472" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15624,10 +15634,10 @@
       <c r="G472" s="8">
         <v>0</v>
       </c>
-      <c r="H472" s="11" t="s">
+      <c r="H472" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I472" s="11"/>
+      <c r="I472" s="20"/>
       <c r="J472" s="3"/>
     </row>
     <row r="473" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15652,10 +15662,10 @@
       <c r="G473" s="8">
         <v>0</v>
       </c>
-      <c r="H473" s="11" t="s">
+      <c r="H473" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="I473" s="11"/>
+      <c r="I473" s="20"/>
       <c r="J473" s="3"/>
     </row>
     <row r="474" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15680,10 +15690,10 @@
       <c r="G474" s="8">
         <v>0</v>
       </c>
-      <c r="H474" s="11" t="s">
+      <c r="H474" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I474" s="11"/>
+      <c r="I474" s="20"/>
       <c r="J474" s="3"/>
     </row>
     <row r="475" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15708,10 +15718,10 @@
       <c r="G475" s="8">
         <v>0</v>
       </c>
-      <c r="H475" s="11" t="s">
+      <c r="H475" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I475" s="11"/>
+      <c r="I475" s="20"/>
       <c r="J475" s="3"/>
     </row>
     <row r="476" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15734,8 +15744,8 @@
       <c r="G476" s="8">
         <v>1</v>
       </c>
-      <c r="H476" s="11"/>
-      <c r="I476" s="11"/>
+      <c r="H476" s="20"/>
+      <c r="I476" s="20"/>
       <c r="J476" s="3"/>
     </row>
     <row r="477" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15758,8 +15768,8 @@
       <c r="G477" s="8">
         <v>1</v>
       </c>
-      <c r="H477" s="11"/>
-      <c r="I477" s="11"/>
+      <c r="H477" s="20"/>
+      <c r="I477" s="20"/>
       <c r="J477" s="3"/>
     </row>
     <row r="478" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15782,8 +15792,8 @@
       <c r="G478" s="8">
         <v>0</v>
       </c>
-      <c r="H478" s="11"/>
-      <c r="I478" s="11"/>
+      <c r="H478" s="20"/>
+      <c r="I478" s="20"/>
       <c r="J478" s="3"/>
     </row>
     <row r="479" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15806,8 +15816,8 @@
       <c r="G479" s="8">
         <v>5</v>
       </c>
-      <c r="H479" s="11"/>
-      <c r="I479" s="11"/>
+      <c r="H479" s="20"/>
+      <c r="I479" s="20"/>
       <c r="J479" s="3"/>
     </row>
     <row r="480" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15830,8 +15840,8 @@
       <c r="G480" s="8">
         <v>3</v>
       </c>
-      <c r="H480" s="11"/>
-      <c r="I480" s="11"/>
+      <c r="H480" s="20"/>
+      <c r="I480" s="20"/>
       <c r="J480" s="3"/>
     </row>
     <row r="481" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15856,10 +15866,10 @@
       <c r="G481" s="8">
         <v>0</v>
       </c>
-      <c r="H481" s="11" t="s">
+      <c r="H481" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I481" s="11"/>
+      <c r="I481" s="20"/>
       <c r="J481" s="3"/>
     </row>
     <row r="482" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15884,10 +15894,10 @@
       <c r="G482" s="8">
         <v>0</v>
       </c>
-      <c r="H482" s="11" t="s">
+      <c r="H482" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I482" s="11"/>
+      <c r="I482" s="20"/>
       <c r="J482" s="3"/>
     </row>
     <row r="483" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15912,10 +15922,10 @@
       <c r="G483" s="8">
         <v>0</v>
       </c>
-      <c r="H483" s="11" t="s">
+      <c r="H483" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I483" s="11"/>
+      <c r="I483" s="20"/>
       <c r="J483" s="3"/>
     </row>
     <row r="484" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15940,10 +15950,10 @@
       <c r="G484" s="8">
         <v>0</v>
       </c>
-      <c r="H484" s="11" t="s">
+      <c r="H484" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="I484" s="11"/>
+      <c r="I484" s="20"/>
       <c r="J484" s="3"/>
     </row>
     <row r="485" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15968,10 +15978,10 @@
       <c r="G485" s="8">
         <v>0</v>
       </c>
-      <c r="H485" s="11" t="s">
+      <c r="H485" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="I485" s="11"/>
+      <c r="I485" s="20"/>
       <c r="J485" s="3"/>
     </row>
     <row r="486" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15996,10 +16006,10 @@
       <c r="G486" s="8">
         <v>0</v>
       </c>
-      <c r="H486" s="11" t="s">
+      <c r="H486" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I486" s="11"/>
+      <c r="I486" s="20"/>
       <c r="J486" s="3"/>
     </row>
     <row r="487" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16024,10 +16034,10 @@
       <c r="G487" s="8">
         <v>0</v>
       </c>
-      <c r="H487" s="11" t="s">
+      <c r="H487" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I487" s="11"/>
+      <c r="I487" s="20"/>
       <c r="J487" s="3"/>
     </row>
     <row r="488" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16052,10 +16062,10 @@
       <c r="G488" s="8">
         <v>0</v>
       </c>
-      <c r="H488" s="11" t="s">
+      <c r="H488" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="I488" s="11"/>
+      <c r="I488" s="20"/>
       <c r="J488" s="3"/>
     </row>
     <row r="489" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16071,19 +16081,17 @@
       <c r="D489" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E489" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="E489" s="25"/>
       <c r="F489" s="8">
         <v>19</v>
       </c>
       <c r="G489" s="8">
         <v>0</v>
       </c>
-      <c r="H489" s="11" t="s">
+      <c r="H489" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I489" s="11"/>
+      <c r="I489" s="20"/>
       <c r="J489" s="3"/>
     </row>
     <row r="490" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16099,19 +16107,17 @@
       <c r="D490" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E490" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="E490" s="25"/>
       <c r="F490" s="8">
         <v>17</v>
       </c>
       <c r="G490" s="8">
         <v>0</v>
       </c>
-      <c r="H490" s="11" t="s">
+      <c r="H490" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I490" s="11"/>
+      <c r="I490" s="20"/>
       <c r="J490" s="3"/>
     </row>
     <row r="491" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16127,19 +16133,17 @@
       <c r="D491" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E491" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="E491" s="25"/>
       <c r="F491" s="8">
         <v>17</v>
       </c>
       <c r="G491" s="8">
         <v>0</v>
       </c>
-      <c r="H491" s="11" t="s">
+      <c r="H491" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I491" s="11"/>
+      <c r="I491" s="20"/>
       <c r="J491" s="3"/>
     </row>
     <row r="492" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16155,19 +16159,17 @@
       <c r="D492" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E492" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="E492" s="25"/>
       <c r="F492" s="8">
         <v>7</v>
       </c>
       <c r="G492" s="8">
         <v>2</v>
       </c>
-      <c r="H492" s="11" t="s">
+      <c r="H492" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="I492" s="11"/>
+      <c r="I492" s="20"/>
       <c r="J492" s="3"/>
     </row>
     <row r="493" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16192,10 +16194,10 @@
       <c r="G493" s="8">
         <v>0</v>
       </c>
-      <c r="H493" s="11" t="s">
+      <c r="H493" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="I493" s="11"/>
+      <c r="I493" s="20"/>
       <c r="J493" s="3"/>
     </row>
     <row r="494" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16220,10 +16222,10 @@
       <c r="G494" s="8">
         <v>0</v>
       </c>
-      <c r="H494" s="11" t="s">
+      <c r="H494" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="I494" s="11"/>
+      <c r="I494" s="20"/>
       <c r="J494" s="3"/>
     </row>
     <row r="495" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16246,10 +16248,10 @@
       <c r="G495" s="8">
         <v>0</v>
       </c>
-      <c r="H495" s="11" t="s">
+      <c r="H495" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="I495" s="11"/>
+      <c r="I495" s="20"/>
       <c r="J495" s="3"/>
     </row>
     <row r="496" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16274,10 +16276,10 @@
       <c r="G496" s="8">
         <v>0</v>
       </c>
-      <c r="H496" s="11" t="s">
+      <c r="H496" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I496" s="11"/>
+      <c r="I496" s="20"/>
       <c r="J496" s="3"/>
     </row>
     <row r="497" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16302,10 +16304,10 @@
       <c r="G497" s="8">
         <v>0</v>
       </c>
-      <c r="H497" s="11" t="s">
+      <c r="H497" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="I497" s="11"/>
+      <c r="I497" s="20"/>
       <c r="J497" s="3"/>
     </row>
     <row r="498" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16330,10 +16332,10 @@
       <c r="G498" s="8">
         <v>0</v>
       </c>
-      <c r="H498" s="11" t="s">
+      <c r="H498" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="I498" s="11"/>
+      <c r="I498" s="20"/>
       <c r="J498" s="3"/>
     </row>
     <row r="499" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16358,10 +16360,10 @@
       <c r="G499" s="8">
         <v>0</v>
       </c>
-      <c r="H499" s="11" t="s">
+      <c r="H499" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="I499" s="11"/>
+      <c r="I499" s="20"/>
       <c r="J499" s="3"/>
     </row>
     <row r="500" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16386,10 +16388,10 @@
       <c r="G500" s="8">
         <v>0</v>
       </c>
-      <c r="H500" s="11" t="s">
+      <c r="H500" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="I500" s="11"/>
+      <c r="I500" s="20"/>
       <c r="J500" s="3"/>
     </row>
     <row r="501" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16414,10 +16416,10 @@
       <c r="G501" s="8">
         <v>0</v>
       </c>
-      <c r="H501" s="11" t="s">
+      <c r="H501" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="I501" s="11"/>
+      <c r="I501" s="20"/>
       <c r="J501" s="3"/>
     </row>
     <row r="502" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16442,10 +16444,10 @@
       <c r="G502" s="8">
         <v>0</v>
       </c>
-      <c r="H502" s="11" t="s">
+      <c r="H502" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="I502" s="11"/>
+      <c r="I502" s="20"/>
       <c r="J502" s="3"/>
     </row>
     <row r="503" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16470,10 +16472,10 @@
       <c r="G503" s="8">
         <v>0</v>
       </c>
-      <c r="H503" s="11" t="s">
+      <c r="H503" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I503" s="11"/>
+      <c r="I503" s="20"/>
       <c r="J503" s="3"/>
     </row>
     <row r="504" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16498,10 +16500,10 @@
       <c r="G504" s="8">
         <v>0</v>
       </c>
-      <c r="H504" s="11" t="s">
+      <c r="H504" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I504" s="11"/>
+      <c r="I504" s="20"/>
       <c r="J504" s="3"/>
     </row>
     <row r="505" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16526,10 +16528,10 @@
       <c r="G505" s="8">
         <v>0</v>
       </c>
-      <c r="H505" s="11" t="s">
+      <c r="H505" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I505" s="11"/>
+      <c r="I505" s="20"/>
       <c r="J505" s="3"/>
     </row>
     <row r="506" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16554,10 +16556,10 @@
       <c r="G506" s="8">
         <v>0</v>
       </c>
-      <c r="H506" s="11" t="s">
+      <c r="H506" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I506" s="11"/>
+      <c r="I506" s="20"/>
       <c r="J506" s="3"/>
     </row>
     <row r="507" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16582,10 +16584,10 @@
       <c r="G507" s="8">
         <v>0</v>
       </c>
-      <c r="H507" s="11" t="s">
+      <c r="H507" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="I507" s="11"/>
+      <c r="I507" s="20"/>
       <c r="J507" s="3"/>
     </row>
     <row r="508" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16610,10 +16612,10 @@
       <c r="G508" s="8">
         <v>0</v>
       </c>
-      <c r="H508" s="11" t="s">
+      <c r="H508" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="I508" s="11"/>
+      <c r="I508" s="20"/>
       <c r="J508" s="3"/>
     </row>
     <row r="509" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16638,10 +16640,10 @@
       <c r="G509" s="8">
         <v>0</v>
       </c>
-      <c r="H509" s="11" t="s">
+      <c r="H509" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="I509" s="11"/>
+      <c r="I509" s="20"/>
       <c r="J509" s="3"/>
     </row>
     <row r="510" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16666,10 +16668,10 @@
       <c r="G510" s="8">
         <v>0</v>
       </c>
-      <c r="H510" s="11" t="s">
+      <c r="H510" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I510" s="11"/>
+      <c r="I510" s="20"/>
       <c r="J510" s="3"/>
     </row>
     <row r="511" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16694,10 +16696,10 @@
       <c r="G511" s="8">
         <v>0</v>
       </c>
-      <c r="H511" s="11" t="s">
+      <c r="H511" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="I511" s="11"/>
+      <c r="I511" s="20"/>
       <c r="J511" s="3"/>
     </row>
     <row r="512" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16722,10 +16724,10 @@
       <c r="G512" s="8">
         <v>0</v>
       </c>
-      <c r="H512" s="11" t="s">
+      <c r="H512" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="I512" s="11"/>
+      <c r="I512" s="20"/>
       <c r="J512" s="3"/>
     </row>
     <row r="513" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16750,10 +16752,10 @@
       <c r="G513" s="8">
         <v>0</v>
       </c>
-      <c r="H513" s="11" t="s">
+      <c r="H513" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I513" s="11"/>
+      <c r="I513" s="20"/>
       <c r="J513" s="3"/>
     </row>
     <row r="514" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16778,10 +16780,10 @@
       <c r="G514" s="8">
         <v>0</v>
       </c>
-      <c r="H514" s="11" t="s">
+      <c r="H514" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I514" s="11"/>
+      <c r="I514" s="20"/>
       <c r="J514" s="3"/>
     </row>
     <row r="515" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16806,10 +16808,10 @@
       <c r="G515" s="8">
         <v>0</v>
       </c>
-      <c r="H515" s="11" t="s">
+      <c r="H515" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I515" s="11"/>
+      <c r="I515" s="20"/>
       <c r="J515" s="3"/>
     </row>
     <row r="516" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16834,10 +16836,10 @@
       <c r="G516" s="8">
         <v>0</v>
       </c>
-      <c r="H516" s="11" t="s">
+      <c r="H516" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I516" s="11"/>
+      <c r="I516" s="20"/>
       <c r="J516" s="3"/>
     </row>
     <row r="517" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16862,10 +16864,10 @@
       <c r="G517" s="8">
         <v>0</v>
       </c>
-      <c r="H517" s="11" t="s">
+      <c r="H517" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I517" s="11"/>
+      <c r="I517" s="20"/>
       <c r="J517" s="3"/>
     </row>
     <row r="518" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16881,19 +16883,17 @@
       <c r="D518" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E518" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="E518" s="8"/>
       <c r="F518" s="8">
         <v>4</v>
       </c>
       <c r="G518" s="8">
         <v>0</v>
       </c>
-      <c r="H518" s="11" t="s">
+      <c r="H518" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I518" s="11"/>
+      <c r="I518" s="20"/>
       <c r="J518" s="3"/>
     </row>
     <row r="519" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16918,10 +16918,10 @@
       <c r="G519" s="8">
         <v>0</v>
       </c>
-      <c r="H519" s="11" t="s">
+      <c r="H519" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="I519" s="11"/>
+      <c r="I519" s="20"/>
       <c r="J519" s="3"/>
     </row>
     <row r="520" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16946,10 +16946,10 @@
       <c r="G520" s="8">
         <v>0</v>
       </c>
-      <c r="H520" s="11" t="s">
+      <c r="H520" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="I520" s="11"/>
+      <c r="I520" s="20"/>
       <c r="J520" s="3"/>
     </row>
     <row r="521" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16974,10 +16974,10 @@
       <c r="G521" s="8">
         <v>0</v>
       </c>
-      <c r="H521" s="11" t="s">
+      <c r="H521" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="I521" s="11"/>
+      <c r="I521" s="20"/>
       <c r="J521" s="3"/>
     </row>
     <row r="522" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17000,10 +17000,10 @@
       <c r="G522" s="8">
         <v>0</v>
       </c>
-      <c r="H522" s="11" t="s">
+      <c r="H522" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="I522" s="11"/>
+      <c r="I522" s="20"/>
       <c r="J522" s="3"/>
     </row>
     <row r="523" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17026,8 +17026,8 @@
       <c r="G523" s="8">
         <v>0</v>
       </c>
-      <c r="H523" s="11"/>
-      <c r="I523" s="11"/>
+      <c r="H523" s="20"/>
+      <c r="I523" s="20"/>
       <c r="J523" s="3"/>
     </row>
     <row r="524" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17050,8 +17050,8 @@
       <c r="G524" s="8">
         <v>0</v>
       </c>
-      <c r="H524" s="11"/>
-      <c r="I524" s="11"/>
+      <c r="H524" s="20"/>
+      <c r="I524" s="20"/>
       <c r="J524" s="3"/>
     </row>
     <row r="525" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17076,10 +17076,10 @@
       <c r="G525" s="8">
         <v>0</v>
       </c>
-      <c r="H525" s="11" t="s">
+      <c r="H525" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I525" s="11"/>
+      <c r="I525" s="20"/>
       <c r="J525" s="3"/>
     </row>
     <row r="526" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17104,10 +17104,10 @@
       <c r="G526" s="8">
         <v>0</v>
       </c>
-      <c r="H526" s="11" t="s">
+      <c r="H526" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I526" s="11"/>
+      <c r="I526" s="20"/>
       <c r="J526" s="3"/>
     </row>
     <row r="527" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17130,10 +17130,10 @@
       <c r="G527" s="8">
         <v>0</v>
       </c>
-      <c r="H527" s="11" t="s">
+      <c r="H527" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="I527" s="11"/>
+      <c r="I527" s="20"/>
       <c r="J527" s="3"/>
     </row>
     <row r="528" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17156,8 +17156,8 @@
       <c r="G528" s="8">
         <v>0</v>
       </c>
-      <c r="H528" s="11"/>
-      <c r="I528" s="11"/>
+      <c r="H528" s="20"/>
+      <c r="I528" s="20"/>
       <c r="J528" s="3"/>
     </row>
     <row r="529" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17180,8 +17180,8 @@
       <c r="G529" s="8">
         <v>0</v>
       </c>
-      <c r="H529" s="11"/>
-      <c r="I529" s="11"/>
+      <c r="H529" s="20"/>
+      <c r="I529" s="20"/>
       <c r="J529" s="3"/>
     </row>
     <row r="530" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17206,10 +17206,10 @@
       <c r="G530" s="8">
         <v>2</v>
       </c>
-      <c r="H530" s="11" t="s">
+      <c r="H530" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="I530" s="11"/>
+      <c r="I530" s="20"/>
       <c r="J530" s="3"/>
     </row>
     <row r="531" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17234,10 +17234,10 @@
       <c r="G531" s="8">
         <v>0</v>
       </c>
-      <c r="H531" s="11" t="s">
+      <c r="H531" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="I531" s="11"/>
+      <c r="I531" s="20"/>
       <c r="J531" s="3"/>
     </row>
     <row r="532" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17260,10 +17260,10 @@
       <c r="G532" s="8">
         <v>0</v>
       </c>
-      <c r="H532" s="11" t="s">
+      <c r="H532" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="I532" s="11"/>
+      <c r="I532" s="20"/>
       <c r="J532" s="3"/>
     </row>
     <row r="533" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17286,8 +17286,8 @@
       <c r="G533" s="8">
         <v>0</v>
       </c>
-      <c r="H533" s="11"/>
-      <c r="I533" s="11"/>
+      <c r="H533" s="20"/>
+      <c r="I533" s="20"/>
       <c r="J533" s="3"/>
     </row>
     <row r="534" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17312,10 +17312,10 @@
       <c r="G534" s="8">
         <v>0</v>
       </c>
-      <c r="H534" s="11" t="s">
+      <c r="H534" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="I534" s="11"/>
+      <c r="I534" s="20"/>
       <c r="J534" s="3"/>
     </row>
     <row r="535" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17340,10 +17340,10 @@
       <c r="G535" s="8">
         <v>0</v>
       </c>
-      <c r="H535" s="11" t="s">
+      <c r="H535" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="I535" s="11"/>
+      <c r="I535" s="20"/>
       <c r="J535" s="3"/>
     </row>
     <row r="536" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17366,8 +17366,8 @@
       <c r="G536" s="8">
         <v>0</v>
       </c>
-      <c r="H536" s="11"/>
-      <c r="I536" s="11"/>
+      <c r="H536" s="20"/>
+      <c r="I536" s="20"/>
       <c r="J536" s="3"/>
     </row>
     <row r="537" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17390,8 +17390,8 @@
       <c r="G537" s="8">
         <v>0</v>
       </c>
-      <c r="H537" s="11"/>
-      <c r="I537" s="11"/>
+      <c r="H537" s="20"/>
+      <c r="I537" s="20"/>
       <c r="J537" s="3"/>
     </row>
     <row r="538" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17416,10 +17416,10 @@
       <c r="G538" s="8">
         <v>1</v>
       </c>
-      <c r="H538" s="11" t="s">
+      <c r="H538" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="I538" s="11"/>
+      <c r="I538" s="20"/>
       <c r="J538" s="3"/>
     </row>
     <row r="539" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17444,10 +17444,10 @@
       <c r="G539" s="8">
         <v>0</v>
       </c>
-      <c r="H539" s="11" t="s">
+      <c r="H539" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="I539" s="11"/>
+      <c r="I539" s="20"/>
       <c r="J539" s="3"/>
     </row>
     <row r="540" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17472,10 +17472,10 @@
       <c r="G540" s="8">
         <v>0</v>
       </c>
-      <c r="H540" s="11" t="s">
+      <c r="H540" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I540" s="11"/>
+      <c r="I540" s="20"/>
       <c r="J540" s="3"/>
     </row>
     <row r="541" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17498,10 +17498,10 @@
       <c r="G541" s="8">
         <v>0</v>
       </c>
-      <c r="H541" s="11" t="s">
+      <c r="H541" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I541" s="11"/>
+      <c r="I541" s="20"/>
       <c r="J541" s="3"/>
     </row>
     <row r="542" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17526,10 +17526,10 @@
       <c r="G542" s="8">
         <v>0</v>
       </c>
-      <c r="H542" s="11" t="s">
+      <c r="H542" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I542" s="11"/>
+      <c r="I542" s="20"/>
       <c r="J542" s="3"/>
     </row>
     <row r="543" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17554,10 +17554,10 @@
       <c r="G543" s="8">
         <v>0</v>
       </c>
-      <c r="H543" s="11" t="s">
+      <c r="H543" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="I543" s="11"/>
+      <c r="I543" s="20"/>
       <c r="J543" s="3"/>
     </row>
     <row r="544" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17578,8 +17578,8 @@
       <c r="G544" s="8">
         <v>0</v>
       </c>
-      <c r="H544" s="11"/>
-      <c r="I544" s="11"/>
+      <c r="H544" s="20"/>
+      <c r="I544" s="20"/>
       <c r="J544" s="3"/>
     </row>
     <row r="545" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17600,8 +17600,8 @@
       <c r="G545" s="8">
         <v>0</v>
       </c>
-      <c r="H545" s="11"/>
-      <c r="I545" s="11"/>
+      <c r="H545" s="20"/>
+      <c r="I545" s="20"/>
       <c r="J545" s="3"/>
     </row>
     <row r="546" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17622,8 +17622,8 @@
       <c r="G546" s="8">
         <v>0</v>
       </c>
-      <c r="H546" s="11"/>
-      <c r="I546" s="11"/>
+      <c r="H546" s="20"/>
+      <c r="I546" s="20"/>
       <c r="J546" s="3"/>
     </row>
     <row r="547" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17644,8 +17644,8 @@
       <c r="G547" s="8">
         <v>0</v>
       </c>
-      <c r="H547" s="11"/>
-      <c r="I547" s="11"/>
+      <c r="H547" s="20"/>
+      <c r="I547" s="20"/>
       <c r="J547" s="3"/>
     </row>
     <row r="548" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17666,8 +17666,8 @@
       <c r="G548" s="8">
         <v>0</v>
       </c>
-      <c r="H548" s="11"/>
-      <c r="I548" s="11"/>
+      <c r="H548" s="20"/>
+      <c r="I548" s="20"/>
       <c r="J548" s="3"/>
     </row>
     <row r="549" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17688,8 +17688,8 @@
       <c r="G549" s="8">
         <v>0</v>
       </c>
-      <c r="H549" s="11"/>
-      <c r="I549" s="11"/>
+      <c r="H549" s="20"/>
+      <c r="I549" s="20"/>
       <c r="J549" s="3"/>
     </row>
     <row r="550" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17710,8 +17710,8 @@
       <c r="G550" s="8">
         <v>0</v>
       </c>
-      <c r="H550" s="11"/>
-      <c r="I550" s="11"/>
+      <c r="H550" s="20"/>
+      <c r="I550" s="20"/>
       <c r="J550" s="3"/>
     </row>
     <row r="551" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17732,8 +17732,8 @@
       <c r="G551" s="8">
         <v>0</v>
       </c>
-      <c r="H551" s="11"/>
-      <c r="I551" s="11"/>
+      <c r="H551" s="20"/>
+      <c r="I551" s="20"/>
       <c r="J551" s="3"/>
     </row>
     <row r="552" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17754,8 +17754,8 @@
       <c r="G552" s="8">
         <v>0</v>
       </c>
-      <c r="H552" s="11"/>
-      <c r="I552" s="11"/>
+      <c r="H552" s="20"/>
+      <c r="I552" s="20"/>
       <c r="J552" s="3"/>
     </row>
     <row r="553" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17776,8 +17776,8 @@
       <c r="G553" s="8">
         <v>0</v>
       </c>
-      <c r="H553" s="11"/>
-      <c r="I553" s="11"/>
+      <c r="H553" s="20"/>
+      <c r="I553" s="20"/>
       <c r="J553" s="3"/>
     </row>
     <row r="554" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17798,8 +17798,8 @@
       <c r="G554" s="8">
         <v>0</v>
       </c>
-      <c r="H554" s="11"/>
-      <c r="I554" s="11"/>
+      <c r="H554" s="20"/>
+      <c r="I554" s="20"/>
       <c r="J554" s="3"/>
     </row>
     <row r="555" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17809,21 +17809,21 @@
       <c r="B555" s="10">
         <v>538</v>
       </c>
-      <c r="C555" s="12" t="s">
+      <c r="C555" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D555" s="13"/>
+      <c r="D555" s="22"/>
       <c r="E555" s="10">
         <v>11</v>
       </c>
-      <c r="F555" s="12" t="s">
+      <c r="F555" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="G555" s="13"/>
-      <c r="H555" s="14">
+      <c r="G555" s="22"/>
+      <c r="H555" s="23">
         <v>549</v>
       </c>
-      <c r="I555" s="15"/>
+      <c r="I555" s="24"/>
       <c r="J555" s="3"/>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.3">
@@ -17840,24 +17840,532 @@
     </row>
   </sheetData>
   <mergeCells count="556">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C555:D555"/>
+    <mergeCell ref="F555:G555"/>
+    <mergeCell ref="H555:I555"/>
+    <mergeCell ref="H548:I548"/>
+    <mergeCell ref="H549:I549"/>
+    <mergeCell ref="H550:I550"/>
+    <mergeCell ref="H551:I551"/>
+    <mergeCell ref="H552:I552"/>
+    <mergeCell ref="H553:I553"/>
+    <mergeCell ref="H542:I542"/>
+    <mergeCell ref="H543:I543"/>
+    <mergeCell ref="H536:I536"/>
+    <mergeCell ref="H537:I537"/>
+    <mergeCell ref="H538:I538"/>
+    <mergeCell ref="H539:I539"/>
+    <mergeCell ref="H540:I540"/>
+    <mergeCell ref="H541:I541"/>
+    <mergeCell ref="H554:I554"/>
+    <mergeCell ref="H547:I547"/>
+    <mergeCell ref="H546:I546"/>
+    <mergeCell ref="H545:I545"/>
+    <mergeCell ref="H544:I544"/>
+    <mergeCell ref="H530:I530"/>
+    <mergeCell ref="H531:I531"/>
+    <mergeCell ref="H532:I532"/>
+    <mergeCell ref="H533:I533"/>
+    <mergeCell ref="H534:I534"/>
+    <mergeCell ref="H535:I535"/>
+    <mergeCell ref="H524:I524"/>
+    <mergeCell ref="H525:I525"/>
+    <mergeCell ref="H526:I526"/>
+    <mergeCell ref="H527:I527"/>
+    <mergeCell ref="H528:I528"/>
+    <mergeCell ref="H529:I529"/>
+    <mergeCell ref="H518:I518"/>
+    <mergeCell ref="H519:I519"/>
+    <mergeCell ref="H520:I520"/>
+    <mergeCell ref="H521:I521"/>
+    <mergeCell ref="H522:I522"/>
+    <mergeCell ref="H523:I523"/>
+    <mergeCell ref="H512:I512"/>
+    <mergeCell ref="H513:I513"/>
+    <mergeCell ref="H514:I514"/>
+    <mergeCell ref="H515:I515"/>
+    <mergeCell ref="H516:I516"/>
+    <mergeCell ref="H517:I517"/>
+    <mergeCell ref="H506:I506"/>
+    <mergeCell ref="H507:I507"/>
+    <mergeCell ref="H508:I508"/>
+    <mergeCell ref="H509:I509"/>
+    <mergeCell ref="H510:I510"/>
+    <mergeCell ref="H511:I511"/>
+    <mergeCell ref="H500:I500"/>
+    <mergeCell ref="H501:I501"/>
+    <mergeCell ref="H502:I502"/>
+    <mergeCell ref="H503:I503"/>
+    <mergeCell ref="H504:I504"/>
+    <mergeCell ref="H505:I505"/>
+    <mergeCell ref="H494:I494"/>
+    <mergeCell ref="H495:I495"/>
+    <mergeCell ref="H496:I496"/>
+    <mergeCell ref="H497:I497"/>
+    <mergeCell ref="H498:I498"/>
+    <mergeCell ref="H499:I499"/>
+    <mergeCell ref="H488:I488"/>
+    <mergeCell ref="H489:I489"/>
+    <mergeCell ref="H490:I490"/>
+    <mergeCell ref="H491:I491"/>
+    <mergeCell ref="H492:I492"/>
+    <mergeCell ref="H493:I493"/>
+    <mergeCell ref="H482:I482"/>
+    <mergeCell ref="H483:I483"/>
+    <mergeCell ref="H484:I484"/>
+    <mergeCell ref="H485:I485"/>
+    <mergeCell ref="H486:I486"/>
+    <mergeCell ref="H487:I487"/>
+    <mergeCell ref="H476:I476"/>
+    <mergeCell ref="H477:I477"/>
+    <mergeCell ref="H478:I478"/>
+    <mergeCell ref="H479:I479"/>
+    <mergeCell ref="H480:I480"/>
+    <mergeCell ref="H481:I481"/>
+    <mergeCell ref="H470:I470"/>
+    <mergeCell ref="H471:I471"/>
+    <mergeCell ref="H472:I472"/>
+    <mergeCell ref="H473:I473"/>
+    <mergeCell ref="H474:I474"/>
+    <mergeCell ref="H475:I475"/>
+    <mergeCell ref="H464:I464"/>
+    <mergeCell ref="H465:I465"/>
+    <mergeCell ref="H466:I466"/>
+    <mergeCell ref="H467:I467"/>
+    <mergeCell ref="H468:I468"/>
+    <mergeCell ref="H469:I469"/>
+    <mergeCell ref="H458:I458"/>
+    <mergeCell ref="H459:I459"/>
+    <mergeCell ref="H460:I460"/>
+    <mergeCell ref="H461:I461"/>
+    <mergeCell ref="H462:I462"/>
+    <mergeCell ref="H463:I463"/>
+    <mergeCell ref="H452:I452"/>
+    <mergeCell ref="H453:I453"/>
+    <mergeCell ref="H454:I454"/>
+    <mergeCell ref="H455:I455"/>
+    <mergeCell ref="H456:I456"/>
+    <mergeCell ref="H457:I457"/>
+    <mergeCell ref="H446:I446"/>
+    <mergeCell ref="H447:I447"/>
+    <mergeCell ref="H448:I448"/>
+    <mergeCell ref="H449:I449"/>
+    <mergeCell ref="H450:I450"/>
+    <mergeCell ref="H451:I451"/>
+    <mergeCell ref="H440:I440"/>
+    <mergeCell ref="H441:I441"/>
+    <mergeCell ref="H442:I442"/>
+    <mergeCell ref="H443:I443"/>
+    <mergeCell ref="H444:I444"/>
+    <mergeCell ref="H445:I445"/>
+    <mergeCell ref="H434:I434"/>
+    <mergeCell ref="H435:I435"/>
+    <mergeCell ref="H436:I436"/>
+    <mergeCell ref="H437:I437"/>
+    <mergeCell ref="H438:I438"/>
+    <mergeCell ref="H439:I439"/>
+    <mergeCell ref="H428:I428"/>
+    <mergeCell ref="H429:I429"/>
+    <mergeCell ref="H430:I430"/>
+    <mergeCell ref="H431:I431"/>
+    <mergeCell ref="H432:I432"/>
+    <mergeCell ref="H433:I433"/>
+    <mergeCell ref="H422:I422"/>
+    <mergeCell ref="H423:I423"/>
+    <mergeCell ref="H424:I424"/>
+    <mergeCell ref="H425:I425"/>
+    <mergeCell ref="H426:I426"/>
+    <mergeCell ref="H427:I427"/>
+    <mergeCell ref="H416:I416"/>
+    <mergeCell ref="H417:I417"/>
+    <mergeCell ref="H418:I418"/>
+    <mergeCell ref="H419:I419"/>
+    <mergeCell ref="H420:I420"/>
+    <mergeCell ref="H421:I421"/>
+    <mergeCell ref="H410:I410"/>
+    <mergeCell ref="H411:I411"/>
+    <mergeCell ref="H412:I412"/>
+    <mergeCell ref="H413:I413"/>
+    <mergeCell ref="H414:I414"/>
+    <mergeCell ref="H415:I415"/>
+    <mergeCell ref="H404:I404"/>
+    <mergeCell ref="H405:I405"/>
+    <mergeCell ref="H406:I406"/>
+    <mergeCell ref="H407:I407"/>
+    <mergeCell ref="H408:I408"/>
+    <mergeCell ref="H409:I409"/>
+    <mergeCell ref="H398:I398"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="H400:I400"/>
+    <mergeCell ref="H401:I401"/>
+    <mergeCell ref="H402:I402"/>
+    <mergeCell ref="H403:I403"/>
+    <mergeCell ref="H392:I392"/>
+    <mergeCell ref="H393:I393"/>
+    <mergeCell ref="H394:I394"/>
+    <mergeCell ref="H395:I395"/>
+    <mergeCell ref="H396:I396"/>
+    <mergeCell ref="H397:I397"/>
+    <mergeCell ref="H386:I386"/>
+    <mergeCell ref="H387:I387"/>
+    <mergeCell ref="H388:I388"/>
+    <mergeCell ref="H389:I389"/>
+    <mergeCell ref="H390:I390"/>
+    <mergeCell ref="H391:I391"/>
+    <mergeCell ref="H380:I380"/>
+    <mergeCell ref="H381:I381"/>
+    <mergeCell ref="H382:I382"/>
+    <mergeCell ref="H383:I383"/>
+    <mergeCell ref="H384:I384"/>
+    <mergeCell ref="H385:I385"/>
+    <mergeCell ref="H374:I374"/>
+    <mergeCell ref="H375:I375"/>
+    <mergeCell ref="H376:I376"/>
+    <mergeCell ref="H377:I377"/>
+    <mergeCell ref="H378:I378"/>
+    <mergeCell ref="H379:I379"/>
+    <mergeCell ref="H368:I368"/>
+    <mergeCell ref="H369:I369"/>
+    <mergeCell ref="H370:I370"/>
+    <mergeCell ref="H371:I371"/>
+    <mergeCell ref="H372:I372"/>
+    <mergeCell ref="H373:I373"/>
+    <mergeCell ref="H362:I362"/>
+    <mergeCell ref="H363:I363"/>
+    <mergeCell ref="H364:I364"/>
+    <mergeCell ref="H365:I365"/>
+    <mergeCell ref="H366:I366"/>
+    <mergeCell ref="H367:I367"/>
+    <mergeCell ref="H356:I356"/>
+    <mergeCell ref="H357:I357"/>
+    <mergeCell ref="H358:I358"/>
+    <mergeCell ref="H359:I359"/>
+    <mergeCell ref="H360:I360"/>
+    <mergeCell ref="H361:I361"/>
+    <mergeCell ref="H350:I350"/>
+    <mergeCell ref="H351:I351"/>
+    <mergeCell ref="H352:I352"/>
+    <mergeCell ref="H353:I353"/>
+    <mergeCell ref="H354:I354"/>
+    <mergeCell ref="H355:I355"/>
+    <mergeCell ref="H344:I344"/>
+    <mergeCell ref="H345:I345"/>
+    <mergeCell ref="H346:I346"/>
+    <mergeCell ref="H347:I347"/>
+    <mergeCell ref="H348:I348"/>
+    <mergeCell ref="H349:I349"/>
+    <mergeCell ref="H338:I338"/>
+    <mergeCell ref="H339:I339"/>
+    <mergeCell ref="H340:I340"/>
+    <mergeCell ref="H341:I341"/>
+    <mergeCell ref="H342:I342"/>
+    <mergeCell ref="H343:I343"/>
+    <mergeCell ref="H332:I332"/>
+    <mergeCell ref="H333:I333"/>
+    <mergeCell ref="H334:I334"/>
+    <mergeCell ref="H335:I335"/>
+    <mergeCell ref="H336:I336"/>
+    <mergeCell ref="H337:I337"/>
+    <mergeCell ref="H326:I326"/>
+    <mergeCell ref="H327:I327"/>
+    <mergeCell ref="H328:I328"/>
+    <mergeCell ref="H329:I329"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="H331:I331"/>
+    <mergeCell ref="H320:I320"/>
+    <mergeCell ref="H321:I321"/>
+    <mergeCell ref="H322:I322"/>
+    <mergeCell ref="H323:I323"/>
+    <mergeCell ref="H324:I324"/>
+    <mergeCell ref="H325:I325"/>
+    <mergeCell ref="H314:I314"/>
+    <mergeCell ref="H315:I315"/>
+    <mergeCell ref="H316:I316"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="H318:I318"/>
+    <mergeCell ref="H319:I319"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="H309:I309"/>
+    <mergeCell ref="H310:I310"/>
+    <mergeCell ref="H311:I311"/>
+    <mergeCell ref="H312:I312"/>
+    <mergeCell ref="H313:I313"/>
+    <mergeCell ref="H302:I302"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="H306:I306"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="H296:I296"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="H290:I290"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="H293:I293"/>
+    <mergeCell ref="H294:I294"/>
+    <mergeCell ref="H295:I295"/>
+    <mergeCell ref="H284:I284"/>
+    <mergeCell ref="H285:I285"/>
+    <mergeCell ref="H286:I286"/>
+    <mergeCell ref="H287:I287"/>
+    <mergeCell ref="H288:I288"/>
+    <mergeCell ref="H289:I289"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="H281:I281"/>
+    <mergeCell ref="H282:I282"/>
+    <mergeCell ref="H283:I283"/>
+    <mergeCell ref="H272:I272"/>
+    <mergeCell ref="H273:I273"/>
+    <mergeCell ref="H274:I274"/>
+    <mergeCell ref="H275:I275"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="H267:I267"/>
+    <mergeCell ref="H268:I268"/>
+    <mergeCell ref="H269:I269"/>
+    <mergeCell ref="H270:I270"/>
+    <mergeCell ref="H271:I271"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="H262:I262"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="H254:I254"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="H251:I251"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H28:I28"/>
@@ -17870,532 +18378,24 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="H254:I254"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="H251:I251"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="H267:I267"/>
-    <mergeCell ref="H268:I268"/>
-    <mergeCell ref="H269:I269"/>
-    <mergeCell ref="H270:I270"/>
-    <mergeCell ref="H271:I271"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="H262:I262"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="H281:I281"/>
-    <mergeCell ref="H282:I282"/>
-    <mergeCell ref="H283:I283"/>
-    <mergeCell ref="H272:I272"/>
-    <mergeCell ref="H273:I273"/>
-    <mergeCell ref="H274:I274"/>
-    <mergeCell ref="H275:I275"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="H290:I290"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="H293:I293"/>
-    <mergeCell ref="H294:I294"/>
-    <mergeCell ref="H295:I295"/>
-    <mergeCell ref="H284:I284"/>
-    <mergeCell ref="H285:I285"/>
-    <mergeCell ref="H286:I286"/>
-    <mergeCell ref="H287:I287"/>
-    <mergeCell ref="H288:I288"/>
-    <mergeCell ref="H289:I289"/>
-    <mergeCell ref="H302:I302"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="H306:I306"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="H296:I296"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="H314:I314"/>
-    <mergeCell ref="H315:I315"/>
-    <mergeCell ref="H316:I316"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="H319:I319"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="H309:I309"/>
-    <mergeCell ref="H310:I310"/>
-    <mergeCell ref="H311:I311"/>
-    <mergeCell ref="H312:I312"/>
-    <mergeCell ref="H313:I313"/>
-    <mergeCell ref="H326:I326"/>
-    <mergeCell ref="H327:I327"/>
-    <mergeCell ref="H328:I328"/>
-    <mergeCell ref="H329:I329"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="H331:I331"/>
-    <mergeCell ref="H320:I320"/>
-    <mergeCell ref="H321:I321"/>
-    <mergeCell ref="H322:I322"/>
-    <mergeCell ref="H323:I323"/>
-    <mergeCell ref="H324:I324"/>
-    <mergeCell ref="H325:I325"/>
-    <mergeCell ref="H338:I338"/>
-    <mergeCell ref="H339:I339"/>
-    <mergeCell ref="H340:I340"/>
-    <mergeCell ref="H341:I341"/>
-    <mergeCell ref="H342:I342"/>
-    <mergeCell ref="H343:I343"/>
-    <mergeCell ref="H332:I332"/>
-    <mergeCell ref="H333:I333"/>
-    <mergeCell ref="H334:I334"/>
-    <mergeCell ref="H335:I335"/>
-    <mergeCell ref="H336:I336"/>
-    <mergeCell ref="H337:I337"/>
-    <mergeCell ref="H350:I350"/>
-    <mergeCell ref="H351:I351"/>
-    <mergeCell ref="H352:I352"/>
-    <mergeCell ref="H353:I353"/>
-    <mergeCell ref="H354:I354"/>
-    <mergeCell ref="H355:I355"/>
-    <mergeCell ref="H344:I344"/>
-    <mergeCell ref="H345:I345"/>
-    <mergeCell ref="H346:I346"/>
-    <mergeCell ref="H347:I347"/>
-    <mergeCell ref="H348:I348"/>
-    <mergeCell ref="H349:I349"/>
-    <mergeCell ref="H362:I362"/>
-    <mergeCell ref="H363:I363"/>
-    <mergeCell ref="H364:I364"/>
-    <mergeCell ref="H365:I365"/>
-    <mergeCell ref="H366:I366"/>
-    <mergeCell ref="H367:I367"/>
-    <mergeCell ref="H356:I356"/>
-    <mergeCell ref="H357:I357"/>
-    <mergeCell ref="H358:I358"/>
-    <mergeCell ref="H359:I359"/>
-    <mergeCell ref="H360:I360"/>
-    <mergeCell ref="H361:I361"/>
-    <mergeCell ref="H374:I374"/>
-    <mergeCell ref="H375:I375"/>
-    <mergeCell ref="H376:I376"/>
-    <mergeCell ref="H377:I377"/>
-    <mergeCell ref="H378:I378"/>
-    <mergeCell ref="H379:I379"/>
-    <mergeCell ref="H368:I368"/>
-    <mergeCell ref="H369:I369"/>
-    <mergeCell ref="H370:I370"/>
-    <mergeCell ref="H371:I371"/>
-    <mergeCell ref="H372:I372"/>
-    <mergeCell ref="H373:I373"/>
-    <mergeCell ref="H386:I386"/>
-    <mergeCell ref="H387:I387"/>
-    <mergeCell ref="H388:I388"/>
-    <mergeCell ref="H389:I389"/>
-    <mergeCell ref="H390:I390"/>
-    <mergeCell ref="H391:I391"/>
-    <mergeCell ref="H380:I380"/>
-    <mergeCell ref="H381:I381"/>
-    <mergeCell ref="H382:I382"/>
-    <mergeCell ref="H383:I383"/>
-    <mergeCell ref="H384:I384"/>
-    <mergeCell ref="H385:I385"/>
-    <mergeCell ref="H398:I398"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="H400:I400"/>
-    <mergeCell ref="H401:I401"/>
-    <mergeCell ref="H402:I402"/>
-    <mergeCell ref="H403:I403"/>
-    <mergeCell ref="H392:I392"/>
-    <mergeCell ref="H393:I393"/>
-    <mergeCell ref="H394:I394"/>
-    <mergeCell ref="H395:I395"/>
-    <mergeCell ref="H396:I396"/>
-    <mergeCell ref="H397:I397"/>
-    <mergeCell ref="H410:I410"/>
-    <mergeCell ref="H411:I411"/>
-    <mergeCell ref="H412:I412"/>
-    <mergeCell ref="H413:I413"/>
-    <mergeCell ref="H414:I414"/>
-    <mergeCell ref="H415:I415"/>
-    <mergeCell ref="H404:I404"/>
-    <mergeCell ref="H405:I405"/>
-    <mergeCell ref="H406:I406"/>
-    <mergeCell ref="H407:I407"/>
-    <mergeCell ref="H408:I408"/>
-    <mergeCell ref="H409:I409"/>
-    <mergeCell ref="H422:I422"/>
-    <mergeCell ref="H423:I423"/>
-    <mergeCell ref="H424:I424"/>
-    <mergeCell ref="H425:I425"/>
-    <mergeCell ref="H426:I426"/>
-    <mergeCell ref="H427:I427"/>
-    <mergeCell ref="H416:I416"/>
-    <mergeCell ref="H417:I417"/>
-    <mergeCell ref="H418:I418"/>
-    <mergeCell ref="H419:I419"/>
-    <mergeCell ref="H420:I420"/>
-    <mergeCell ref="H421:I421"/>
-    <mergeCell ref="H434:I434"/>
-    <mergeCell ref="H435:I435"/>
-    <mergeCell ref="H436:I436"/>
-    <mergeCell ref="H437:I437"/>
-    <mergeCell ref="H438:I438"/>
-    <mergeCell ref="H439:I439"/>
-    <mergeCell ref="H428:I428"/>
-    <mergeCell ref="H429:I429"/>
-    <mergeCell ref="H430:I430"/>
-    <mergeCell ref="H431:I431"/>
-    <mergeCell ref="H432:I432"/>
-    <mergeCell ref="H433:I433"/>
-    <mergeCell ref="H446:I446"/>
-    <mergeCell ref="H447:I447"/>
-    <mergeCell ref="H448:I448"/>
-    <mergeCell ref="H449:I449"/>
-    <mergeCell ref="H450:I450"/>
-    <mergeCell ref="H451:I451"/>
-    <mergeCell ref="H440:I440"/>
-    <mergeCell ref="H441:I441"/>
-    <mergeCell ref="H442:I442"/>
-    <mergeCell ref="H443:I443"/>
-    <mergeCell ref="H444:I444"/>
-    <mergeCell ref="H445:I445"/>
-    <mergeCell ref="H458:I458"/>
-    <mergeCell ref="H459:I459"/>
-    <mergeCell ref="H460:I460"/>
-    <mergeCell ref="H461:I461"/>
-    <mergeCell ref="H462:I462"/>
-    <mergeCell ref="H463:I463"/>
-    <mergeCell ref="H452:I452"/>
-    <mergeCell ref="H453:I453"/>
-    <mergeCell ref="H454:I454"/>
-    <mergeCell ref="H455:I455"/>
-    <mergeCell ref="H456:I456"/>
-    <mergeCell ref="H457:I457"/>
-    <mergeCell ref="H470:I470"/>
-    <mergeCell ref="H471:I471"/>
-    <mergeCell ref="H472:I472"/>
-    <mergeCell ref="H473:I473"/>
-    <mergeCell ref="H474:I474"/>
-    <mergeCell ref="H475:I475"/>
-    <mergeCell ref="H464:I464"/>
-    <mergeCell ref="H465:I465"/>
-    <mergeCell ref="H466:I466"/>
-    <mergeCell ref="H467:I467"/>
-    <mergeCell ref="H468:I468"/>
-    <mergeCell ref="H469:I469"/>
-    <mergeCell ref="H482:I482"/>
-    <mergeCell ref="H483:I483"/>
-    <mergeCell ref="H484:I484"/>
-    <mergeCell ref="H485:I485"/>
-    <mergeCell ref="H486:I486"/>
-    <mergeCell ref="H487:I487"/>
-    <mergeCell ref="H476:I476"/>
-    <mergeCell ref="H477:I477"/>
-    <mergeCell ref="H478:I478"/>
-    <mergeCell ref="H479:I479"/>
-    <mergeCell ref="H480:I480"/>
-    <mergeCell ref="H481:I481"/>
-    <mergeCell ref="H494:I494"/>
-    <mergeCell ref="H495:I495"/>
-    <mergeCell ref="H496:I496"/>
-    <mergeCell ref="H497:I497"/>
-    <mergeCell ref="H498:I498"/>
-    <mergeCell ref="H499:I499"/>
-    <mergeCell ref="H488:I488"/>
-    <mergeCell ref="H489:I489"/>
-    <mergeCell ref="H490:I490"/>
-    <mergeCell ref="H491:I491"/>
-    <mergeCell ref="H492:I492"/>
-    <mergeCell ref="H493:I493"/>
-    <mergeCell ref="H506:I506"/>
-    <mergeCell ref="H507:I507"/>
-    <mergeCell ref="H508:I508"/>
-    <mergeCell ref="H509:I509"/>
-    <mergeCell ref="H510:I510"/>
-    <mergeCell ref="H511:I511"/>
-    <mergeCell ref="H500:I500"/>
-    <mergeCell ref="H501:I501"/>
-    <mergeCell ref="H502:I502"/>
-    <mergeCell ref="H503:I503"/>
-    <mergeCell ref="H504:I504"/>
-    <mergeCell ref="H505:I505"/>
-    <mergeCell ref="H518:I518"/>
-    <mergeCell ref="H519:I519"/>
-    <mergeCell ref="H520:I520"/>
-    <mergeCell ref="H521:I521"/>
-    <mergeCell ref="H522:I522"/>
-    <mergeCell ref="H523:I523"/>
-    <mergeCell ref="H512:I512"/>
-    <mergeCell ref="H513:I513"/>
-    <mergeCell ref="H514:I514"/>
-    <mergeCell ref="H515:I515"/>
-    <mergeCell ref="H516:I516"/>
-    <mergeCell ref="H517:I517"/>
-    <mergeCell ref="H530:I530"/>
-    <mergeCell ref="H531:I531"/>
-    <mergeCell ref="H532:I532"/>
-    <mergeCell ref="H533:I533"/>
-    <mergeCell ref="H534:I534"/>
-    <mergeCell ref="H535:I535"/>
-    <mergeCell ref="H524:I524"/>
-    <mergeCell ref="H525:I525"/>
-    <mergeCell ref="H526:I526"/>
-    <mergeCell ref="H527:I527"/>
-    <mergeCell ref="H528:I528"/>
-    <mergeCell ref="H529:I529"/>
-    <mergeCell ref="H542:I542"/>
-    <mergeCell ref="H543:I543"/>
-    <mergeCell ref="H536:I536"/>
-    <mergeCell ref="H537:I537"/>
-    <mergeCell ref="H538:I538"/>
-    <mergeCell ref="H539:I539"/>
-    <mergeCell ref="H540:I540"/>
-    <mergeCell ref="H541:I541"/>
-    <mergeCell ref="H554:I554"/>
-    <mergeCell ref="C555:D555"/>
-    <mergeCell ref="F555:G555"/>
-    <mergeCell ref="H555:I555"/>
-    <mergeCell ref="H548:I548"/>
-    <mergeCell ref="H549:I549"/>
-    <mergeCell ref="H550:I550"/>
-    <mergeCell ref="H551:I551"/>
-    <mergeCell ref="H552:I552"/>
-    <mergeCell ref="H553:I553"/>
-    <mergeCell ref="H547:I547"/>
-    <mergeCell ref="H546:I546"/>
-    <mergeCell ref="H545:I545"/>
-    <mergeCell ref="H544:I544"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Uploads/Luis - copia.xlsx
+++ b/Uploads/Luis - copia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luis Fer\U\Practica Interna\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820479EB-9399-4E7A-AE5E-09509DF6931A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A85941-AD77-457E-92E5-1F4A6EA77CA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="591">
   <si>
     <t>LISTA DE MATERIAS - NUMERO DE INSCRITOS</t>
   </si>
@@ -1787,6 +1787,12 @@
   </si>
   <si>
     <t>sdfas</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>ASD</t>
   </si>
 </sst>
 </file>
@@ -2423,6 +2429,9 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2464,9 +2473,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2794,8 +2800,8 @@
   </sheetPr>
   <dimension ref="A1:J556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="E492" sqref="E489:E492"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2814,44 +2820,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
@@ -2880,10 +2886,10 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2899,19 +2905,17 @@
       <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>10</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2936,10 +2940,10 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2964,10 +2968,10 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2992,10 +2996,10 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3012,7 +3016,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>27</v>
+        <v>589</v>
       </c>
       <c r="F10" s="8">
         <v>30</v>
@@ -3020,10 +3024,10 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3040,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>20</v>
+        <v>590</v>
       </c>
       <c r="F11" s="8">
         <v>32</v>
@@ -3048,10 +3052,10 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3076,10 +3080,10 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3104,10 +3108,10 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3132,10 +3136,10 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3160,10 +3164,10 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3188,10 +3192,10 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3216,10 +3220,10 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3244,10 +3248,10 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3272,10 +3276,10 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3300,10 +3304,10 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3328,10 +3332,10 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3356,10 +3360,10 @@
       <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3384,10 +3388,10 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3412,10 +3416,10 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3440,10 +3444,10 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3468,10 +3472,10 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3496,10 +3500,10 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3524,10 +3528,10 @@
       <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3552,10 +3556,10 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3578,8 +3582,8 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3602,8 +3606,8 @@
       <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3628,10 +3632,10 @@
       <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3656,10 +3660,10 @@
       <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3684,10 +3688,10 @@
       <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="20"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3712,10 +3716,10 @@
       <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="20"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3740,10 +3744,10 @@
       <c r="G36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3768,10 +3772,10 @@
       <c r="G37" s="8">
         <v>0</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3796,10 +3800,10 @@
       <c r="G38" s="8">
         <v>0</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I38" s="20"/>
+      <c r="I38" s="21"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3824,10 +3828,10 @@
       <c r="G39" s="8">
         <v>3</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="I39" s="20"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3852,10 +3856,10 @@
       <c r="G40" s="8">
         <v>0</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="20"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3880,10 +3884,10 @@
       <c r="G41" s="8">
         <v>0</v>
       </c>
-      <c r="H41" s="20" t="s">
+      <c r="H41" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="20"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3908,10 +3912,10 @@
       <c r="G42" s="8">
         <v>0</v>
       </c>
-      <c r="H42" s="20" t="s">
+      <c r="H42" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="20"/>
+      <c r="I42" s="21"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3936,10 +3940,10 @@
       <c r="G43" s="8">
         <v>0</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="21"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3964,10 +3968,10 @@
       <c r="G44" s="8">
         <v>1</v>
       </c>
-      <c r="H44" s="20" t="s">
+      <c r="H44" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="20"/>
+      <c r="I44" s="21"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3992,10 +3996,10 @@
       <c r="G45" s="8">
         <v>0</v>
       </c>
-      <c r="H45" s="20" t="s">
+      <c r="H45" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="20"/>
+      <c r="I45" s="21"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4020,10 +4024,10 @@
       <c r="G46" s="8">
         <v>0</v>
       </c>
-      <c r="H46" s="20" t="s">
+      <c r="H46" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="20"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4046,10 +4050,10 @@
       <c r="G47" s="8">
         <v>0</v>
       </c>
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I47" s="20"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4072,10 +4076,10 @@
       <c r="G48" s="8">
         <v>0</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="20"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4098,10 +4102,10 @@
       <c r="G49" s="8">
         <v>0</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H49" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I49" s="20"/>
+      <c r="I49" s="21"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4126,10 +4130,10 @@
       <c r="G50" s="8">
         <v>0</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I50" s="20"/>
+      <c r="I50" s="21"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4154,10 +4158,10 @@
       <c r="G51" s="8">
         <v>0</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I51" s="20"/>
+      <c r="I51" s="21"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4182,10 +4186,10 @@
       <c r="G52" s="8">
         <v>0</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I52" s="20"/>
+      <c r="I52" s="21"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4210,10 +4214,10 @@
       <c r="G53" s="8">
         <v>0</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="H53" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I53" s="20"/>
+      <c r="I53" s="21"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4238,10 +4242,10 @@
       <c r="G54" s="8">
         <v>0</v>
       </c>
-      <c r="H54" s="20" t="s">
+      <c r="H54" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I54" s="20"/>
+      <c r="I54" s="21"/>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4266,10 +4270,10 @@
       <c r="G55" s="8">
         <v>0</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="H55" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I55" s="20"/>
+      <c r="I55" s="21"/>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4294,10 +4298,10 @@
       <c r="G56" s="8">
         <v>0</v>
       </c>
-      <c r="H56" s="20" t="s">
+      <c r="H56" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="I56" s="20"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4322,10 +4326,10 @@
       <c r="G57" s="8">
         <v>0</v>
       </c>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="I57" s="20"/>
+      <c r="I57" s="21"/>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4350,10 +4354,10 @@
       <c r="G58" s="8">
         <v>1</v>
       </c>
-      <c r="H58" s="20" t="s">
+      <c r="H58" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="I58" s="20"/>
+      <c r="I58" s="21"/>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4378,10 +4382,10 @@
       <c r="G59" s="8">
         <v>0</v>
       </c>
-      <c r="H59" s="20" t="s">
+      <c r="H59" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="I59" s="20"/>
+      <c r="I59" s="21"/>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4406,10 +4410,10 @@
       <c r="G60" s="8">
         <v>0</v>
       </c>
-      <c r="H60" s="20" t="s">
+      <c r="H60" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I60" s="20"/>
+      <c r="I60" s="21"/>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4434,10 +4438,10 @@
       <c r="G61" s="8">
         <v>0</v>
       </c>
-      <c r="H61" s="20" t="s">
+      <c r="H61" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I61" s="20"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4462,10 +4466,10 @@
       <c r="G62" s="8">
         <v>1</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="H62" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I62" s="20"/>
+      <c r="I62" s="21"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4488,10 +4492,10 @@
       <c r="G63" s="8">
         <v>0</v>
       </c>
-      <c r="H63" s="20" t="s">
+      <c r="H63" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I63" s="20"/>
+      <c r="I63" s="21"/>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4516,10 +4520,10 @@
       <c r="G64" s="8">
         <v>2</v>
       </c>
-      <c r="H64" s="20" t="s">
+      <c r="H64" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I64" s="20"/>
+      <c r="I64" s="21"/>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4544,10 +4548,10 @@
       <c r="G65" s="8">
         <v>0</v>
       </c>
-      <c r="H65" s="20" t="s">
+      <c r="H65" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I65" s="20"/>
+      <c r="I65" s="21"/>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4572,10 +4576,10 @@
       <c r="G66" s="8">
         <v>0</v>
       </c>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I66" s="20"/>
+      <c r="I66" s="21"/>
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4598,8 +4602,8 @@
       <c r="G67" s="8">
         <v>0</v>
       </c>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4624,10 +4628,10 @@
       <c r="G68" s="8">
         <v>0</v>
       </c>
-      <c r="H68" s="20" t="s">
+      <c r="H68" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I68" s="20"/>
+      <c r="I68" s="21"/>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4652,10 +4656,10 @@
       <c r="G69" s="8">
         <v>0</v>
       </c>
-      <c r="H69" s="20" t="s">
+      <c r="H69" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I69" s="20"/>
+      <c r="I69" s="21"/>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4680,10 +4684,10 @@
       <c r="G70" s="8">
         <v>0</v>
       </c>
-      <c r="H70" s="20" t="s">
+      <c r="H70" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I70" s="20"/>
+      <c r="I70" s="21"/>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4708,10 +4712,10 @@
       <c r="G71" s="8">
         <v>0</v>
       </c>
-      <c r="H71" s="20" t="s">
+      <c r="H71" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="I71" s="20"/>
+      <c r="I71" s="21"/>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4736,10 +4740,10 @@
       <c r="G72" s="8">
         <v>0</v>
       </c>
-      <c r="H72" s="20" t="s">
+      <c r="H72" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="I72" s="20"/>
+      <c r="I72" s="21"/>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4764,10 +4768,10 @@
       <c r="G73" s="8">
         <v>0</v>
       </c>
-      <c r="H73" s="20" t="s">
+      <c r="H73" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="I73" s="20"/>
+      <c r="I73" s="21"/>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4792,10 +4796,10 @@
       <c r="G74" s="8">
         <v>1</v>
       </c>
-      <c r="H74" s="20" t="s">
+      <c r="H74" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I74" s="20"/>
+      <c r="I74" s="21"/>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4820,10 +4824,10 @@
       <c r="G75" s="8">
         <v>0</v>
       </c>
-      <c r="H75" s="20" t="s">
+      <c r="H75" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I75" s="20"/>
+      <c r="I75" s="21"/>
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4848,10 +4852,10 @@
       <c r="G76" s="8">
         <v>0</v>
       </c>
-      <c r="H76" s="20" t="s">
+      <c r="H76" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I76" s="20"/>
+      <c r="I76" s="21"/>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4876,10 +4880,10 @@
       <c r="G77" s="8">
         <v>0</v>
       </c>
-      <c r="H77" s="20" t="s">
+      <c r="H77" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I77" s="20"/>
+      <c r="I77" s="21"/>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4904,10 +4908,10 @@
       <c r="G78" s="8">
         <v>0</v>
       </c>
-      <c r="H78" s="20" t="s">
+      <c r="H78" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I78" s="20"/>
+      <c r="I78" s="21"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4932,10 +4936,10 @@
       <c r="G79" s="8">
         <v>1</v>
       </c>
-      <c r="H79" s="20" t="s">
+      <c r="H79" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I79" s="20"/>
+      <c r="I79" s="21"/>
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4960,10 +4964,10 @@
       <c r="G80" s="8">
         <v>0</v>
       </c>
-      <c r="H80" s="20" t="s">
+      <c r="H80" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I80" s="20"/>
+      <c r="I80" s="21"/>
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4988,10 +4992,10 @@
       <c r="G81" s="8">
         <v>0</v>
       </c>
-      <c r="H81" s="20" t="s">
+      <c r="H81" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I81" s="20"/>
+      <c r="I81" s="21"/>
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5016,10 +5020,10 @@
       <c r="G82" s="8">
         <v>1</v>
       </c>
-      <c r="H82" s="20" t="s">
+      <c r="H82" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I82" s="20"/>
+      <c r="I82" s="21"/>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5044,10 +5048,10 @@
       <c r="G83" s="8">
         <v>0</v>
       </c>
-      <c r="H83" s="20" t="s">
+      <c r="H83" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="I83" s="20"/>
+      <c r="I83" s="21"/>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5072,10 +5076,10 @@
       <c r="G84" s="8">
         <v>0</v>
       </c>
-      <c r="H84" s="20" t="s">
+      <c r="H84" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I84" s="20"/>
+      <c r="I84" s="21"/>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5100,10 +5104,10 @@
       <c r="G85" s="8">
         <v>0</v>
       </c>
-      <c r="H85" s="20" t="s">
+      <c r="H85" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I85" s="20"/>
+      <c r="I85" s="21"/>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5128,10 +5132,10 @@
       <c r="G86" s="8">
         <v>0</v>
       </c>
-      <c r="H86" s="20" t="s">
+      <c r="H86" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I86" s="20"/>
+      <c r="I86" s="21"/>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5154,8 +5158,8 @@
       <c r="G87" s="8">
         <v>0</v>
       </c>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5180,10 +5184,10 @@
       <c r="G88" s="8">
         <v>0</v>
       </c>
-      <c r="H88" s="20" t="s">
+      <c r="H88" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I88" s="20"/>
+      <c r="I88" s="21"/>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5208,10 +5212,10 @@
       <c r="G89" s="8">
         <v>0</v>
       </c>
-      <c r="H89" s="20" t="s">
+      <c r="H89" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I89" s="20"/>
+      <c r="I89" s="21"/>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5236,10 +5240,10 @@
       <c r="G90" s="8">
         <v>0</v>
       </c>
-      <c r="H90" s="20" t="s">
+      <c r="H90" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I90" s="20"/>
+      <c r="I90" s="21"/>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5264,10 +5268,10 @@
       <c r="G91" s="8">
         <v>0</v>
       </c>
-      <c r="H91" s="20" t="s">
+      <c r="H91" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I91" s="20"/>
+      <c r="I91" s="21"/>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5292,10 +5296,10 @@
       <c r="G92" s="8">
         <v>0</v>
       </c>
-      <c r="H92" s="20" t="s">
+      <c r="H92" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I92" s="20"/>
+      <c r="I92" s="21"/>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5320,10 +5324,10 @@
       <c r="G93" s="8">
         <v>0</v>
       </c>
-      <c r="H93" s="20" t="s">
+      <c r="H93" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I93" s="20"/>
+      <c r="I93" s="21"/>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5348,10 +5352,10 @@
       <c r="G94" s="8">
         <v>0</v>
       </c>
-      <c r="H94" s="20" t="s">
+      <c r="H94" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I94" s="20"/>
+      <c r="I94" s="21"/>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5376,10 +5380,10 @@
       <c r="G95" s="8">
         <v>0</v>
       </c>
-      <c r="H95" s="20" t="s">
+      <c r="H95" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I95" s="20"/>
+      <c r="I95" s="21"/>
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5404,10 +5408,10 @@
       <c r="G96" s="8">
         <v>0</v>
       </c>
-      <c r="H96" s="20" t="s">
+      <c r="H96" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I96" s="20"/>
+      <c r="I96" s="21"/>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5432,10 +5436,10 @@
       <c r="G97" s="8">
         <v>0</v>
       </c>
-      <c r="H97" s="20" t="s">
+      <c r="H97" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I97" s="20"/>
+      <c r="I97" s="21"/>
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5460,10 +5464,10 @@
       <c r="G98" s="8">
         <v>0</v>
       </c>
-      <c r="H98" s="20" t="s">
+      <c r="H98" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I98" s="20"/>
+      <c r="I98" s="21"/>
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5488,10 +5492,10 @@
       <c r="G99" s="8">
         <v>2</v>
       </c>
-      <c r="H99" s="20" t="s">
+      <c r="H99" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="I99" s="20"/>
+      <c r="I99" s="21"/>
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5516,10 +5520,10 @@
       <c r="G100" s="8">
         <v>0</v>
       </c>
-      <c r="H100" s="20" t="s">
+      <c r="H100" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I100" s="20"/>
+      <c r="I100" s="21"/>
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5544,10 +5548,10 @@
       <c r="G101" s="8">
         <v>0</v>
       </c>
-      <c r="H101" s="20" t="s">
+      <c r="H101" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="I101" s="20"/>
+      <c r="I101" s="21"/>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5570,8 +5574,8 @@
       <c r="G102" s="8">
         <v>0</v>
       </c>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5596,10 +5600,10 @@
       <c r="G103" s="8">
         <v>0</v>
       </c>
-      <c r="H103" s="20" t="s">
+      <c r="H103" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="I103" s="20"/>
+      <c r="I103" s="21"/>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5624,10 +5628,10 @@
       <c r="G104" s="8">
         <v>0</v>
       </c>
-      <c r="H104" s="20" t="s">
+      <c r="H104" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I104" s="20"/>
+      <c r="I104" s="21"/>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5652,10 +5656,10 @@
       <c r="G105" s="8">
         <v>0</v>
       </c>
-      <c r="H105" s="20" t="s">
+      <c r="H105" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="I105" s="20"/>
+      <c r="I105" s="21"/>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5680,10 +5684,10 @@
       <c r="G106" s="8">
         <v>0</v>
       </c>
-      <c r="H106" s="20" t="s">
+      <c r="H106" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I106" s="20"/>
+      <c r="I106" s="21"/>
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5708,10 +5712,10 @@
       <c r="G107" s="8">
         <v>0</v>
       </c>
-      <c r="H107" s="20" t="s">
+      <c r="H107" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="I107" s="20"/>
+      <c r="I107" s="21"/>
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5734,8 +5738,8 @@
       <c r="G108" s="8">
         <v>0</v>
       </c>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5760,10 +5764,10 @@
       <c r="G109" s="8">
         <v>0</v>
       </c>
-      <c r="H109" s="20" t="s">
+      <c r="H109" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="I109" s="20"/>
+      <c r="I109" s="21"/>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5788,10 +5792,10 @@
       <c r="G110" s="8">
         <v>0</v>
       </c>
-      <c r="H110" s="20" t="s">
+      <c r="H110" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="I110" s="20"/>
+      <c r="I110" s="21"/>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5814,10 +5818,10 @@
       <c r="G111" s="8">
         <v>0</v>
       </c>
-      <c r="H111" s="20" t="s">
+      <c r="H111" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="I111" s="20"/>
+      <c r="I111" s="21"/>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5840,8 +5844,8 @@
       <c r="G112" s="8">
         <v>0</v>
       </c>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5866,10 +5870,10 @@
       <c r="G113" s="8">
         <v>0</v>
       </c>
-      <c r="H113" s="20" t="s">
+      <c r="H113" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I113" s="20"/>
+      <c r="I113" s="21"/>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5892,10 +5896,10 @@
       <c r="G114" s="8">
         <v>0</v>
       </c>
-      <c r="H114" s="20" t="s">
+      <c r="H114" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I114" s="20"/>
+      <c r="I114" s="21"/>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5920,10 +5924,10 @@
       <c r="G115" s="8">
         <v>0</v>
       </c>
-      <c r="H115" s="20" t="s">
+      <c r="H115" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I115" s="20"/>
+      <c r="I115" s="21"/>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5948,10 +5952,10 @@
       <c r="G116" s="8">
         <v>1</v>
       </c>
-      <c r="H116" s="20" t="s">
+      <c r="H116" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I116" s="20"/>
+      <c r="I116" s="21"/>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5974,8 +5978,8 @@
       <c r="G117" s="8">
         <v>0</v>
       </c>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6000,10 +6004,10 @@
       <c r="G118" s="8">
         <v>1</v>
       </c>
-      <c r="H118" s="20" t="s">
+      <c r="H118" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="I118" s="20"/>
+      <c r="I118" s="21"/>
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6026,10 +6030,10 @@
       <c r="G119" s="8">
         <v>0</v>
       </c>
-      <c r="H119" s="20" t="s">
+      <c r="H119" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="I119" s="20"/>
+      <c r="I119" s="21"/>
       <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6054,10 +6058,10 @@
       <c r="G120" s="8">
         <v>0</v>
       </c>
-      <c r="H120" s="20" t="s">
+      <c r="H120" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="I120" s="20"/>
+      <c r="I120" s="21"/>
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6082,10 +6086,10 @@
       <c r="G121" s="8">
         <v>1</v>
       </c>
-      <c r="H121" s="20" t="s">
+      <c r="H121" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="I121" s="20"/>
+      <c r="I121" s="21"/>
       <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6110,10 +6114,10 @@
       <c r="G122" s="8">
         <v>1</v>
       </c>
-      <c r="H122" s="20" t="s">
+      <c r="H122" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I122" s="20"/>
+      <c r="I122" s="21"/>
       <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6136,10 +6140,10 @@
       <c r="G123" s="8">
         <v>0</v>
       </c>
-      <c r="H123" s="20" t="s">
+      <c r="H123" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="I123" s="20"/>
+      <c r="I123" s="21"/>
       <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6164,10 +6168,10 @@
       <c r="G124" s="8">
         <v>0</v>
       </c>
-      <c r="H124" s="20" t="s">
+      <c r="H124" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="I124" s="20"/>
+      <c r="I124" s="21"/>
       <c r="J124" s="3"/>
     </row>
     <row r="125" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6192,10 +6196,10 @@
       <c r="G125" s="8">
         <v>0</v>
       </c>
-      <c r="H125" s="20" t="s">
+      <c r="H125" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I125" s="20"/>
+      <c r="I125" s="21"/>
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6220,10 +6224,10 @@
       <c r="G126" s="8">
         <v>0</v>
       </c>
-      <c r="H126" s="20" t="s">
+      <c r="H126" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="I126" s="20"/>
+      <c r="I126" s="21"/>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6248,10 +6252,10 @@
       <c r="G127" s="8">
         <v>0</v>
       </c>
-      <c r="H127" s="20" t="s">
+      <c r="H127" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="I127" s="20"/>
+      <c r="I127" s="21"/>
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6276,10 +6280,10 @@
       <c r="G128" s="8">
         <v>0</v>
       </c>
-      <c r="H128" s="20" t="s">
+      <c r="H128" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="I128" s="20"/>
+      <c r="I128" s="21"/>
       <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6304,10 +6308,10 @@
       <c r="G129" s="8">
         <v>0</v>
       </c>
-      <c r="H129" s="20" t="s">
+      <c r="H129" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I129" s="20"/>
+      <c r="I129" s="21"/>
       <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6332,10 +6336,10 @@
       <c r="G130" s="8">
         <v>2</v>
       </c>
-      <c r="H130" s="20" t="s">
+      <c r="H130" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I130" s="20"/>
+      <c r="I130" s="21"/>
       <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6358,8 +6362,8 @@
       <c r="G131" s="8">
         <v>0</v>
       </c>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
       <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6384,10 +6388,10 @@
       <c r="G132" s="8">
         <v>2</v>
       </c>
-      <c r="H132" s="20" t="s">
+      <c r="H132" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="I132" s="20"/>
+      <c r="I132" s="21"/>
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6410,8 +6414,8 @@
       <c r="G133" s="8">
         <v>0</v>
       </c>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
       <c r="J133" s="3"/>
     </row>
     <row r="134" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6434,8 +6438,8 @@
       <c r="G134" s="8">
         <v>0</v>
       </c>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
       <c r="J134" s="3"/>
     </row>
     <row r="135" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6458,8 +6462,8 @@
       <c r="G135" s="8">
         <v>0</v>
       </c>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6484,10 +6488,10 @@
       <c r="G136" s="8">
         <v>0</v>
       </c>
-      <c r="H136" s="20" t="s">
+      <c r="H136" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I136" s="20"/>
+      <c r="I136" s="21"/>
       <c r="J136" s="3"/>
     </row>
     <row r="137" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6512,10 +6516,10 @@
       <c r="G137" s="8">
         <v>0</v>
       </c>
-      <c r="H137" s="20" t="s">
+      <c r="H137" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="I137" s="20"/>
+      <c r="I137" s="21"/>
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6540,10 +6544,10 @@
       <c r="G138" s="8">
         <v>0</v>
       </c>
-      <c r="H138" s="20" t="s">
+      <c r="H138" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="I138" s="20"/>
+      <c r="I138" s="21"/>
       <c r="J138" s="3"/>
     </row>
     <row r="139" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6568,10 +6572,10 @@
       <c r="G139" s="8">
         <v>0</v>
       </c>
-      <c r="H139" s="20" t="s">
+      <c r="H139" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I139" s="20"/>
+      <c r="I139" s="21"/>
       <c r="J139" s="3"/>
     </row>
     <row r="140" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6596,10 +6600,10 @@
       <c r="G140" s="8">
         <v>0</v>
       </c>
-      <c r="H140" s="20" t="s">
+      <c r="H140" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I140" s="20"/>
+      <c r="I140" s="21"/>
       <c r="J140" s="3"/>
     </row>
     <row r="141" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6624,10 +6628,10 @@
       <c r="G141" s="8">
         <v>0</v>
       </c>
-      <c r="H141" s="20" t="s">
+      <c r="H141" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I141" s="20"/>
+      <c r="I141" s="21"/>
       <c r="J141" s="3"/>
     </row>
     <row r="142" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6652,10 +6656,10 @@
       <c r="G142" s="8">
         <v>0</v>
       </c>
-      <c r="H142" s="20" t="s">
+      <c r="H142" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="I142" s="20"/>
+      <c r="I142" s="21"/>
       <c r="J142" s="3"/>
     </row>
     <row r="143" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6680,10 +6684,10 @@
       <c r="G143" s="8">
         <v>0</v>
       </c>
-      <c r="H143" s="20" t="s">
+      <c r="H143" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I143" s="20"/>
+      <c r="I143" s="21"/>
       <c r="J143" s="3"/>
     </row>
     <row r="144" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6706,10 +6710,10 @@
       <c r="G144" s="8">
         <v>0</v>
       </c>
-      <c r="H144" s="20" t="s">
+      <c r="H144" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="I144" s="20"/>
+      <c r="I144" s="21"/>
       <c r="J144" s="3"/>
     </row>
     <row r="145" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6734,10 +6738,10 @@
       <c r="G145" s="8">
         <v>0</v>
       </c>
-      <c r="H145" s="20" t="s">
+      <c r="H145" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="I145" s="20"/>
+      <c r="I145" s="21"/>
       <c r="J145" s="3"/>
     </row>
     <row r="146" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6762,10 +6766,10 @@
       <c r="G146" s="8">
         <v>0</v>
       </c>
-      <c r="H146" s="20" t="s">
+      <c r="H146" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I146" s="20"/>
+      <c r="I146" s="21"/>
       <c r="J146" s="3"/>
     </row>
     <row r="147" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6790,10 +6794,10 @@
       <c r="G147" s="8">
         <v>0</v>
       </c>
-      <c r="H147" s="20" t="s">
+      <c r="H147" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="I147" s="20"/>
+      <c r="I147" s="21"/>
       <c r="J147" s="3"/>
     </row>
     <row r="148" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6818,10 +6822,10 @@
       <c r="G148" s="8">
         <v>0</v>
       </c>
-      <c r="H148" s="20" t="s">
+      <c r="H148" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="I148" s="20"/>
+      <c r="I148" s="21"/>
       <c r="J148" s="3"/>
     </row>
     <row r="149" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6846,10 +6850,10 @@
       <c r="G149" s="8">
         <v>1</v>
       </c>
-      <c r="H149" s="20" t="s">
+      <c r="H149" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="I149" s="20"/>
+      <c r="I149" s="21"/>
       <c r="J149" s="3"/>
     </row>
     <row r="150" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6874,10 +6878,10 @@
       <c r="G150" s="8">
         <v>1</v>
       </c>
-      <c r="H150" s="20" t="s">
+      <c r="H150" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I150" s="20"/>
+      <c r="I150" s="21"/>
       <c r="J150" s="3"/>
     </row>
     <row r="151" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6902,10 +6906,10 @@
       <c r="G151" s="8">
         <v>1</v>
       </c>
-      <c r="H151" s="20" t="s">
+      <c r="H151" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="I151" s="20"/>
+      <c r="I151" s="21"/>
       <c r="J151" s="3"/>
     </row>
     <row r="152" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6930,10 +6934,10 @@
       <c r="G152" s="8">
         <v>0</v>
       </c>
-      <c r="H152" s="20" t="s">
+      <c r="H152" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I152" s="20"/>
+      <c r="I152" s="21"/>
       <c r="J152" s="3"/>
     </row>
     <row r="153" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6958,10 +6962,10 @@
       <c r="G153" s="8">
         <v>0</v>
       </c>
-      <c r="H153" s="20" t="s">
+      <c r="H153" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="I153" s="20"/>
+      <c r="I153" s="21"/>
       <c r="J153" s="3"/>
     </row>
     <row r="154" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6986,10 +6990,10 @@
       <c r="G154" s="8">
         <v>0</v>
       </c>
-      <c r="H154" s="20" t="s">
+      <c r="H154" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="I154" s="20"/>
+      <c r="I154" s="21"/>
       <c r="J154" s="3"/>
     </row>
     <row r="155" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7014,10 +7018,10 @@
       <c r="G155" s="8">
         <v>0</v>
       </c>
-      <c r="H155" s="20" t="s">
+      <c r="H155" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="I155" s="20"/>
+      <c r="I155" s="21"/>
       <c r="J155" s="3"/>
     </row>
     <row r="156" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7042,10 +7046,10 @@
       <c r="G156" s="8">
         <v>0</v>
       </c>
-      <c r="H156" s="20" t="s">
+      <c r="H156" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I156" s="20"/>
+      <c r="I156" s="21"/>
       <c r="J156" s="3"/>
     </row>
     <row r="157" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7070,10 +7074,10 @@
       <c r="G157" s="8">
         <v>0</v>
       </c>
-      <c r="H157" s="20" t="s">
+      <c r="H157" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="I157" s="20"/>
+      <c r="I157" s="21"/>
       <c r="J157" s="3"/>
     </row>
     <row r="158" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7098,10 +7102,10 @@
       <c r="G158" s="8">
         <v>0</v>
       </c>
-      <c r="H158" s="20" t="s">
+      <c r="H158" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="I158" s="20"/>
+      <c r="I158" s="21"/>
       <c r="J158" s="3"/>
     </row>
     <row r="159" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7126,10 +7130,10 @@
       <c r="G159" s="8">
         <v>0</v>
       </c>
-      <c r="H159" s="20" t="s">
+      <c r="H159" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="I159" s="20"/>
+      <c r="I159" s="21"/>
       <c r="J159" s="3"/>
     </row>
     <row r="160" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7154,10 +7158,10 @@
       <c r="G160" s="8">
         <v>0</v>
       </c>
-      <c r="H160" s="20" t="s">
+      <c r="H160" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="I160" s="20"/>
+      <c r="I160" s="21"/>
       <c r="J160" s="3"/>
     </row>
     <row r="161" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7182,10 +7186,10 @@
       <c r="G161" s="8">
         <v>0</v>
       </c>
-      <c r="H161" s="20" t="s">
+      <c r="H161" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="I161" s="20"/>
+      <c r="I161" s="21"/>
       <c r="J161" s="3"/>
     </row>
     <row r="162" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7208,10 +7212,10 @@
       <c r="G162" s="8">
         <v>0</v>
       </c>
-      <c r="H162" s="20" t="s">
+      <c r="H162" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="I162" s="20"/>
+      <c r="I162" s="21"/>
       <c r="J162" s="3"/>
     </row>
     <row r="163" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7234,10 +7238,10 @@
       <c r="G163" s="8">
         <v>0</v>
       </c>
-      <c r="H163" s="20" t="s">
+      <c r="H163" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I163" s="20"/>
+      <c r="I163" s="21"/>
       <c r="J163" s="3"/>
     </row>
     <row r="164" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7262,10 +7266,10 @@
       <c r="G164" s="8">
         <v>0</v>
       </c>
-      <c r="H164" s="20" t="s">
+      <c r="H164" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="I164" s="20"/>
+      <c r="I164" s="21"/>
       <c r="J164" s="3"/>
     </row>
     <row r="165" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7290,10 +7294,10 @@
       <c r="G165" s="8">
         <v>1</v>
       </c>
-      <c r="H165" s="20" t="s">
+      <c r="H165" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I165" s="20"/>
+      <c r="I165" s="21"/>
       <c r="J165" s="3"/>
     </row>
     <row r="166" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7318,10 +7322,10 @@
       <c r="G166" s="8">
         <v>1</v>
       </c>
-      <c r="H166" s="20" t="s">
+      <c r="H166" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="I166" s="20"/>
+      <c r="I166" s="21"/>
       <c r="J166" s="3"/>
     </row>
     <row r="167" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7346,10 +7350,10 @@
       <c r="G167" s="8">
         <v>0</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="H167" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I167" s="20"/>
+      <c r="I167" s="21"/>
       <c r="J167" s="3"/>
     </row>
     <row r="168" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7374,10 +7378,10 @@
       <c r="G168" s="8">
         <v>0</v>
       </c>
-      <c r="H168" s="20" t="s">
+      <c r="H168" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I168" s="20"/>
+      <c r="I168" s="21"/>
       <c r="J168" s="3"/>
     </row>
     <row r="169" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7402,10 +7406,10 @@
       <c r="G169" s="8">
         <v>0</v>
       </c>
-      <c r="H169" s="20" t="s">
+      <c r="H169" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I169" s="20"/>
+      <c r="I169" s="21"/>
       <c r="J169" s="3"/>
     </row>
     <row r="170" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7430,10 +7434,10 @@
       <c r="G170" s="8">
         <v>0</v>
       </c>
-      <c r="H170" s="20" t="s">
+      <c r="H170" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I170" s="20"/>
+      <c r="I170" s="21"/>
       <c r="J170" s="3"/>
     </row>
     <row r="171" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7458,10 +7462,10 @@
       <c r="G171" s="8">
         <v>0</v>
       </c>
-      <c r="H171" s="20" t="s">
+      <c r="H171" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I171" s="20"/>
+      <c r="I171" s="21"/>
       <c r="J171" s="3"/>
     </row>
     <row r="172" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7486,10 +7490,10 @@
       <c r="G172" s="8">
         <v>0</v>
       </c>
-      <c r="H172" s="20" t="s">
+      <c r="H172" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="I172" s="20"/>
+      <c r="I172" s="21"/>
       <c r="J172" s="3"/>
     </row>
     <row r="173" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7512,10 +7516,10 @@
       <c r="G173" s="8">
         <v>0</v>
       </c>
-      <c r="H173" s="20" t="s">
+      <c r="H173" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I173" s="20"/>
+      <c r="I173" s="21"/>
       <c r="J173" s="3"/>
     </row>
     <row r="174" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7538,8 +7542,8 @@
       <c r="G174" s="8">
         <v>0</v>
       </c>
-      <c r="H174" s="20"/>
-      <c r="I174" s="20"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="21"/>
       <c r="J174" s="3"/>
     </row>
     <row r="175" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7562,8 +7566,8 @@
       <c r="G175" s="8">
         <v>0</v>
       </c>
-      <c r="H175" s="20"/>
-      <c r="I175" s="20"/>
+      <c r="H175" s="21"/>
+      <c r="I175" s="21"/>
       <c r="J175" s="3"/>
     </row>
     <row r="176" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7586,8 +7590,8 @@
       <c r="G176" s="8">
         <v>0</v>
       </c>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="21"/>
       <c r="J176" s="3"/>
     </row>
     <row r="177" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7610,8 +7614,8 @@
       <c r="G177" s="8">
         <v>0</v>
       </c>
-      <c r="H177" s="20"/>
-      <c r="I177" s="20"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="21"/>
       <c r="J177" s="3"/>
     </row>
     <row r="178" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7634,8 +7638,8 @@
       <c r="G178" s="8">
         <v>0</v>
       </c>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
       <c r="J178" s="3"/>
     </row>
     <row r="179" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7658,8 +7662,8 @@
       <c r="G179" s="8">
         <v>0</v>
       </c>
-      <c r="H179" s="20"/>
-      <c r="I179" s="20"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="21"/>
       <c r="J179" s="3"/>
     </row>
     <row r="180" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7682,8 +7686,8 @@
       <c r="G180" s="8">
         <v>0</v>
       </c>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="21"/>
       <c r="J180" s="3"/>
     </row>
     <row r="181" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7706,8 +7710,8 @@
       <c r="G181" s="8">
         <v>0</v>
       </c>
-      <c r="H181" s="20"/>
-      <c r="I181" s="20"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="21"/>
       <c r="J181" s="3"/>
     </row>
     <row r="182" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7730,8 +7734,8 @@
       <c r="G182" s="8">
         <v>0</v>
       </c>
-      <c r="H182" s="20"/>
-      <c r="I182" s="20"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
       <c r="J182" s="3"/>
     </row>
     <row r="183" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7754,8 +7758,8 @@
       <c r="G183" s="8">
         <v>0</v>
       </c>
-      <c r="H183" s="20"/>
-      <c r="I183" s="20"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="21"/>
       <c r="J183" s="3"/>
     </row>
     <row r="184" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7778,8 +7782,8 @@
       <c r="G184" s="8">
         <v>0</v>
       </c>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="21"/>
       <c r="J184" s="3"/>
     </row>
     <row r="185" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7802,8 +7806,8 @@
       <c r="G185" s="8">
         <v>0</v>
       </c>
-      <c r="H185" s="20"/>
-      <c r="I185" s="20"/>
+      <c r="H185" s="21"/>
+      <c r="I185" s="21"/>
       <c r="J185" s="3"/>
     </row>
     <row r="186" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7826,8 +7830,8 @@
       <c r="G186" s="8">
         <v>0</v>
       </c>
-      <c r="H186" s="20"/>
-      <c r="I186" s="20"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="21"/>
       <c r="J186" s="3"/>
     </row>
     <row r="187" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7850,8 +7854,8 @@
       <c r="G187" s="8">
         <v>0</v>
       </c>
-      <c r="H187" s="20"/>
-      <c r="I187" s="20"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="21"/>
       <c r="J187" s="3"/>
     </row>
     <row r="188" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7874,8 +7878,8 @@
       <c r="G188" s="8">
         <v>0</v>
       </c>
-      <c r="H188" s="20"/>
-      <c r="I188" s="20"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="21"/>
       <c r="J188" s="3"/>
     </row>
     <row r="189" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7898,8 +7902,8 @@
       <c r="G189" s="8">
         <v>0</v>
       </c>
-      <c r="H189" s="20"/>
-      <c r="I189" s="20"/>
+      <c r="H189" s="21"/>
+      <c r="I189" s="21"/>
       <c r="J189" s="3"/>
     </row>
     <row r="190" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7922,8 +7926,8 @@
       <c r="G190" s="8">
         <v>0</v>
       </c>
-      <c r="H190" s="20"/>
-      <c r="I190" s="20"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="21"/>
       <c r="J190" s="3"/>
     </row>
     <row r="191" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7946,8 +7950,8 @@
       <c r="G191" s="8">
         <v>0</v>
       </c>
-      <c r="H191" s="20"/>
-      <c r="I191" s="20"/>
+      <c r="H191" s="21"/>
+      <c r="I191" s="21"/>
       <c r="J191" s="3"/>
     </row>
     <row r="192" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7970,8 +7974,8 @@
       <c r="G192" s="8">
         <v>0</v>
       </c>
-      <c r="H192" s="20"/>
-      <c r="I192" s="20"/>
+      <c r="H192" s="21"/>
+      <c r="I192" s="21"/>
       <c r="J192" s="3"/>
     </row>
     <row r="193" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7994,8 +7998,8 @@
       <c r="G193" s="8">
         <v>0</v>
       </c>
-      <c r="H193" s="20"/>
-      <c r="I193" s="20"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="21"/>
       <c r="J193" s="3"/>
     </row>
     <row r="194" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8018,8 +8022,8 @@
       <c r="G194" s="8">
         <v>0</v>
       </c>
-      <c r="H194" s="20"/>
-      <c r="I194" s="20"/>
+      <c r="H194" s="21"/>
+      <c r="I194" s="21"/>
       <c r="J194" s="3"/>
     </row>
     <row r="195" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8042,8 +8046,8 @@
       <c r="G195" s="8">
         <v>0</v>
       </c>
-      <c r="H195" s="20"/>
-      <c r="I195" s="20"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="21"/>
       <c r="J195" s="3"/>
     </row>
     <row r="196" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8066,8 +8070,8 @@
       <c r="G196" s="8">
         <v>0</v>
       </c>
-      <c r="H196" s="20"/>
-      <c r="I196" s="20"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="21"/>
       <c r="J196" s="3"/>
     </row>
     <row r="197" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8090,8 +8094,8 @@
       <c r="G197" s="8">
         <v>0</v>
       </c>
-      <c r="H197" s="20"/>
-      <c r="I197" s="20"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="21"/>
       <c r="J197" s="3"/>
     </row>
     <row r="198" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8114,8 +8118,8 @@
       <c r="G198" s="8">
         <v>0</v>
       </c>
-      <c r="H198" s="20"/>
-      <c r="I198" s="20"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="21"/>
       <c r="J198" s="3"/>
     </row>
     <row r="199" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8138,8 +8142,8 @@
       <c r="G199" s="8">
         <v>0</v>
       </c>
-      <c r="H199" s="20"/>
-      <c r="I199" s="20"/>
+      <c r="H199" s="21"/>
+      <c r="I199" s="21"/>
       <c r="J199" s="3"/>
     </row>
     <row r="200" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8162,8 +8166,8 @@
       <c r="G200" s="8">
         <v>0</v>
       </c>
-      <c r="H200" s="20"/>
-      <c r="I200" s="20"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="21"/>
       <c r="J200" s="3"/>
     </row>
     <row r="201" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8186,8 +8190,8 @@
       <c r="G201" s="8">
         <v>0</v>
       </c>
-      <c r="H201" s="20"/>
-      <c r="I201" s="20"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
       <c r="J201" s="3"/>
     </row>
     <row r="202" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8210,8 +8214,8 @@
       <c r="G202" s="8">
         <v>0</v>
       </c>
-      <c r="H202" s="20"/>
-      <c r="I202" s="20"/>
+      <c r="H202" s="21"/>
+      <c r="I202" s="21"/>
       <c r="J202" s="3"/>
     </row>
     <row r="203" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8234,8 +8238,8 @@
       <c r="G203" s="8">
         <v>0</v>
       </c>
-      <c r="H203" s="20"/>
-      <c r="I203" s="20"/>
+      <c r="H203" s="21"/>
+      <c r="I203" s="21"/>
       <c r="J203" s="3"/>
     </row>
     <row r="204" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8258,8 +8262,8 @@
       <c r="G204" s="8">
         <v>0</v>
       </c>
-      <c r="H204" s="20"/>
-      <c r="I204" s="20"/>
+      <c r="H204" s="21"/>
+      <c r="I204" s="21"/>
       <c r="J204" s="3"/>
     </row>
     <row r="205" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8282,8 +8286,8 @@
       <c r="G205" s="8">
         <v>0</v>
       </c>
-      <c r="H205" s="20"/>
-      <c r="I205" s="20"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
       <c r="J205" s="3"/>
     </row>
     <row r="206" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8306,8 +8310,8 @@
       <c r="G206" s="8">
         <v>0</v>
       </c>
-      <c r="H206" s="20"/>
-      <c r="I206" s="20"/>
+      <c r="H206" s="21"/>
+      <c r="I206" s="21"/>
       <c r="J206" s="3"/>
     </row>
     <row r="207" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8330,8 +8334,8 @@
       <c r="G207" s="8">
         <v>0</v>
       </c>
-      <c r="H207" s="20"/>
-      <c r="I207" s="20"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
       <c r="J207" s="3"/>
     </row>
     <row r="208" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8354,8 +8358,8 @@
       <c r="G208" s="8">
         <v>0</v>
       </c>
-      <c r="H208" s="20"/>
-      <c r="I208" s="20"/>
+      <c r="H208" s="21"/>
+      <c r="I208" s="21"/>
       <c r="J208" s="3"/>
     </row>
     <row r="209" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8378,8 +8382,8 @@
       <c r="G209" s="8">
         <v>0</v>
       </c>
-      <c r="H209" s="20"/>
-      <c r="I209" s="20"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
       <c r="J209" s="3"/>
     </row>
     <row r="210" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8402,8 +8406,8 @@
       <c r="G210" s="8">
         <v>0</v>
       </c>
-      <c r="H210" s="20"/>
-      <c r="I210" s="20"/>
+      <c r="H210" s="21"/>
+      <c r="I210" s="21"/>
       <c r="J210" s="3"/>
     </row>
     <row r="211" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8426,8 +8430,8 @@
       <c r="G211" s="8">
         <v>0</v>
       </c>
-      <c r="H211" s="20"/>
-      <c r="I211" s="20"/>
+      <c r="H211" s="21"/>
+      <c r="I211" s="21"/>
       <c r="J211" s="3"/>
     </row>
     <row r="212" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8450,8 +8454,8 @@
       <c r="G212" s="8">
         <v>0</v>
       </c>
-      <c r="H212" s="20"/>
-      <c r="I212" s="20"/>
+      <c r="H212" s="21"/>
+      <c r="I212" s="21"/>
       <c r="J212" s="3"/>
     </row>
     <row r="213" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8474,8 +8478,8 @@
       <c r="G213" s="8">
         <v>0</v>
       </c>
-      <c r="H213" s="20"/>
-      <c r="I213" s="20"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="21"/>
       <c r="J213" s="3"/>
     </row>
     <row r="214" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8498,8 +8502,8 @@
       <c r="G214" s="8">
         <v>0</v>
       </c>
-      <c r="H214" s="20"/>
-      <c r="I214" s="20"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="21"/>
       <c r="J214" s="3"/>
     </row>
     <row r="215" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8524,10 +8528,10 @@
       <c r="G215" s="8">
         <v>0</v>
       </c>
-      <c r="H215" s="20" t="s">
+      <c r="H215" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I215" s="20"/>
+      <c r="I215" s="21"/>
       <c r="J215" s="3"/>
     </row>
     <row r="216" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8552,10 +8556,10 @@
       <c r="G216" s="8">
         <v>0</v>
       </c>
-      <c r="H216" s="20" t="s">
+      <c r="H216" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I216" s="20"/>
+      <c r="I216" s="21"/>
       <c r="J216" s="3"/>
     </row>
     <row r="217" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8580,10 +8584,10 @@
       <c r="G217" s="8">
         <v>0</v>
       </c>
-      <c r="H217" s="20" t="s">
+      <c r="H217" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I217" s="20"/>
+      <c r="I217" s="21"/>
       <c r="J217" s="3"/>
     </row>
     <row r="218" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8608,10 +8612,10 @@
       <c r="G218" s="8">
         <v>0</v>
       </c>
-      <c r="H218" s="20" t="s">
+      <c r="H218" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I218" s="20"/>
+      <c r="I218" s="21"/>
       <c r="J218" s="3"/>
     </row>
     <row r="219" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8636,10 +8640,10 @@
       <c r="G219" s="8">
         <v>0</v>
       </c>
-      <c r="H219" s="20" t="s">
+      <c r="H219" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I219" s="20"/>
+      <c r="I219" s="21"/>
       <c r="J219" s="3"/>
     </row>
     <row r="220" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8664,10 +8668,10 @@
       <c r="G220" s="8">
         <v>0</v>
       </c>
-      <c r="H220" s="20" t="s">
+      <c r="H220" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I220" s="20"/>
+      <c r="I220" s="21"/>
       <c r="J220" s="3"/>
     </row>
     <row r="221" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8692,10 +8696,10 @@
       <c r="G221" s="8">
         <v>0</v>
       </c>
-      <c r="H221" s="20" t="s">
+      <c r="H221" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I221" s="20"/>
+      <c r="I221" s="21"/>
       <c r="J221" s="3"/>
     </row>
     <row r="222" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8720,10 +8724,10 @@
       <c r="G222" s="8">
         <v>0</v>
       </c>
-      <c r="H222" s="20" t="s">
+      <c r="H222" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I222" s="20"/>
+      <c r="I222" s="21"/>
       <c r="J222" s="3"/>
     </row>
     <row r="223" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8748,10 +8752,10 @@
       <c r="G223" s="8">
         <v>0</v>
       </c>
-      <c r="H223" s="20" t="s">
+      <c r="H223" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I223" s="20"/>
+      <c r="I223" s="21"/>
       <c r="J223" s="3"/>
     </row>
     <row r="224" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8776,10 +8780,10 @@
       <c r="G224" s="8">
         <v>0</v>
       </c>
-      <c r="H224" s="20" t="s">
+      <c r="H224" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I224" s="20"/>
+      <c r="I224" s="21"/>
       <c r="J224" s="3"/>
     </row>
     <row r="225" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8804,10 +8808,10 @@
       <c r="G225" s="8">
         <v>0</v>
       </c>
-      <c r="H225" s="20" t="s">
+      <c r="H225" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I225" s="20"/>
+      <c r="I225" s="21"/>
       <c r="J225" s="3"/>
     </row>
     <row r="226" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8832,10 +8836,10 @@
       <c r="G226" s="8">
         <v>0</v>
       </c>
-      <c r="H226" s="20" t="s">
+      <c r="H226" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="I226" s="20"/>
+      <c r="I226" s="21"/>
       <c r="J226" s="3"/>
     </row>
     <row r="227" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8860,10 +8864,10 @@
       <c r="G227" s="8">
         <v>0</v>
       </c>
-      <c r="H227" s="20" t="s">
+      <c r="H227" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="I227" s="20"/>
+      <c r="I227" s="21"/>
       <c r="J227" s="3"/>
     </row>
     <row r="228" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8888,10 +8892,10 @@
       <c r="G228" s="8">
         <v>0</v>
       </c>
-      <c r="H228" s="20" t="s">
+      <c r="H228" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="I228" s="20"/>
+      <c r="I228" s="21"/>
       <c r="J228" s="3"/>
     </row>
     <row r="229" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8916,10 +8920,10 @@
       <c r="G229" s="8">
         <v>0</v>
       </c>
-      <c r="H229" s="20" t="s">
+      <c r="H229" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="I229" s="20"/>
+      <c r="I229" s="21"/>
       <c r="J229" s="3"/>
     </row>
     <row r="230" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8942,10 +8946,10 @@
       <c r="G230" s="8">
         <v>0</v>
       </c>
-      <c r="H230" s="20" t="s">
+      <c r="H230" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I230" s="20"/>
+      <c r="I230" s="21"/>
       <c r="J230" s="3"/>
     </row>
     <row r="231" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8970,10 +8974,10 @@
       <c r="G231" s="8">
         <v>0</v>
       </c>
-      <c r="H231" s="20" t="s">
+      <c r="H231" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="I231" s="20"/>
+      <c r="I231" s="21"/>
       <c r="J231" s="3"/>
     </row>
     <row r="232" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8998,10 +9002,10 @@
       <c r="G232" s="8">
         <v>0</v>
       </c>
-      <c r="H232" s="20" t="s">
+      <c r="H232" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="I232" s="20"/>
+      <c r="I232" s="21"/>
       <c r="J232" s="3"/>
     </row>
     <row r="233" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9026,10 +9030,10 @@
       <c r="G233" s="8">
         <v>0</v>
       </c>
-      <c r="H233" s="20" t="s">
+      <c r="H233" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I233" s="20"/>
+      <c r="I233" s="21"/>
       <c r="J233" s="3"/>
     </row>
     <row r="234" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9054,10 +9058,10 @@
       <c r="G234" s="8">
         <v>0</v>
       </c>
-      <c r="H234" s="20" t="s">
+      <c r="H234" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I234" s="20"/>
+      <c r="I234" s="21"/>
       <c r="J234" s="3"/>
     </row>
     <row r="235" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9082,10 +9086,10 @@
       <c r="G235" s="8">
         <v>0</v>
       </c>
-      <c r="H235" s="20" t="s">
+      <c r="H235" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I235" s="20"/>
+      <c r="I235" s="21"/>
       <c r="J235" s="3"/>
     </row>
     <row r="236" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9110,10 +9114,10 @@
       <c r="G236" s="8">
         <v>1</v>
       </c>
-      <c r="H236" s="20" t="s">
+      <c r="H236" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I236" s="20"/>
+      <c r="I236" s="21"/>
       <c r="J236" s="3"/>
     </row>
     <row r="237" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9138,10 +9142,10 @@
       <c r="G237" s="8">
         <v>0</v>
       </c>
-      <c r="H237" s="20" t="s">
+      <c r="H237" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I237" s="20"/>
+      <c r="I237" s="21"/>
       <c r="J237" s="3"/>
     </row>
     <row r="238" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9166,10 +9170,10 @@
       <c r="G238" s="8">
         <v>0</v>
       </c>
-      <c r="H238" s="20" t="s">
+      <c r="H238" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I238" s="20"/>
+      <c r="I238" s="21"/>
       <c r="J238" s="3"/>
     </row>
     <row r="239" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9194,10 +9198,10 @@
       <c r="G239" s="8">
         <v>0</v>
       </c>
-      <c r="H239" s="20" t="s">
+      <c r="H239" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I239" s="20"/>
+      <c r="I239" s="21"/>
       <c r="J239" s="3"/>
     </row>
     <row r="240" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9222,10 +9226,10 @@
       <c r="G240" s="8">
         <v>0</v>
       </c>
-      <c r="H240" s="20" t="s">
+      <c r="H240" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="I240" s="20"/>
+      <c r="I240" s="21"/>
       <c r="J240" s="3"/>
     </row>
     <row r="241" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9250,10 +9254,10 @@
       <c r="G241" s="8">
         <v>0</v>
       </c>
-      <c r="H241" s="20" t="s">
+      <c r="H241" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="I241" s="20"/>
+      <c r="I241" s="21"/>
       <c r="J241" s="3"/>
     </row>
     <row r="242" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9276,10 +9280,10 @@
       <c r="G242" s="8">
         <v>0</v>
       </c>
-      <c r="H242" s="20" t="s">
+      <c r="H242" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I242" s="20"/>
+      <c r="I242" s="21"/>
       <c r="J242" s="3"/>
     </row>
     <row r="243" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9304,10 +9308,10 @@
       <c r="G243" s="8">
         <v>0</v>
       </c>
-      <c r="H243" s="20" t="s">
+      <c r="H243" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="I243" s="20"/>
+      <c r="I243" s="21"/>
       <c r="J243" s="3"/>
     </row>
     <row r="244" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9332,10 +9336,10 @@
       <c r="G244" s="8">
         <v>0</v>
       </c>
-      <c r="H244" s="20" t="s">
+      <c r="H244" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="I244" s="20"/>
+      <c r="I244" s="21"/>
       <c r="J244" s="3"/>
     </row>
     <row r="245" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9360,10 +9364,10 @@
       <c r="G245" s="8">
         <v>0</v>
       </c>
-      <c r="H245" s="20" t="s">
+      <c r="H245" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="I245" s="20"/>
+      <c r="I245" s="21"/>
       <c r="J245" s="3"/>
     </row>
     <row r="246" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9388,10 +9392,10 @@
       <c r="G246" s="8">
         <v>0</v>
       </c>
-      <c r="H246" s="20" t="s">
+      <c r="H246" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I246" s="20"/>
+      <c r="I246" s="21"/>
       <c r="J246" s="3"/>
     </row>
     <row r="247" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9416,10 +9420,10 @@
       <c r="G247" s="8">
         <v>0</v>
       </c>
-      <c r="H247" s="20" t="s">
+      <c r="H247" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I247" s="20"/>
+      <c r="I247" s="21"/>
       <c r="J247" s="3"/>
     </row>
     <row r="248" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9444,10 +9448,10 @@
       <c r="G248" s="8">
         <v>0</v>
       </c>
-      <c r="H248" s="20" t="s">
+      <c r="H248" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="I248" s="20"/>
+      <c r="I248" s="21"/>
       <c r="J248" s="3"/>
     </row>
     <row r="249" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9472,10 +9476,10 @@
       <c r="G249" s="8">
         <v>0</v>
       </c>
-      <c r="H249" s="20" t="s">
+      <c r="H249" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I249" s="20"/>
+      <c r="I249" s="21"/>
       <c r="J249" s="3"/>
     </row>
     <row r="250" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9500,10 +9504,10 @@
       <c r="G250" s="8">
         <v>0</v>
       </c>
-      <c r="H250" s="20" t="s">
+      <c r="H250" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I250" s="20"/>
+      <c r="I250" s="21"/>
       <c r="J250" s="3"/>
     </row>
     <row r="251" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9528,10 +9532,10 @@
       <c r="G251" s="8">
         <v>0</v>
       </c>
-      <c r="H251" s="20" t="s">
+      <c r="H251" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="I251" s="20"/>
+      <c r="I251" s="21"/>
       <c r="J251" s="3"/>
     </row>
     <row r="252" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9554,8 +9558,8 @@
       <c r="G252" s="8">
         <v>0</v>
       </c>
-      <c r="H252" s="20"/>
-      <c r="I252" s="20"/>
+      <c r="H252" s="21"/>
+      <c r="I252" s="21"/>
       <c r="J252" s="3"/>
     </row>
     <row r="253" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9580,10 +9584,10 @@
       <c r="G253" s="8">
         <v>0</v>
       </c>
-      <c r="H253" s="20" t="s">
+      <c r="H253" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="I253" s="20"/>
+      <c r="I253" s="21"/>
       <c r="J253" s="3"/>
     </row>
     <row r="254" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9608,10 +9612,10 @@
       <c r="G254" s="8">
         <v>0</v>
       </c>
-      <c r="H254" s="20" t="s">
+      <c r="H254" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="I254" s="20"/>
+      <c r="I254" s="21"/>
       <c r="J254" s="3"/>
     </row>
     <row r="255" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9636,10 +9640,10 @@
       <c r="G255" s="8">
         <v>0</v>
       </c>
-      <c r="H255" s="20" t="s">
+      <c r="H255" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="I255" s="20"/>
+      <c r="I255" s="21"/>
       <c r="J255" s="3"/>
     </row>
     <row r="256" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9664,10 +9668,10 @@
       <c r="G256" s="8">
         <v>0</v>
       </c>
-      <c r="H256" s="20" t="s">
+      <c r="H256" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="I256" s="20"/>
+      <c r="I256" s="21"/>
       <c r="J256" s="3"/>
     </row>
     <row r="257" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9692,10 +9696,10 @@
       <c r="G257" s="8">
         <v>0</v>
       </c>
-      <c r="H257" s="20" t="s">
+      <c r="H257" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I257" s="20"/>
+      <c r="I257" s="21"/>
       <c r="J257" s="3"/>
     </row>
     <row r="258" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9720,10 +9724,10 @@
       <c r="G258" s="8">
         <v>0</v>
       </c>
-      <c r="H258" s="20" t="s">
+      <c r="H258" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I258" s="20"/>
+      <c r="I258" s="21"/>
       <c r="J258" s="3"/>
     </row>
     <row r="259" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9748,10 +9752,10 @@
       <c r="G259" s="8">
         <v>0</v>
       </c>
-      <c r="H259" s="20" t="s">
+      <c r="H259" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I259" s="20"/>
+      <c r="I259" s="21"/>
       <c r="J259" s="3"/>
     </row>
     <row r="260" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9774,10 +9778,10 @@
       <c r="G260" s="8">
         <v>0</v>
       </c>
-      <c r="H260" s="20" t="s">
+      <c r="H260" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I260" s="20"/>
+      <c r="I260" s="21"/>
       <c r="J260" s="3"/>
     </row>
     <row r="261" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9802,10 +9806,10 @@
       <c r="G261" s="8">
         <v>0</v>
       </c>
-      <c r="H261" s="20" t="s">
+      <c r="H261" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I261" s="20"/>
+      <c r="I261" s="21"/>
       <c r="J261" s="3"/>
     </row>
     <row r="262" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9830,10 +9834,10 @@
       <c r="G262" s="8">
         <v>0</v>
       </c>
-      <c r="H262" s="20" t="s">
+      <c r="H262" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I262" s="20"/>
+      <c r="I262" s="21"/>
       <c r="J262" s="3"/>
     </row>
     <row r="263" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9858,10 +9862,10 @@
       <c r="G263" s="8">
         <v>0</v>
       </c>
-      <c r="H263" s="20" t="s">
+      <c r="H263" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I263" s="20"/>
+      <c r="I263" s="21"/>
       <c r="J263" s="3"/>
     </row>
     <row r="264" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9886,10 +9890,10 @@
       <c r="G264" s="8">
         <v>0</v>
       </c>
-      <c r="H264" s="20" t="s">
+      <c r="H264" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="I264" s="20"/>
+      <c r="I264" s="21"/>
       <c r="J264" s="3"/>
     </row>
     <row r="265" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9914,10 +9918,10 @@
       <c r="G265" s="8">
         <v>0</v>
       </c>
-      <c r="H265" s="20" t="s">
+      <c r="H265" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="I265" s="20"/>
+      <c r="I265" s="21"/>
       <c r="J265" s="3"/>
     </row>
     <row r="266" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9942,10 +9946,10 @@
       <c r="G266" s="8">
         <v>0</v>
       </c>
-      <c r="H266" s="20" t="s">
+      <c r="H266" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="I266" s="20"/>
+      <c r="I266" s="21"/>
       <c r="J266" s="3"/>
     </row>
     <row r="267" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9970,10 +9974,10 @@
       <c r="G267" s="8">
         <v>0</v>
       </c>
-      <c r="H267" s="20" t="s">
+      <c r="H267" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="I267" s="20"/>
+      <c r="I267" s="21"/>
       <c r="J267" s="3"/>
     </row>
     <row r="268" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9998,10 +10002,10 @@
       <c r="G268" s="8">
         <v>0</v>
       </c>
-      <c r="H268" s="20" t="s">
+      <c r="H268" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="I268" s="20"/>
+      <c r="I268" s="21"/>
       <c r="J268" s="3"/>
     </row>
     <row r="269" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10026,10 +10030,10 @@
       <c r="G269" s="8">
         <v>0</v>
       </c>
-      <c r="H269" s="20" t="s">
+      <c r="H269" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I269" s="20"/>
+      <c r="I269" s="21"/>
       <c r="J269" s="3"/>
     </row>
     <row r="270" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10054,10 +10058,10 @@
       <c r="G270" s="8">
         <v>0</v>
       </c>
-      <c r="H270" s="20" t="s">
+      <c r="H270" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="I270" s="20"/>
+      <c r="I270" s="21"/>
       <c r="J270" s="3"/>
     </row>
     <row r="271" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10082,10 +10086,10 @@
       <c r="G271" s="8">
         <v>0</v>
       </c>
-      <c r="H271" s="20" t="s">
+      <c r="H271" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="I271" s="20"/>
+      <c r="I271" s="21"/>
       <c r="J271" s="3"/>
     </row>
     <row r="272" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10110,10 +10114,10 @@
       <c r="G272" s="8">
         <v>0</v>
       </c>
-      <c r="H272" s="20" t="s">
+      <c r="H272" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I272" s="20"/>
+      <c r="I272" s="21"/>
       <c r="J272" s="3"/>
     </row>
     <row r="273" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10138,10 +10142,10 @@
       <c r="G273" s="8">
         <v>0</v>
       </c>
-      <c r="H273" s="20" t="s">
+      <c r="H273" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I273" s="20"/>
+      <c r="I273" s="21"/>
       <c r="J273" s="3"/>
     </row>
     <row r="274" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10164,8 +10168,8 @@
       <c r="G274" s="8">
         <v>0</v>
       </c>
-      <c r="H274" s="20"/>
-      <c r="I274" s="20"/>
+      <c r="H274" s="21"/>
+      <c r="I274" s="21"/>
       <c r="J274" s="3"/>
     </row>
     <row r="275" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10190,10 +10194,10 @@
       <c r="G275" s="8">
         <v>0</v>
       </c>
-      <c r="H275" s="20" t="s">
+      <c r="H275" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="I275" s="20"/>
+      <c r="I275" s="21"/>
       <c r="J275" s="3"/>
     </row>
     <row r="276" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10218,10 +10222,10 @@
       <c r="G276" s="8">
         <v>0</v>
       </c>
-      <c r="H276" s="20" t="s">
+      <c r="H276" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="I276" s="20"/>
+      <c r="I276" s="21"/>
       <c r="J276" s="3"/>
     </row>
     <row r="277" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10246,10 +10250,10 @@
       <c r="G277" s="8">
         <v>0</v>
       </c>
-      <c r="H277" s="20" t="s">
+      <c r="H277" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="I277" s="20"/>
+      <c r="I277" s="21"/>
       <c r="J277" s="3"/>
     </row>
     <row r="278" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10274,10 +10278,10 @@
       <c r="G278" s="8">
         <v>0</v>
       </c>
-      <c r="H278" s="20" t="s">
+      <c r="H278" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="I278" s="20"/>
+      <c r="I278" s="21"/>
       <c r="J278" s="3"/>
     </row>
     <row r="279" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10302,10 +10306,10 @@
       <c r="G279" s="8">
         <v>0</v>
       </c>
-      <c r="H279" s="20" t="s">
+      <c r="H279" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="I279" s="20"/>
+      <c r="I279" s="21"/>
       <c r="J279" s="3"/>
     </row>
     <row r="280" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10330,10 +10334,10 @@
       <c r="G280" s="8">
         <v>0</v>
       </c>
-      <c r="H280" s="20" t="s">
+      <c r="H280" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="I280" s="20"/>
+      <c r="I280" s="21"/>
       <c r="J280" s="3"/>
     </row>
     <row r="281" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10358,10 +10362,10 @@
       <c r="G281" s="8">
         <v>0</v>
       </c>
-      <c r="H281" s="20" t="s">
+      <c r="H281" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I281" s="20"/>
+      <c r="I281" s="21"/>
       <c r="J281" s="3"/>
     </row>
     <row r="282" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10386,10 +10390,10 @@
       <c r="G282" s="8">
         <v>0</v>
       </c>
-      <c r="H282" s="20" t="s">
+      <c r="H282" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="I282" s="20"/>
+      <c r="I282" s="21"/>
       <c r="J282" s="3"/>
     </row>
     <row r="283" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10412,8 +10416,8 @@
       <c r="G283" s="8">
         <v>0</v>
       </c>
-      <c r="H283" s="20"/>
-      <c r="I283" s="20"/>
+      <c r="H283" s="21"/>
+      <c r="I283" s="21"/>
       <c r="J283" s="3"/>
     </row>
     <row r="284" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10438,10 +10442,10 @@
       <c r="G284" s="8">
         <v>0</v>
       </c>
-      <c r="H284" s="20" t="s">
+      <c r="H284" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="I284" s="20"/>
+      <c r="I284" s="21"/>
       <c r="J284" s="3"/>
     </row>
     <row r="285" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10466,10 +10470,10 @@
       <c r="G285" s="8">
         <v>0</v>
       </c>
-      <c r="H285" s="20" t="s">
+      <c r="H285" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="I285" s="20"/>
+      <c r="I285" s="21"/>
       <c r="J285" s="3"/>
     </row>
     <row r="286" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10494,10 +10498,10 @@
       <c r="G286" s="8">
         <v>0</v>
       </c>
-      <c r="H286" s="20" t="s">
+      <c r="H286" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="I286" s="20"/>
+      <c r="I286" s="21"/>
       <c r="J286" s="3"/>
     </row>
     <row r="287" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10520,8 +10524,8 @@
       <c r="G287" s="8">
         <v>0</v>
       </c>
-      <c r="H287" s="20"/>
-      <c r="I287" s="20"/>
+      <c r="H287" s="21"/>
+      <c r="I287" s="21"/>
       <c r="J287" s="3"/>
     </row>
     <row r="288" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10546,10 +10550,10 @@
       <c r="G288" s="8">
         <v>0</v>
       </c>
-      <c r="H288" s="20" t="s">
+      <c r="H288" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="I288" s="20"/>
+      <c r="I288" s="21"/>
       <c r="J288" s="3"/>
     </row>
     <row r="289" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10574,10 +10578,10 @@
       <c r="G289" s="8">
         <v>0</v>
       </c>
-      <c r="H289" s="20" t="s">
+      <c r="H289" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I289" s="20"/>
+      <c r="I289" s="21"/>
       <c r="J289" s="3"/>
     </row>
     <row r="290" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10602,10 +10606,10 @@
       <c r="G290" s="8">
         <v>0</v>
       </c>
-      <c r="H290" s="20" t="s">
+      <c r="H290" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="I290" s="20"/>
+      <c r="I290" s="21"/>
       <c r="J290" s="3"/>
     </row>
     <row r="291" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10630,10 +10634,10 @@
       <c r="G291" s="8">
         <v>0</v>
       </c>
-      <c r="H291" s="20" t="s">
+      <c r="H291" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I291" s="20"/>
+      <c r="I291" s="21"/>
       <c r="J291" s="3"/>
     </row>
     <row r="292" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10658,10 +10662,10 @@
       <c r="G292" s="8">
         <v>0</v>
       </c>
-      <c r="H292" s="20" t="s">
+      <c r="H292" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I292" s="20"/>
+      <c r="I292" s="21"/>
       <c r="J292" s="3"/>
     </row>
     <row r="293" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10686,10 +10690,10 @@
       <c r="G293" s="8">
         <v>0</v>
       </c>
-      <c r="H293" s="20" t="s">
+      <c r="H293" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I293" s="20"/>
+      <c r="I293" s="21"/>
       <c r="J293" s="3"/>
     </row>
     <row r="294" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10714,10 +10718,10 @@
       <c r="G294" s="8">
         <v>0</v>
       </c>
-      <c r="H294" s="20" t="s">
+      <c r="H294" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I294" s="20"/>
+      <c r="I294" s="21"/>
       <c r="J294" s="3"/>
     </row>
     <row r="295" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10742,10 +10746,10 @@
       <c r="G295" s="8">
         <v>0</v>
       </c>
-      <c r="H295" s="20" t="s">
+      <c r="H295" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I295" s="20"/>
+      <c r="I295" s="21"/>
       <c r="J295" s="3"/>
     </row>
     <row r="296" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10770,10 +10774,10 @@
       <c r="G296" s="8">
         <v>0</v>
       </c>
-      <c r="H296" s="20" t="s">
+      <c r="H296" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="I296" s="20"/>
+      <c r="I296" s="21"/>
       <c r="J296" s="3"/>
     </row>
     <row r="297" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10798,10 +10802,10 @@
       <c r="G297" s="8">
         <v>0</v>
       </c>
-      <c r="H297" s="20" t="s">
+      <c r="H297" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="I297" s="20"/>
+      <c r="I297" s="21"/>
       <c r="J297" s="3"/>
     </row>
     <row r="298" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10826,10 +10830,10 @@
       <c r="G298" s="8">
         <v>0</v>
       </c>
-      <c r="H298" s="20" t="s">
+      <c r="H298" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="I298" s="20"/>
+      <c r="I298" s="21"/>
       <c r="J298" s="3"/>
     </row>
     <row r="299" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10852,8 +10856,8 @@
       <c r="G299" s="8">
         <v>0</v>
       </c>
-      <c r="H299" s="20"/>
-      <c r="I299" s="20"/>
+      <c r="H299" s="21"/>
+      <c r="I299" s="21"/>
       <c r="J299" s="3"/>
     </row>
     <row r="300" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10878,10 +10882,10 @@
       <c r="G300" s="8">
         <v>1</v>
       </c>
-      <c r="H300" s="20" t="s">
+      <c r="H300" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="I300" s="20"/>
+      <c r="I300" s="21"/>
       <c r="J300" s="3"/>
     </row>
     <row r="301" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10906,10 +10910,10 @@
       <c r="G301" s="8">
         <v>0</v>
       </c>
-      <c r="H301" s="20" t="s">
+      <c r="H301" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I301" s="20"/>
+      <c r="I301" s="21"/>
       <c r="J301" s="3"/>
     </row>
     <row r="302" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10934,10 +10938,10 @@
       <c r="G302" s="8">
         <v>0</v>
       </c>
-      <c r="H302" s="20" t="s">
+      <c r="H302" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="I302" s="20"/>
+      <c r="I302" s="21"/>
       <c r="J302" s="3"/>
     </row>
     <row r="303" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10962,10 +10966,10 @@
       <c r="G303" s="8">
         <v>0</v>
       </c>
-      <c r="H303" s="20" t="s">
+      <c r="H303" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I303" s="20"/>
+      <c r="I303" s="21"/>
       <c r="J303" s="3"/>
     </row>
     <row r="304" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10988,8 +10992,8 @@
       <c r="G304" s="8">
         <v>0</v>
       </c>
-      <c r="H304" s="20"/>
-      <c r="I304" s="20"/>
+      <c r="H304" s="21"/>
+      <c r="I304" s="21"/>
       <c r="J304" s="3"/>
     </row>
     <row r="305" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11014,10 +11018,10 @@
       <c r="G305" s="8">
         <v>0</v>
       </c>
-      <c r="H305" s="20" t="s">
+      <c r="H305" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="I305" s="20"/>
+      <c r="I305" s="21"/>
       <c r="J305" s="3"/>
     </row>
     <row r="306" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11042,10 +11046,10 @@
       <c r="G306" s="8">
         <v>0</v>
       </c>
-      <c r="H306" s="20" t="s">
+      <c r="H306" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I306" s="20"/>
+      <c r="I306" s="21"/>
       <c r="J306" s="3"/>
     </row>
     <row r="307" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11068,10 +11072,10 @@
       <c r="G307" s="8">
         <v>0</v>
       </c>
-      <c r="H307" s="20" t="s">
+      <c r="H307" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I307" s="20"/>
+      <c r="I307" s="21"/>
       <c r="J307" s="3"/>
     </row>
     <row r="308" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11096,10 +11100,10 @@
       <c r="G308" s="8">
         <v>2</v>
       </c>
-      <c r="H308" s="20" t="s">
+      <c r="H308" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I308" s="20"/>
+      <c r="I308" s="21"/>
       <c r="J308" s="3"/>
     </row>
     <row r="309" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11124,10 +11128,10 @@
       <c r="G309" s="8">
         <v>0</v>
       </c>
-      <c r="H309" s="20" t="s">
+      <c r="H309" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I309" s="20"/>
+      <c r="I309" s="21"/>
       <c r="J309" s="3"/>
     </row>
     <row r="310" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11152,10 +11156,10 @@
       <c r="G310" s="8">
         <v>0</v>
       </c>
-      <c r="H310" s="20" t="s">
+      <c r="H310" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I310" s="20"/>
+      <c r="I310" s="21"/>
       <c r="J310" s="3"/>
     </row>
     <row r="311" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11180,10 +11184,10 @@
       <c r="G311" s="8">
         <v>0</v>
       </c>
-      <c r="H311" s="20" t="s">
+      <c r="H311" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I311" s="20"/>
+      <c r="I311" s="21"/>
       <c r="J311" s="3"/>
     </row>
     <row r="312" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11208,10 +11212,10 @@
       <c r="G312" s="8">
         <v>0</v>
       </c>
-      <c r="H312" s="20" t="s">
+      <c r="H312" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I312" s="20"/>
+      <c r="I312" s="21"/>
       <c r="J312" s="3"/>
     </row>
     <row r="313" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11236,10 +11240,10 @@
       <c r="G313" s="8">
         <v>0</v>
       </c>
-      <c r="H313" s="20" t="s">
+      <c r="H313" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I313" s="20"/>
+      <c r="I313" s="21"/>
       <c r="J313" s="3"/>
     </row>
     <row r="314" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11264,10 +11268,10 @@
       <c r="G314" s="8">
         <v>0</v>
       </c>
-      <c r="H314" s="20" t="s">
+      <c r="H314" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I314" s="20"/>
+      <c r="I314" s="21"/>
       <c r="J314" s="3"/>
     </row>
     <row r="315" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11292,10 +11296,10 @@
       <c r="G315" s="8">
         <v>0</v>
       </c>
-      <c r="H315" s="20" t="s">
+      <c r="H315" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I315" s="20"/>
+      <c r="I315" s="21"/>
       <c r="J315" s="3"/>
     </row>
     <row r="316" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11320,10 +11324,10 @@
       <c r="G316" s="8">
         <v>0</v>
       </c>
-      <c r="H316" s="20" t="s">
+      <c r="H316" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I316" s="20"/>
+      <c r="I316" s="21"/>
       <c r="J316" s="3"/>
     </row>
     <row r="317" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11348,10 +11352,10 @@
       <c r="G317" s="8">
         <v>0</v>
       </c>
-      <c r="H317" s="20" t="s">
+      <c r="H317" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="I317" s="20"/>
+      <c r="I317" s="21"/>
       <c r="J317" s="3"/>
     </row>
     <row r="318" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11376,10 +11380,10 @@
       <c r="G318" s="8">
         <v>0</v>
       </c>
-      <c r="H318" s="20" t="s">
+      <c r="H318" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="I318" s="20"/>
+      <c r="I318" s="21"/>
       <c r="J318" s="3"/>
     </row>
     <row r="319" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11404,10 +11408,10 @@
       <c r="G319" s="8">
         <v>1</v>
       </c>
-      <c r="H319" s="20" t="s">
+      <c r="H319" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="I319" s="20"/>
+      <c r="I319" s="21"/>
       <c r="J319" s="3"/>
     </row>
     <row r="320" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11432,10 +11436,10 @@
       <c r="G320" s="8">
         <v>0</v>
       </c>
-      <c r="H320" s="20" t="s">
+      <c r="H320" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="I320" s="20"/>
+      <c r="I320" s="21"/>
       <c r="J320" s="3"/>
     </row>
     <row r="321" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11460,10 +11464,10 @@
       <c r="G321" s="8">
         <v>0</v>
       </c>
-      <c r="H321" s="20" t="s">
+      <c r="H321" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I321" s="20"/>
+      <c r="I321" s="21"/>
       <c r="J321" s="3"/>
     </row>
     <row r="322" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11488,10 +11492,10 @@
       <c r="G322" s="8">
         <v>0</v>
       </c>
-      <c r="H322" s="20" t="s">
+      <c r="H322" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I322" s="20"/>
+      <c r="I322" s="21"/>
       <c r="J322" s="3"/>
     </row>
     <row r="323" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11516,10 +11520,10 @@
       <c r="G323" s="8">
         <v>0</v>
       </c>
-      <c r="H323" s="20" t="s">
+      <c r="H323" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I323" s="20"/>
+      <c r="I323" s="21"/>
       <c r="J323" s="3"/>
     </row>
     <row r="324" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11544,10 +11548,10 @@
       <c r="G324" s="8">
         <v>0</v>
       </c>
-      <c r="H324" s="20" t="s">
+      <c r="H324" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I324" s="20"/>
+      <c r="I324" s="21"/>
       <c r="J324" s="3"/>
     </row>
     <row r="325" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11572,10 +11576,10 @@
       <c r="G325" s="8">
         <v>0</v>
       </c>
-      <c r="H325" s="20" t="s">
+      <c r="H325" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="I325" s="20"/>
+      <c r="I325" s="21"/>
       <c r="J325" s="3"/>
     </row>
     <row r="326" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11600,10 +11604,10 @@
       <c r="G326" s="8">
         <v>0</v>
       </c>
-      <c r="H326" s="20" t="s">
+      <c r="H326" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="I326" s="20"/>
+      <c r="I326" s="21"/>
       <c r="J326" s="3"/>
     </row>
     <row r="327" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11628,10 +11632,10 @@
       <c r="G327" s="8">
         <v>0</v>
       </c>
-      <c r="H327" s="20" t="s">
+      <c r="H327" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="I327" s="20"/>
+      <c r="I327" s="21"/>
       <c r="J327" s="3"/>
     </row>
     <row r="328" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11656,10 +11660,10 @@
       <c r="G328" s="8">
         <v>0</v>
       </c>
-      <c r="H328" s="20" t="s">
+      <c r="H328" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I328" s="20"/>
+      <c r="I328" s="21"/>
       <c r="J328" s="3"/>
     </row>
     <row r="329" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11684,10 +11688,10 @@
       <c r="G329" s="8">
         <v>0</v>
       </c>
-      <c r="H329" s="20" t="s">
+      <c r="H329" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="I329" s="20"/>
+      <c r="I329" s="21"/>
       <c r="J329" s="3"/>
     </row>
     <row r="330" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11712,10 +11716,10 @@
       <c r="G330" s="8">
         <v>0</v>
       </c>
-      <c r="H330" s="20" t="s">
+      <c r="H330" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I330" s="20"/>
+      <c r="I330" s="21"/>
       <c r="J330" s="3"/>
     </row>
     <row r="331" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11740,10 +11744,10 @@
       <c r="G331" s="8">
         <v>0</v>
       </c>
-      <c r="H331" s="20" t="s">
+      <c r="H331" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I331" s="20"/>
+      <c r="I331" s="21"/>
       <c r="J331" s="3"/>
     </row>
     <row r="332" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11768,10 +11772,10 @@
       <c r="G332" s="8">
         <v>0</v>
       </c>
-      <c r="H332" s="20" t="s">
+      <c r="H332" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="I332" s="20"/>
+      <c r="I332" s="21"/>
       <c r="J332" s="3"/>
     </row>
     <row r="333" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11796,10 +11800,10 @@
       <c r="G333" s="8">
         <v>0</v>
       </c>
-      <c r="H333" s="20" t="s">
+      <c r="H333" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I333" s="20"/>
+      <c r="I333" s="21"/>
       <c r="J333" s="3"/>
     </row>
     <row r="334" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11822,8 +11826,8 @@
       <c r="G334" s="8">
         <v>0</v>
       </c>
-      <c r="H334" s="20"/>
-      <c r="I334" s="20"/>
+      <c r="H334" s="21"/>
+      <c r="I334" s="21"/>
       <c r="J334" s="3"/>
     </row>
     <row r="335" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11848,10 +11852,10 @@
       <c r="G335" s="8">
         <v>0</v>
       </c>
-      <c r="H335" s="20" t="s">
+      <c r="H335" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I335" s="20"/>
+      <c r="I335" s="21"/>
       <c r="J335" s="3"/>
     </row>
     <row r="336" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11876,10 +11880,10 @@
       <c r="G336" s="8">
         <v>0</v>
       </c>
-      <c r="H336" s="20" t="s">
+      <c r="H336" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I336" s="20"/>
+      <c r="I336" s="21"/>
       <c r="J336" s="3"/>
     </row>
     <row r="337" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11902,10 +11906,10 @@
       <c r="G337" s="8">
         <v>0</v>
       </c>
-      <c r="H337" s="20" t="s">
+      <c r="H337" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="I337" s="20"/>
+      <c r="I337" s="21"/>
       <c r="J337" s="3"/>
     </row>
     <row r="338" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11930,10 +11934,10 @@
       <c r="G338" s="8">
         <v>0</v>
       </c>
-      <c r="H338" s="20" t="s">
+      <c r="H338" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I338" s="20"/>
+      <c r="I338" s="21"/>
       <c r="J338" s="3"/>
     </row>
     <row r="339" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11958,10 +11962,10 @@
       <c r="G339" s="8">
         <v>0</v>
       </c>
-      <c r="H339" s="20" t="s">
+      <c r="H339" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I339" s="20"/>
+      <c r="I339" s="21"/>
       <c r="J339" s="3"/>
     </row>
     <row r="340" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11986,10 +11990,10 @@
       <c r="G340" s="8">
         <v>1</v>
       </c>
-      <c r="H340" s="20" t="s">
+      <c r="H340" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I340" s="20"/>
+      <c r="I340" s="21"/>
       <c r="J340" s="3"/>
     </row>
     <row r="341" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12014,10 +12018,10 @@
       <c r="G341" s="8">
         <v>0</v>
       </c>
-      <c r="H341" s="20" t="s">
+      <c r="H341" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I341" s="20"/>
+      <c r="I341" s="21"/>
       <c r="J341" s="3"/>
     </row>
     <row r="342" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12042,10 +12046,10 @@
       <c r="G342" s="8">
         <v>0</v>
       </c>
-      <c r="H342" s="20" t="s">
+      <c r="H342" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I342" s="20"/>
+      <c r="I342" s="21"/>
       <c r="J342" s="3"/>
     </row>
     <row r="343" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12070,10 +12074,10 @@
       <c r="G343" s="8">
         <v>0</v>
       </c>
-      <c r="H343" s="20" t="s">
+      <c r="H343" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I343" s="20"/>
+      <c r="I343" s="21"/>
       <c r="J343" s="3"/>
     </row>
     <row r="344" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12098,10 +12102,10 @@
       <c r="G344" s="8">
         <v>0</v>
       </c>
-      <c r="H344" s="20" t="s">
+      <c r="H344" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I344" s="20"/>
+      <c r="I344" s="21"/>
       <c r="J344" s="3"/>
     </row>
     <row r="345" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12126,10 +12130,10 @@
       <c r="G345" s="8">
         <v>0</v>
       </c>
-      <c r="H345" s="20" t="s">
+      <c r="H345" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I345" s="20"/>
+      <c r="I345" s="21"/>
       <c r="J345" s="3"/>
     </row>
     <row r="346" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12154,10 +12158,10 @@
       <c r="G346" s="8">
         <v>1</v>
       </c>
-      <c r="H346" s="20" t="s">
+      <c r="H346" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I346" s="20"/>
+      <c r="I346" s="21"/>
       <c r="J346" s="3"/>
     </row>
     <row r="347" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12182,10 +12186,10 @@
       <c r="G347" s="8">
         <v>0</v>
       </c>
-      <c r="H347" s="20" t="s">
+      <c r="H347" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="I347" s="20"/>
+      <c r="I347" s="21"/>
       <c r="J347" s="3"/>
     </row>
     <row r="348" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12210,10 +12214,10 @@
       <c r="G348" s="8">
         <v>1</v>
       </c>
-      <c r="H348" s="20" t="s">
+      <c r="H348" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="I348" s="20"/>
+      <c r="I348" s="21"/>
       <c r="J348" s="3"/>
     </row>
     <row r="349" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12238,10 +12242,10 @@
       <c r="G349" s="8">
         <v>0</v>
       </c>
-      <c r="H349" s="20" t="s">
+      <c r="H349" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="I349" s="20"/>
+      <c r="I349" s="21"/>
       <c r="J349" s="3"/>
     </row>
     <row r="350" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12266,10 +12270,10 @@
       <c r="G350" s="8">
         <v>0</v>
       </c>
-      <c r="H350" s="20" t="s">
+      <c r="H350" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I350" s="20"/>
+      <c r="I350" s="21"/>
       <c r="J350" s="3"/>
     </row>
     <row r="351" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12294,10 +12298,10 @@
       <c r="G351" s="8">
         <v>0</v>
       </c>
-      <c r="H351" s="20" t="s">
+      <c r="H351" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I351" s="20"/>
+      <c r="I351" s="21"/>
       <c r="J351" s="3"/>
     </row>
     <row r="352" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12322,10 +12326,10 @@
       <c r="G352" s="8">
         <v>0</v>
       </c>
-      <c r="H352" s="20" t="s">
+      <c r="H352" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I352" s="20"/>
+      <c r="I352" s="21"/>
       <c r="J352" s="3"/>
     </row>
     <row r="353" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12350,10 +12354,10 @@
       <c r="G353" s="8">
         <v>0</v>
       </c>
-      <c r="H353" s="20" t="s">
+      <c r="H353" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I353" s="20"/>
+      <c r="I353" s="21"/>
       <c r="J353" s="3"/>
     </row>
     <row r="354" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12378,10 +12382,10 @@
       <c r="G354" s="8">
         <v>0</v>
       </c>
-      <c r="H354" s="20" t="s">
+      <c r="H354" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I354" s="20"/>
+      <c r="I354" s="21"/>
       <c r="J354" s="3"/>
     </row>
     <row r="355" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12406,10 +12410,10 @@
       <c r="G355" s="8">
         <v>0</v>
       </c>
-      <c r="H355" s="20" t="s">
+      <c r="H355" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I355" s="20"/>
+      <c r="I355" s="21"/>
       <c r="J355" s="3"/>
     </row>
     <row r="356" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12434,10 +12438,10 @@
       <c r="G356" s="8">
         <v>0</v>
       </c>
-      <c r="H356" s="20" t="s">
+      <c r="H356" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="I356" s="20"/>
+      <c r="I356" s="21"/>
       <c r="J356" s="3"/>
     </row>
     <row r="357" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12462,10 +12466,10 @@
       <c r="G357" s="8">
         <v>0</v>
       </c>
-      <c r="H357" s="20" t="s">
+      <c r="H357" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I357" s="20"/>
+      <c r="I357" s="21"/>
       <c r="J357" s="3"/>
     </row>
     <row r="358" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12490,10 +12494,10 @@
       <c r="G358" s="8">
         <v>0</v>
       </c>
-      <c r="H358" s="20" t="s">
+      <c r="H358" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I358" s="20"/>
+      <c r="I358" s="21"/>
       <c r="J358" s="3"/>
     </row>
     <row r="359" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12518,10 +12522,10 @@
       <c r="G359" s="8">
         <v>0</v>
       </c>
-      <c r="H359" s="20" t="s">
+      <c r="H359" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I359" s="20"/>
+      <c r="I359" s="21"/>
       <c r="J359" s="3"/>
     </row>
     <row r="360" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12546,10 +12550,10 @@
       <c r="G360" s="8">
         <v>0</v>
       </c>
-      <c r="H360" s="20" t="s">
+      <c r="H360" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I360" s="20"/>
+      <c r="I360" s="21"/>
       <c r="J360" s="3"/>
     </row>
     <row r="361" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12574,10 +12578,10 @@
       <c r="G361" s="8">
         <v>0</v>
       </c>
-      <c r="H361" s="20" t="s">
+      <c r="H361" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="I361" s="20"/>
+      <c r="I361" s="21"/>
       <c r="J361" s="3"/>
     </row>
     <row r="362" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12602,10 +12606,10 @@
       <c r="G362" s="8">
         <v>0</v>
       </c>
-      <c r="H362" s="20" t="s">
+      <c r="H362" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I362" s="20"/>
+      <c r="I362" s="21"/>
       <c r="J362" s="3"/>
     </row>
     <row r="363" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12630,10 +12634,10 @@
       <c r="G363" s="8">
         <v>0</v>
       </c>
-      <c r="H363" s="20" t="s">
+      <c r="H363" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I363" s="20"/>
+      <c r="I363" s="21"/>
       <c r="J363" s="3"/>
     </row>
     <row r="364" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12658,10 +12662,10 @@
       <c r="G364" s="8">
         <v>0</v>
       </c>
-      <c r="H364" s="20" t="s">
+      <c r="H364" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="I364" s="20"/>
+      <c r="I364" s="21"/>
       <c r="J364" s="3"/>
     </row>
     <row r="365" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12686,10 +12690,10 @@
       <c r="G365" s="8">
         <v>0</v>
       </c>
-      <c r="H365" s="20" t="s">
+      <c r="H365" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I365" s="20"/>
+      <c r="I365" s="21"/>
       <c r="J365" s="3"/>
     </row>
     <row r="366" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12714,10 +12718,10 @@
       <c r="G366" s="8">
         <v>0</v>
       </c>
-      <c r="H366" s="20" t="s">
+      <c r="H366" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I366" s="20"/>
+      <c r="I366" s="21"/>
       <c r="J366" s="3"/>
     </row>
     <row r="367" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12742,10 +12746,10 @@
       <c r="G367" s="8">
         <v>0</v>
       </c>
-      <c r="H367" s="20" t="s">
+      <c r="H367" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="I367" s="20"/>
+      <c r="I367" s="21"/>
       <c r="J367" s="3"/>
     </row>
     <row r="368" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12770,10 +12774,10 @@
       <c r="G368" s="8">
         <v>0</v>
       </c>
-      <c r="H368" s="20" t="s">
+      <c r="H368" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="I368" s="20"/>
+      <c r="I368" s="21"/>
       <c r="J368" s="3"/>
     </row>
     <row r="369" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12798,10 +12802,10 @@
       <c r="G369" s="8">
         <v>0</v>
       </c>
-      <c r="H369" s="20" t="s">
+      <c r="H369" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I369" s="20"/>
+      <c r="I369" s="21"/>
       <c r="J369" s="3"/>
     </row>
     <row r="370" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12826,10 +12830,10 @@
       <c r="G370" s="8">
         <v>0</v>
       </c>
-      <c r="H370" s="20" t="s">
+      <c r="H370" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="I370" s="20"/>
+      <c r="I370" s="21"/>
       <c r="J370" s="3"/>
     </row>
     <row r="371" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12854,10 +12858,10 @@
       <c r="G371" s="8">
         <v>0</v>
       </c>
-      <c r="H371" s="20" t="s">
+      <c r="H371" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="I371" s="20"/>
+      <c r="I371" s="21"/>
       <c r="J371" s="3"/>
     </row>
     <row r="372" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12882,10 +12886,10 @@
       <c r="G372" s="8">
         <v>0</v>
       </c>
-      <c r="H372" s="20" t="s">
+      <c r="H372" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I372" s="20"/>
+      <c r="I372" s="21"/>
       <c r="J372" s="3"/>
     </row>
     <row r="373" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12910,10 +12914,10 @@
       <c r="G373" s="8">
         <v>0</v>
       </c>
-      <c r="H373" s="20" t="s">
+      <c r="H373" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I373" s="20"/>
+      <c r="I373" s="21"/>
       <c r="J373" s="3"/>
     </row>
     <row r="374" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12938,10 +12942,10 @@
       <c r="G374" s="8">
         <v>0</v>
       </c>
-      <c r="H374" s="20" t="s">
+      <c r="H374" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I374" s="20"/>
+      <c r="I374" s="21"/>
       <c r="J374" s="3"/>
     </row>
     <row r="375" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12966,10 +12970,10 @@
       <c r="G375" s="8">
         <v>0</v>
       </c>
-      <c r="H375" s="20" t="s">
+      <c r="H375" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="I375" s="20"/>
+      <c r="I375" s="21"/>
       <c r="J375" s="3"/>
     </row>
     <row r="376" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12994,10 +12998,10 @@
       <c r="G376" s="8">
         <v>0</v>
       </c>
-      <c r="H376" s="20" t="s">
+      <c r="H376" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I376" s="20"/>
+      <c r="I376" s="21"/>
       <c r="J376" s="3"/>
     </row>
     <row r="377" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13022,10 +13026,10 @@
       <c r="G377" s="8">
         <v>0</v>
       </c>
-      <c r="H377" s="20" t="s">
+      <c r="H377" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I377" s="20"/>
+      <c r="I377" s="21"/>
       <c r="J377" s="3"/>
     </row>
     <row r="378" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13050,10 +13054,10 @@
       <c r="G378" s="8">
         <v>0</v>
       </c>
-      <c r="H378" s="20" t="s">
+      <c r="H378" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I378" s="20"/>
+      <c r="I378" s="21"/>
       <c r="J378" s="3"/>
     </row>
     <row r="379" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13078,10 +13082,10 @@
       <c r="G379" s="8">
         <v>0</v>
       </c>
-      <c r="H379" s="20" t="s">
+      <c r="H379" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I379" s="20"/>
+      <c r="I379" s="21"/>
       <c r="J379" s="3"/>
     </row>
     <row r="380" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13106,10 +13110,10 @@
       <c r="G380" s="8">
         <v>0</v>
       </c>
-      <c r="H380" s="20" t="s">
+      <c r="H380" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I380" s="20"/>
+      <c r="I380" s="21"/>
       <c r="J380" s="3"/>
     </row>
     <row r="381" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13134,10 +13138,10 @@
       <c r="G381" s="8">
         <v>1</v>
       </c>
-      <c r="H381" s="20" t="s">
+      <c r="H381" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="I381" s="20"/>
+      <c r="I381" s="21"/>
       <c r="J381" s="3"/>
     </row>
     <row r="382" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13162,10 +13166,10 @@
       <c r="G382" s="8">
         <v>0</v>
       </c>
-      <c r="H382" s="20" t="s">
+      <c r="H382" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="I382" s="20"/>
+      <c r="I382" s="21"/>
       <c r="J382" s="3"/>
     </row>
     <row r="383" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13190,10 +13194,10 @@
       <c r="G383" s="8">
         <v>0</v>
       </c>
-      <c r="H383" s="20" t="s">
+      <c r="H383" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="I383" s="20"/>
+      <c r="I383" s="21"/>
       <c r="J383" s="3"/>
     </row>
     <row r="384" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13218,10 +13222,10 @@
       <c r="G384" s="8">
         <v>0</v>
       </c>
-      <c r="H384" s="20" t="s">
+      <c r="H384" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="I384" s="20"/>
+      <c r="I384" s="21"/>
       <c r="J384" s="3"/>
     </row>
     <row r="385" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13246,10 +13250,10 @@
       <c r="G385" s="8">
         <v>0</v>
       </c>
-      <c r="H385" s="20" t="s">
+      <c r="H385" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I385" s="20"/>
+      <c r="I385" s="21"/>
       <c r="J385" s="3"/>
     </row>
     <row r="386" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13274,10 +13278,10 @@
       <c r="G386" s="8">
         <v>0</v>
       </c>
-      <c r="H386" s="20" t="s">
+      <c r="H386" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="I386" s="20"/>
+      <c r="I386" s="21"/>
       <c r="J386" s="3"/>
     </row>
     <row r="387" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13302,10 +13306,10 @@
       <c r="G387" s="8">
         <v>2</v>
       </c>
-      <c r="H387" s="20" t="s">
+      <c r="H387" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="I387" s="20"/>
+      <c r="I387" s="21"/>
       <c r="J387" s="3"/>
     </row>
     <row r="388" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13330,10 +13334,10 @@
       <c r="G388" s="8">
         <v>0</v>
       </c>
-      <c r="H388" s="20" t="s">
+      <c r="H388" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="I388" s="20"/>
+      <c r="I388" s="21"/>
       <c r="J388" s="3"/>
     </row>
     <row r="389" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13356,10 +13360,10 @@
       <c r="G389" s="8">
         <v>0</v>
       </c>
-      <c r="H389" s="20" t="s">
+      <c r="H389" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="I389" s="20"/>
+      <c r="I389" s="21"/>
       <c r="J389" s="3"/>
     </row>
     <row r="390" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13384,10 +13388,10 @@
       <c r="G390" s="8">
         <v>0</v>
       </c>
-      <c r="H390" s="20" t="s">
+      <c r="H390" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I390" s="20"/>
+      <c r="I390" s="21"/>
       <c r="J390" s="3"/>
     </row>
     <row r="391" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13412,10 +13416,10 @@
       <c r="G391" s="8">
         <v>0</v>
       </c>
-      <c r="H391" s="20" t="s">
+      <c r="H391" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="I391" s="20"/>
+      <c r="I391" s="21"/>
       <c r="J391" s="3"/>
     </row>
     <row r="392" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13440,10 +13444,10 @@
       <c r="G392" s="8">
         <v>0</v>
       </c>
-      <c r="H392" s="20" t="s">
+      <c r="H392" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I392" s="20"/>
+      <c r="I392" s="21"/>
       <c r="J392" s="3"/>
     </row>
     <row r="393" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13468,10 +13472,10 @@
       <c r="G393" s="8">
         <v>0</v>
       </c>
-      <c r="H393" s="20" t="s">
+      <c r="H393" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="I393" s="20"/>
+      <c r="I393" s="21"/>
       <c r="J393" s="3"/>
     </row>
     <row r="394" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13496,10 +13500,10 @@
       <c r="G394" s="8">
         <v>0</v>
       </c>
-      <c r="H394" s="20" t="s">
+      <c r="H394" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="I394" s="20"/>
+      <c r="I394" s="21"/>
       <c r="J394" s="3"/>
     </row>
     <row r="395" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13524,10 +13528,10 @@
       <c r="G395" s="8">
         <v>0</v>
       </c>
-      <c r="H395" s="20" t="s">
+      <c r="H395" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="I395" s="20"/>
+      <c r="I395" s="21"/>
       <c r="J395" s="3"/>
     </row>
     <row r="396" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13552,10 +13556,10 @@
       <c r="G396" s="8">
         <v>0</v>
       </c>
-      <c r="H396" s="20" t="s">
+      <c r="H396" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="I396" s="20"/>
+      <c r="I396" s="21"/>
       <c r="J396" s="3"/>
     </row>
     <row r="397" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13580,10 +13584,10 @@
       <c r="G397" s="8">
         <v>1</v>
       </c>
-      <c r="H397" s="20" t="s">
+      <c r="H397" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="I397" s="20"/>
+      <c r="I397" s="21"/>
       <c r="J397" s="3"/>
     </row>
     <row r="398" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13608,10 +13612,10 @@
       <c r="G398" s="8">
         <v>0</v>
       </c>
-      <c r="H398" s="20" t="s">
+      <c r="H398" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="I398" s="20"/>
+      <c r="I398" s="21"/>
       <c r="J398" s="3"/>
     </row>
     <row r="399" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13636,10 +13640,10 @@
       <c r="G399" s="8">
         <v>0</v>
       </c>
-      <c r="H399" s="20" t="s">
+      <c r="H399" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="I399" s="20"/>
+      <c r="I399" s="21"/>
       <c r="J399" s="3"/>
     </row>
     <row r="400" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13664,10 +13668,10 @@
       <c r="G400" s="8">
         <v>0</v>
       </c>
-      <c r="H400" s="20" t="s">
+      <c r="H400" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="I400" s="20"/>
+      <c r="I400" s="21"/>
       <c r="J400" s="3"/>
     </row>
     <row r="401" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13692,10 +13696,10 @@
       <c r="G401" s="8">
         <v>0</v>
       </c>
-      <c r="H401" s="20" t="s">
+      <c r="H401" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="I401" s="20"/>
+      <c r="I401" s="21"/>
       <c r="J401" s="3"/>
     </row>
     <row r="402" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13720,10 +13724,10 @@
       <c r="G402" s="8">
         <v>0</v>
       </c>
-      <c r="H402" s="20" t="s">
+      <c r="H402" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="I402" s="20"/>
+      <c r="I402" s="21"/>
       <c r="J402" s="3"/>
     </row>
     <row r="403" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13748,10 +13752,10 @@
       <c r="G403" s="8">
         <v>0</v>
       </c>
-      <c r="H403" s="20" t="s">
+      <c r="H403" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="I403" s="20"/>
+      <c r="I403" s="21"/>
       <c r="J403" s="3"/>
     </row>
     <row r="404" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13776,10 +13780,10 @@
       <c r="G404" s="8">
         <v>0</v>
       </c>
-      <c r="H404" s="20" t="s">
+      <c r="H404" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="I404" s="20"/>
+      <c r="I404" s="21"/>
       <c r="J404" s="3"/>
     </row>
     <row r="405" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13802,8 +13806,8 @@
       <c r="G405" s="8">
         <v>0</v>
       </c>
-      <c r="H405" s="20"/>
-      <c r="I405" s="20"/>
+      <c r="H405" s="21"/>
+      <c r="I405" s="21"/>
       <c r="J405" s="3"/>
     </row>
     <row r="406" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13826,8 +13830,8 @@
       <c r="G406" s="8">
         <v>0</v>
       </c>
-      <c r="H406" s="20"/>
-      <c r="I406" s="20"/>
+      <c r="H406" s="21"/>
+      <c r="I406" s="21"/>
       <c r="J406" s="3"/>
     </row>
     <row r="407" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13852,10 +13856,10 @@
       <c r="G407" s="8">
         <v>0</v>
       </c>
-      <c r="H407" s="20" t="s">
+      <c r="H407" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="I407" s="20"/>
+      <c r="I407" s="21"/>
       <c r="J407" s="3"/>
     </row>
     <row r="408" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13880,10 +13884,10 @@
       <c r="G408" s="8">
         <v>0</v>
       </c>
-      <c r="H408" s="20" t="s">
+      <c r="H408" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I408" s="20"/>
+      <c r="I408" s="21"/>
       <c r="J408" s="3"/>
     </row>
     <row r="409" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13908,10 +13912,10 @@
       <c r="G409" s="8">
         <v>0</v>
       </c>
-      <c r="H409" s="20" t="s">
+      <c r="H409" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="I409" s="20"/>
+      <c r="I409" s="21"/>
       <c r="J409" s="3"/>
     </row>
     <row r="410" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13936,10 +13940,10 @@
       <c r="G410" s="8">
         <v>1</v>
       </c>
-      <c r="H410" s="20" t="s">
+      <c r="H410" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I410" s="20"/>
+      <c r="I410" s="21"/>
       <c r="J410" s="3"/>
     </row>
     <row r="411" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13964,10 +13968,10 @@
       <c r="G411" s="8">
         <v>0</v>
       </c>
-      <c r="H411" s="20" t="s">
+      <c r="H411" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="I411" s="20"/>
+      <c r="I411" s="21"/>
       <c r="J411" s="3"/>
     </row>
     <row r="412" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13992,10 +13996,10 @@
       <c r="G412" s="8">
         <v>0</v>
       </c>
-      <c r="H412" s="20" t="s">
+      <c r="H412" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="I412" s="20"/>
+      <c r="I412" s="21"/>
       <c r="J412" s="3"/>
     </row>
     <row r="413" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14020,10 +14024,10 @@
       <c r="G413" s="8">
         <v>0</v>
       </c>
-      <c r="H413" s="20" t="s">
+      <c r="H413" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="I413" s="20"/>
+      <c r="I413" s="21"/>
       <c r="J413" s="3"/>
     </row>
     <row r="414" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14048,10 +14052,10 @@
       <c r="G414" s="8">
         <v>0</v>
       </c>
-      <c r="H414" s="20" t="s">
+      <c r="H414" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="I414" s="20"/>
+      <c r="I414" s="21"/>
       <c r="J414" s="3"/>
     </row>
     <row r="415" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14076,10 +14080,10 @@
       <c r="G415" s="8">
         <v>0</v>
       </c>
-      <c r="H415" s="20" t="s">
+      <c r="H415" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="I415" s="20"/>
+      <c r="I415" s="21"/>
       <c r="J415" s="3"/>
     </row>
     <row r="416" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14104,10 +14108,10 @@
       <c r="G416" s="8">
         <v>1</v>
       </c>
-      <c r="H416" s="20" t="s">
+      <c r="H416" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="I416" s="20"/>
+      <c r="I416" s="21"/>
       <c r="J416" s="3"/>
     </row>
     <row r="417" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14132,10 +14136,10 @@
       <c r="G417" s="8">
         <v>0</v>
       </c>
-      <c r="H417" s="20" t="s">
+      <c r="H417" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="I417" s="20"/>
+      <c r="I417" s="21"/>
       <c r="J417" s="3"/>
     </row>
     <row r="418" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14158,10 +14162,10 @@
       <c r="G418" s="8">
         <v>1</v>
       </c>
-      <c r="H418" s="20" t="s">
+      <c r="H418" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="I418" s="20"/>
+      <c r="I418" s="21"/>
       <c r="J418" s="3"/>
     </row>
     <row r="419" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14184,10 +14188,10 @@
       <c r="G419" s="8">
         <v>0</v>
       </c>
-      <c r="H419" s="20" t="s">
+      <c r="H419" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="I419" s="20"/>
+      <c r="I419" s="21"/>
       <c r="J419" s="3"/>
     </row>
     <row r="420" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14210,10 +14214,10 @@
       <c r="G420" s="8">
         <v>0</v>
       </c>
-      <c r="H420" s="20" t="s">
+      <c r="H420" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I420" s="20"/>
+      <c r="I420" s="21"/>
       <c r="J420" s="3"/>
     </row>
     <row r="421" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14236,8 +14240,8 @@
       <c r="G421" s="8">
         <v>0</v>
       </c>
-      <c r="H421" s="20"/>
-      <c r="I421" s="20"/>
+      <c r="H421" s="21"/>
+      <c r="I421" s="21"/>
       <c r="J421" s="3"/>
     </row>
     <row r="422" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14260,8 +14264,8 @@
       <c r="G422" s="8">
         <v>0</v>
       </c>
-      <c r="H422" s="20"/>
-      <c r="I422" s="20"/>
+      <c r="H422" s="21"/>
+      <c r="I422" s="21"/>
       <c r="J422" s="3"/>
     </row>
     <row r="423" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14286,10 +14290,10 @@
       <c r="G423" s="8">
         <v>0</v>
       </c>
-      <c r="H423" s="20" t="s">
+      <c r="H423" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I423" s="20"/>
+      <c r="I423" s="21"/>
       <c r="J423" s="3"/>
     </row>
     <row r="424" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14314,10 +14318,10 @@
       <c r="G424" s="8">
         <v>0</v>
       </c>
-      <c r="H424" s="20" t="s">
+      <c r="H424" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I424" s="20"/>
+      <c r="I424" s="21"/>
       <c r="J424" s="3"/>
     </row>
     <row r="425" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14342,10 +14346,10 @@
       <c r="G425" s="8">
         <v>0</v>
       </c>
-      <c r="H425" s="20" t="s">
+      <c r="H425" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I425" s="20"/>
+      <c r="I425" s="21"/>
       <c r="J425" s="3"/>
     </row>
     <row r="426" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14370,10 +14374,10 @@
       <c r="G426" s="8">
         <v>0</v>
       </c>
-      <c r="H426" s="20" t="s">
+      <c r="H426" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I426" s="20"/>
+      <c r="I426" s="21"/>
       <c r="J426" s="3"/>
     </row>
     <row r="427" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14398,10 +14402,10 @@
       <c r="G427" s="8">
         <v>0</v>
       </c>
-      <c r="H427" s="20" t="s">
+      <c r="H427" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I427" s="20"/>
+      <c r="I427" s="21"/>
       <c r="J427" s="3"/>
     </row>
     <row r="428" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14426,10 +14430,10 @@
       <c r="G428" s="8">
         <v>0</v>
       </c>
-      <c r="H428" s="20" t="s">
+      <c r="H428" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I428" s="20"/>
+      <c r="I428" s="21"/>
       <c r="J428" s="3"/>
     </row>
     <row r="429" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14454,10 +14458,10 @@
       <c r="G429" s="8">
         <v>0</v>
       </c>
-      <c r="H429" s="20" t="s">
+      <c r="H429" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I429" s="20"/>
+      <c r="I429" s="21"/>
       <c r="J429" s="3"/>
     </row>
     <row r="430" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14482,10 +14486,10 @@
       <c r="G430" s="8">
         <v>1</v>
       </c>
-      <c r="H430" s="20" t="s">
+      <c r="H430" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I430" s="20"/>
+      <c r="I430" s="21"/>
       <c r="J430" s="3"/>
     </row>
     <row r="431" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14510,10 +14514,10 @@
       <c r="G431" s="8">
         <v>0</v>
       </c>
-      <c r="H431" s="20" t="s">
+      <c r="H431" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="I431" s="20"/>
+      <c r="I431" s="21"/>
       <c r="J431" s="3"/>
     </row>
     <row r="432" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14538,8 +14542,8 @@
       <c r="G432" s="8">
         <v>0</v>
       </c>
-      <c r="H432" s="20"/>
-      <c r="I432" s="20"/>
+      <c r="H432" s="21"/>
+      <c r="I432" s="21"/>
       <c r="J432" s="3"/>
     </row>
     <row r="433" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14562,8 +14566,8 @@
       <c r="G433" s="8">
         <v>0</v>
       </c>
-      <c r="H433" s="20"/>
-      <c r="I433" s="20"/>
+      <c r="H433" s="21"/>
+      <c r="I433" s="21"/>
       <c r="J433" s="3"/>
     </row>
     <row r="434" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14588,10 +14592,10 @@
       <c r="G434" s="8">
         <v>0</v>
       </c>
-      <c r="H434" s="20" t="s">
+      <c r="H434" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I434" s="20"/>
+      <c r="I434" s="21"/>
       <c r="J434" s="3"/>
     </row>
     <row r="435" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14616,10 +14620,10 @@
       <c r="G435" s="8">
         <v>0</v>
       </c>
-      <c r="H435" s="20" t="s">
+      <c r="H435" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="I435" s="20"/>
+      <c r="I435" s="21"/>
       <c r="J435" s="3"/>
     </row>
     <row r="436" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14644,10 +14648,10 @@
       <c r="G436" s="8">
         <v>3</v>
       </c>
-      <c r="H436" s="20" t="s">
+      <c r="H436" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I436" s="20"/>
+      <c r="I436" s="21"/>
       <c r="J436" s="3"/>
     </row>
     <row r="437" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14672,10 +14676,10 @@
       <c r="G437" s="8">
         <v>3</v>
       </c>
-      <c r="H437" s="20" t="s">
+      <c r="H437" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I437" s="20"/>
+      <c r="I437" s="21"/>
       <c r="J437" s="3"/>
     </row>
     <row r="438" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14700,10 +14704,10 @@
       <c r="G438" s="8">
         <v>2</v>
       </c>
-      <c r="H438" s="20" t="s">
+      <c r="H438" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I438" s="20"/>
+      <c r="I438" s="21"/>
       <c r="J438" s="3"/>
     </row>
     <row r="439" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14728,10 +14732,10 @@
       <c r="G439" s="8">
         <v>0</v>
       </c>
-      <c r="H439" s="20" t="s">
+      <c r="H439" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I439" s="20"/>
+      <c r="I439" s="21"/>
       <c r="J439" s="3"/>
     </row>
     <row r="440" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14754,10 +14758,10 @@
       <c r="G440" s="8">
         <v>0</v>
       </c>
-      <c r="H440" s="20" t="s">
+      <c r="H440" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I440" s="20"/>
+      <c r="I440" s="21"/>
       <c r="J440" s="3"/>
     </row>
     <row r="441" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14782,10 +14786,10 @@
       <c r="G441" s="8">
         <v>0</v>
       </c>
-      <c r="H441" s="20" t="s">
+      <c r="H441" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="I441" s="20"/>
+      <c r="I441" s="21"/>
       <c r="J441" s="3"/>
     </row>
     <row r="442" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14810,8 +14814,8 @@
       <c r="G442" s="8">
         <v>0</v>
       </c>
-      <c r="H442" s="20"/>
-      <c r="I442" s="20"/>
+      <c r="H442" s="21"/>
+      <c r="I442" s="21"/>
       <c r="J442" s="3"/>
     </row>
     <row r="443" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14834,8 +14838,8 @@
       <c r="G443" s="8">
         <v>0</v>
       </c>
-      <c r="H443" s="20"/>
-      <c r="I443" s="20"/>
+      <c r="H443" s="21"/>
+      <c r="I443" s="21"/>
       <c r="J443" s="3"/>
     </row>
     <row r="444" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14860,10 +14864,10 @@
       <c r="G444" s="8">
         <v>1</v>
       </c>
-      <c r="H444" s="20" t="s">
+      <c r="H444" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="I444" s="20"/>
+      <c r="I444" s="21"/>
       <c r="J444" s="3"/>
     </row>
     <row r="445" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14888,10 +14892,10 @@
       <c r="G445" s="8">
         <v>0</v>
       </c>
-      <c r="H445" s="20" t="s">
+      <c r="H445" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I445" s="20"/>
+      <c r="I445" s="21"/>
       <c r="J445" s="3"/>
     </row>
     <row r="446" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14916,10 +14920,10 @@
       <c r="G446" s="8">
         <v>0</v>
       </c>
-      <c r="H446" s="20" t="s">
+      <c r="H446" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I446" s="20"/>
+      <c r="I446" s="21"/>
       <c r="J446" s="3"/>
     </row>
     <row r="447" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14944,10 +14948,10 @@
       <c r="G447" s="8">
         <v>0</v>
       </c>
-      <c r="H447" s="20" t="s">
+      <c r="H447" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I447" s="20"/>
+      <c r="I447" s="21"/>
       <c r="J447" s="3"/>
     </row>
     <row r="448" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14972,10 +14976,10 @@
       <c r="G448" s="8">
         <v>0</v>
       </c>
-      <c r="H448" s="20" t="s">
+      <c r="H448" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I448" s="20"/>
+      <c r="I448" s="21"/>
       <c r="J448" s="3"/>
     </row>
     <row r="449" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15000,10 +15004,10 @@
       <c r="G449" s="8">
         <v>0</v>
       </c>
-      <c r="H449" s="20" t="s">
+      <c r="H449" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="I449" s="20"/>
+      <c r="I449" s="21"/>
       <c r="J449" s="3"/>
     </row>
     <row r="450" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15026,10 +15030,10 @@
       <c r="G450" s="8">
         <v>0</v>
       </c>
-      <c r="H450" s="20" t="s">
+      <c r="H450" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="I450" s="20"/>
+      <c r="I450" s="21"/>
       <c r="J450" s="3"/>
     </row>
     <row r="451" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15054,10 +15058,10 @@
       <c r="G451" s="8">
         <v>1</v>
       </c>
-      <c r="H451" s="20" t="s">
+      <c r="H451" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I451" s="20"/>
+      <c r="I451" s="21"/>
       <c r="J451" s="3"/>
     </row>
     <row r="452" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15082,10 +15086,10 @@
       <c r="G452" s="8">
         <v>0</v>
       </c>
-      <c r="H452" s="20" t="s">
+      <c r="H452" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="I452" s="20"/>
+      <c r="I452" s="21"/>
       <c r="J452" s="3"/>
     </row>
     <row r="453" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15110,10 +15114,10 @@
       <c r="G453" s="8">
         <v>0</v>
       </c>
-      <c r="H453" s="20" t="s">
+      <c r="H453" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="I453" s="20"/>
+      <c r="I453" s="21"/>
       <c r="J453" s="3"/>
     </row>
     <row r="454" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15136,10 +15140,10 @@
       <c r="G454" s="8">
         <v>0</v>
       </c>
-      <c r="H454" s="20" t="s">
+      <c r="H454" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="I454" s="20"/>
+      <c r="I454" s="21"/>
       <c r="J454" s="3"/>
     </row>
     <row r="455" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15164,10 +15168,10 @@
       <c r="G455" s="8">
         <v>0</v>
       </c>
-      <c r="H455" s="20" t="s">
+      <c r="H455" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="I455" s="20"/>
+      <c r="I455" s="21"/>
       <c r="J455" s="3"/>
     </row>
     <row r="456" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15192,10 +15196,10 @@
       <c r="G456" s="8">
         <v>0</v>
       </c>
-      <c r="H456" s="20" t="s">
+      <c r="H456" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I456" s="20"/>
+      <c r="I456" s="21"/>
       <c r="J456" s="3"/>
     </row>
     <row r="457" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15218,10 +15222,10 @@
       <c r="G457" s="8">
         <v>0</v>
       </c>
-      <c r="H457" s="20" t="s">
+      <c r="H457" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I457" s="20"/>
+      <c r="I457" s="21"/>
       <c r="J457" s="3"/>
     </row>
     <row r="458" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15246,10 +15250,10 @@
       <c r="G458" s="8">
         <v>1</v>
       </c>
-      <c r="H458" s="20" t="s">
+      <c r="H458" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I458" s="20"/>
+      <c r="I458" s="21"/>
       <c r="J458" s="3"/>
     </row>
     <row r="459" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15274,8 +15278,8 @@
       <c r="G459" s="8">
         <v>0</v>
       </c>
-      <c r="H459" s="20"/>
-      <c r="I459" s="20"/>
+      <c r="H459" s="21"/>
+      <c r="I459" s="21"/>
       <c r="J459" s="3"/>
     </row>
     <row r="460" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15300,10 +15304,10 @@
       <c r="G460" s="8">
         <v>0</v>
       </c>
-      <c r="H460" s="20" t="s">
+      <c r="H460" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="I460" s="20"/>
+      <c r="I460" s="21"/>
       <c r="J460" s="3"/>
     </row>
     <row r="461" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15328,10 +15332,10 @@
       <c r="G461" s="8">
         <v>0</v>
       </c>
-      <c r="H461" s="20" t="s">
+      <c r="H461" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="I461" s="20"/>
+      <c r="I461" s="21"/>
       <c r="J461" s="3"/>
     </row>
     <row r="462" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15356,10 +15360,10 @@
       <c r="G462" s="8">
         <v>0</v>
       </c>
-      <c r="H462" s="20" t="s">
+      <c r="H462" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="I462" s="20"/>
+      <c r="I462" s="21"/>
       <c r="J462" s="3"/>
     </row>
     <row r="463" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15384,10 +15388,10 @@
       <c r="G463" s="8">
         <v>0</v>
       </c>
-      <c r="H463" s="20" t="s">
+      <c r="H463" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="I463" s="20"/>
+      <c r="I463" s="21"/>
       <c r="J463" s="3"/>
     </row>
     <row r="464" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15410,10 +15414,10 @@
       <c r="G464" s="8">
         <v>0</v>
       </c>
-      <c r="H464" s="20" t="s">
+      <c r="H464" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="I464" s="20"/>
+      <c r="I464" s="21"/>
       <c r="J464" s="3"/>
     </row>
     <row r="465" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15438,10 +15442,10 @@
       <c r="G465" s="8">
         <v>0</v>
       </c>
-      <c r="H465" s="20" t="s">
+      <c r="H465" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="I465" s="20"/>
+      <c r="I465" s="21"/>
       <c r="J465" s="3"/>
     </row>
     <row r="466" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15466,10 +15470,10 @@
       <c r="G466" s="8">
         <v>0</v>
       </c>
-      <c r="H466" s="20" t="s">
+      <c r="H466" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I466" s="20"/>
+      <c r="I466" s="21"/>
       <c r="J466" s="3"/>
     </row>
     <row r="467" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15494,10 +15498,10 @@
       <c r="G467" s="8">
         <v>0</v>
       </c>
-      <c r="H467" s="20" t="s">
+      <c r="H467" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I467" s="20"/>
+      <c r="I467" s="21"/>
       <c r="J467" s="3"/>
     </row>
     <row r="468" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15522,10 +15526,10 @@
       <c r="G468" s="8">
         <v>0</v>
       </c>
-      <c r="H468" s="20" t="s">
+      <c r="H468" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I468" s="20"/>
+      <c r="I468" s="21"/>
       <c r="J468" s="3"/>
     </row>
     <row r="469" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15550,10 +15554,10 @@
       <c r="G469" s="8">
         <v>0</v>
       </c>
-      <c r="H469" s="20" t="s">
+      <c r="H469" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="I469" s="20"/>
+      <c r="I469" s="21"/>
       <c r="J469" s="3"/>
     </row>
     <row r="470" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15578,10 +15582,10 @@
       <c r="G470" s="8">
         <v>1</v>
       </c>
-      <c r="H470" s="20" t="s">
+      <c r="H470" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="I470" s="20"/>
+      <c r="I470" s="21"/>
       <c r="J470" s="3"/>
     </row>
     <row r="471" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15606,10 +15610,10 @@
       <c r="G471" s="8">
         <v>0</v>
       </c>
-      <c r="H471" s="20" t="s">
+      <c r="H471" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="I471" s="20"/>
+      <c r="I471" s="21"/>
       <c r="J471" s="3"/>
     </row>
     <row r="472" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15634,10 +15638,10 @@
       <c r="G472" s="8">
         <v>0</v>
       </c>
-      <c r="H472" s="20" t="s">
+      <c r="H472" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I472" s="20"/>
+      <c r="I472" s="21"/>
       <c r="J472" s="3"/>
     </row>
     <row r="473" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15662,10 +15666,10 @@
       <c r="G473" s="8">
         <v>0</v>
       </c>
-      <c r="H473" s="20" t="s">
+      <c r="H473" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="I473" s="20"/>
+      <c r="I473" s="21"/>
       <c r="J473" s="3"/>
     </row>
     <row r="474" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15690,10 +15694,10 @@
       <c r="G474" s="8">
         <v>0</v>
       </c>
-      <c r="H474" s="20" t="s">
+      <c r="H474" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I474" s="20"/>
+      <c r="I474" s="21"/>
       <c r="J474" s="3"/>
     </row>
     <row r="475" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15718,10 +15722,10 @@
       <c r="G475" s="8">
         <v>0</v>
       </c>
-      <c r="H475" s="20" t="s">
+      <c r="H475" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I475" s="20"/>
+      <c r="I475" s="21"/>
       <c r="J475" s="3"/>
     </row>
     <row r="476" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15744,8 +15748,8 @@
       <c r="G476" s="8">
         <v>1</v>
       </c>
-      <c r="H476" s="20"/>
-      <c r="I476" s="20"/>
+      <c r="H476" s="21"/>
+      <c r="I476" s="21"/>
       <c r="J476" s="3"/>
     </row>
     <row r="477" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15768,8 +15772,8 @@
       <c r="G477" s="8">
         <v>1</v>
       </c>
-      <c r="H477" s="20"/>
-      <c r="I477" s="20"/>
+      <c r="H477" s="21"/>
+      <c r="I477" s="21"/>
       <c r="J477" s="3"/>
     </row>
     <row r="478" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15792,8 +15796,8 @@
       <c r="G478" s="8">
         <v>0</v>
       </c>
-      <c r="H478" s="20"/>
-      <c r="I478" s="20"/>
+      <c r="H478" s="21"/>
+      <c r="I478" s="21"/>
       <c r="J478" s="3"/>
     </row>
     <row r="479" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15816,8 +15820,8 @@
       <c r="G479" s="8">
         <v>5</v>
       </c>
-      <c r="H479" s="20"/>
-      <c r="I479" s="20"/>
+      <c r="H479" s="21"/>
+      <c r="I479" s="21"/>
       <c r="J479" s="3"/>
     </row>
     <row r="480" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15840,8 +15844,8 @@
       <c r="G480" s="8">
         <v>3</v>
       </c>
-      <c r="H480" s="20"/>
-      <c r="I480" s="20"/>
+      <c r="H480" s="21"/>
+      <c r="I480" s="21"/>
       <c r="J480" s="3"/>
     </row>
     <row r="481" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15866,10 +15870,10 @@
       <c r="G481" s="8">
         <v>0</v>
       </c>
-      <c r="H481" s="20" t="s">
+      <c r="H481" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I481" s="20"/>
+      <c r="I481" s="21"/>
       <c r="J481" s="3"/>
     </row>
     <row r="482" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15894,10 +15898,10 @@
       <c r="G482" s="8">
         <v>0</v>
       </c>
-      <c r="H482" s="20" t="s">
+      <c r="H482" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I482" s="20"/>
+      <c r="I482" s="21"/>
       <c r="J482" s="3"/>
     </row>
     <row r="483" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15922,10 +15926,10 @@
       <c r="G483" s="8">
         <v>0</v>
       </c>
-      <c r="H483" s="20" t="s">
+      <c r="H483" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I483" s="20"/>
+      <c r="I483" s="21"/>
       <c r="J483" s="3"/>
     </row>
     <row r="484" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15950,10 +15954,10 @@
       <c r="G484" s="8">
         <v>0</v>
       </c>
-      <c r="H484" s="20" t="s">
+      <c r="H484" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="I484" s="20"/>
+      <c r="I484" s="21"/>
       <c r="J484" s="3"/>
     </row>
     <row r="485" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15978,10 +15982,10 @@
       <c r="G485" s="8">
         <v>0</v>
       </c>
-      <c r="H485" s="20" t="s">
+      <c r="H485" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="I485" s="20"/>
+      <c r="I485" s="21"/>
       <c r="J485" s="3"/>
     </row>
     <row r="486" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16006,10 +16010,10 @@
       <c r="G486" s="8">
         <v>0</v>
       </c>
-      <c r="H486" s="20" t="s">
+      <c r="H486" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I486" s="20"/>
+      <c r="I486" s="21"/>
       <c r="J486" s="3"/>
     </row>
     <row r="487" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16034,10 +16038,10 @@
       <c r="G487" s="8">
         <v>0</v>
       </c>
-      <c r="H487" s="20" t="s">
+      <c r="H487" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I487" s="20"/>
+      <c r="I487" s="21"/>
       <c r="J487" s="3"/>
     </row>
     <row r="488" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16062,10 +16066,10 @@
       <c r="G488" s="8">
         <v>0</v>
       </c>
-      <c r="H488" s="20" t="s">
+      <c r="H488" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="I488" s="20"/>
+      <c r="I488" s="21"/>
       <c r="J488" s="3"/>
     </row>
     <row r="489" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16081,17 +16085,17 @@
       <c r="D489" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E489" s="25"/>
+      <c r="E489" s="11"/>
       <c r="F489" s="8">
         <v>19</v>
       </c>
       <c r="G489" s="8">
         <v>0</v>
       </c>
-      <c r="H489" s="20" t="s">
+      <c r="H489" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I489" s="20"/>
+      <c r="I489" s="21"/>
       <c r="J489" s="3"/>
     </row>
     <row r="490" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16107,17 +16111,17 @@
       <c r="D490" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E490" s="25"/>
+      <c r="E490" s="11"/>
       <c r="F490" s="8">
         <v>17</v>
       </c>
       <c r="G490" s="8">
         <v>0</v>
       </c>
-      <c r="H490" s="20" t="s">
+      <c r="H490" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I490" s="20"/>
+      <c r="I490" s="21"/>
       <c r="J490" s="3"/>
     </row>
     <row r="491" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16133,17 +16137,17 @@
       <c r="D491" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E491" s="25"/>
+      <c r="E491" s="11"/>
       <c r="F491" s="8">
         <v>17</v>
       </c>
       <c r="G491" s="8">
         <v>0</v>
       </c>
-      <c r="H491" s="20" t="s">
+      <c r="H491" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I491" s="20"/>
+      <c r="I491" s="21"/>
       <c r="J491" s="3"/>
     </row>
     <row r="492" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16159,17 +16163,17 @@
       <c r="D492" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E492" s="25"/>
+      <c r="E492" s="11"/>
       <c r="F492" s="8">
         <v>7</v>
       </c>
       <c r="G492" s="8">
         <v>2</v>
       </c>
-      <c r="H492" s="20" t="s">
+      <c r="H492" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I492" s="20"/>
+      <c r="I492" s="21"/>
       <c r="J492" s="3"/>
     </row>
     <row r="493" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16194,10 +16198,10 @@
       <c r="G493" s="8">
         <v>0</v>
       </c>
-      <c r="H493" s="20" t="s">
+      <c r="H493" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="I493" s="20"/>
+      <c r="I493" s="21"/>
       <c r="J493" s="3"/>
     </row>
     <row r="494" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16213,19 +16217,17 @@
       <c r="D494" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E494" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E494" s="8"/>
       <c r="F494" s="8">
         <v>13</v>
       </c>
       <c r="G494" s="8">
         <v>0</v>
       </c>
-      <c r="H494" s="20" t="s">
+      <c r="H494" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="I494" s="20"/>
+      <c r="I494" s="21"/>
       <c r="J494" s="3"/>
     </row>
     <row r="495" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16248,10 +16250,10 @@
       <c r="G495" s="8">
         <v>0</v>
       </c>
-      <c r="H495" s="20" t="s">
+      <c r="H495" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="I495" s="20"/>
+      <c r="I495" s="21"/>
       <c r="J495" s="3"/>
     </row>
     <row r="496" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16276,10 +16278,10 @@
       <c r="G496" s="8">
         <v>0</v>
       </c>
-      <c r="H496" s="20" t="s">
+      <c r="H496" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I496" s="20"/>
+      <c r="I496" s="21"/>
       <c r="J496" s="3"/>
     </row>
     <row r="497" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16304,10 +16306,10 @@
       <c r="G497" s="8">
         <v>0</v>
       </c>
-      <c r="H497" s="20" t="s">
+      <c r="H497" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I497" s="20"/>
+      <c r="I497" s="21"/>
       <c r="J497" s="3"/>
     </row>
     <row r="498" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16332,10 +16334,10 @@
       <c r="G498" s="8">
         <v>0</v>
       </c>
-      <c r="H498" s="20" t="s">
+      <c r="H498" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="I498" s="20"/>
+      <c r="I498" s="21"/>
       <c r="J498" s="3"/>
     </row>
     <row r="499" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16360,10 +16362,10 @@
       <c r="G499" s="8">
         <v>0</v>
       </c>
-      <c r="H499" s="20" t="s">
+      <c r="H499" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="I499" s="20"/>
+      <c r="I499" s="21"/>
       <c r="J499" s="3"/>
     </row>
     <row r="500" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16388,10 +16390,10 @@
       <c r="G500" s="8">
         <v>0</v>
       </c>
-      <c r="H500" s="20" t="s">
+      <c r="H500" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="I500" s="20"/>
+      <c r="I500" s="21"/>
       <c r="J500" s="3"/>
     </row>
     <row r="501" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16416,10 +16418,10 @@
       <c r="G501" s="8">
         <v>0</v>
       </c>
-      <c r="H501" s="20" t="s">
+      <c r="H501" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="I501" s="20"/>
+      <c r="I501" s="21"/>
       <c r="J501" s="3"/>
     </row>
     <row r="502" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16444,10 +16446,10 @@
       <c r="G502" s="8">
         <v>0</v>
       </c>
-      <c r="H502" s="20" t="s">
+      <c r="H502" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="I502" s="20"/>
+      <c r="I502" s="21"/>
       <c r="J502" s="3"/>
     </row>
     <row r="503" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16472,10 +16474,10 @@
       <c r="G503" s="8">
         <v>0</v>
       </c>
-      <c r="H503" s="20" t="s">
+      <c r="H503" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I503" s="20"/>
+      <c r="I503" s="21"/>
       <c r="J503" s="3"/>
     </row>
     <row r="504" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16500,10 +16502,10 @@
       <c r="G504" s="8">
         <v>0</v>
       </c>
-      <c r="H504" s="20" t="s">
+      <c r="H504" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I504" s="20"/>
+      <c r="I504" s="21"/>
       <c r="J504" s="3"/>
     </row>
     <row r="505" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16528,10 +16530,10 @@
       <c r="G505" s="8">
         <v>0</v>
       </c>
-      <c r="H505" s="20" t="s">
+      <c r="H505" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I505" s="20"/>
+      <c r="I505" s="21"/>
       <c r="J505" s="3"/>
     </row>
     <row r="506" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16556,10 +16558,10 @@
       <c r="G506" s="8">
         <v>0</v>
       </c>
-      <c r="H506" s="20" t="s">
+      <c r="H506" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I506" s="20"/>
+      <c r="I506" s="21"/>
       <c r="J506" s="3"/>
     </row>
     <row r="507" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16584,10 +16586,10 @@
       <c r="G507" s="8">
         <v>0</v>
       </c>
-      <c r="H507" s="20" t="s">
+      <c r="H507" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="I507" s="20"/>
+      <c r="I507" s="21"/>
       <c r="J507" s="3"/>
     </row>
     <row r="508" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16612,10 +16614,10 @@
       <c r="G508" s="8">
         <v>0</v>
       </c>
-      <c r="H508" s="20" t="s">
+      <c r="H508" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="I508" s="20"/>
+      <c r="I508" s="21"/>
       <c r="J508" s="3"/>
     </row>
     <row r="509" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16640,10 +16642,10 @@
       <c r="G509" s="8">
         <v>0</v>
       </c>
-      <c r="H509" s="20" t="s">
+      <c r="H509" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="I509" s="20"/>
+      <c r="I509" s="21"/>
       <c r="J509" s="3"/>
     </row>
     <row r="510" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16668,10 +16670,10 @@
       <c r="G510" s="8">
         <v>0</v>
       </c>
-      <c r="H510" s="20" t="s">
+      <c r="H510" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="I510" s="20"/>
+      <c r="I510" s="21"/>
       <c r="J510" s="3"/>
     </row>
     <row r="511" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16696,10 +16698,10 @@
       <c r="G511" s="8">
         <v>0</v>
       </c>
-      <c r="H511" s="20" t="s">
+      <c r="H511" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="I511" s="20"/>
+      <c r="I511" s="21"/>
       <c r="J511" s="3"/>
     </row>
     <row r="512" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16724,10 +16726,10 @@
       <c r="G512" s="8">
         <v>0</v>
       </c>
-      <c r="H512" s="20" t="s">
+      <c r="H512" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="I512" s="20"/>
+      <c r="I512" s="21"/>
       <c r="J512" s="3"/>
     </row>
     <row r="513" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16752,10 +16754,10 @@
       <c r="G513" s="8">
         <v>0</v>
       </c>
-      <c r="H513" s="20" t="s">
+      <c r="H513" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I513" s="20"/>
+      <c r="I513" s="21"/>
       <c r="J513" s="3"/>
     </row>
     <row r="514" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16780,10 +16782,10 @@
       <c r="G514" s="8">
         <v>0</v>
       </c>
-      <c r="H514" s="20" t="s">
+      <c r="H514" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I514" s="20"/>
+      <c r="I514" s="21"/>
       <c r="J514" s="3"/>
     </row>
     <row r="515" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16808,10 +16810,10 @@
       <c r="G515" s="8">
         <v>0</v>
       </c>
-      <c r="H515" s="20" t="s">
+      <c r="H515" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I515" s="20"/>
+      <c r="I515" s="21"/>
       <c r="J515" s="3"/>
     </row>
     <row r="516" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16836,10 +16838,10 @@
       <c r="G516" s="8">
         <v>0</v>
       </c>
-      <c r="H516" s="20" t="s">
+      <c r="H516" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I516" s="20"/>
+      <c r="I516" s="21"/>
       <c r="J516" s="3"/>
     </row>
     <row r="517" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16864,10 +16866,10 @@
       <c r="G517" s="8">
         <v>0</v>
       </c>
-      <c r="H517" s="20" t="s">
+      <c r="H517" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I517" s="20"/>
+      <c r="I517" s="21"/>
       <c r="J517" s="3"/>
     </row>
     <row r="518" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16890,10 +16892,10 @@
       <c r="G518" s="8">
         <v>0</v>
       </c>
-      <c r="H518" s="20" t="s">
+      <c r="H518" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I518" s="20"/>
+      <c r="I518" s="21"/>
       <c r="J518" s="3"/>
     </row>
     <row r="519" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16918,10 +16920,10 @@
       <c r="G519" s="8">
         <v>0</v>
       </c>
-      <c r="H519" s="20" t="s">
+      <c r="H519" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="I519" s="20"/>
+      <c r="I519" s="21"/>
       <c r="J519" s="3"/>
     </row>
     <row r="520" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16946,10 +16948,10 @@
       <c r="G520" s="8">
         <v>0</v>
       </c>
-      <c r="H520" s="20" t="s">
+      <c r="H520" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="I520" s="20"/>
+      <c r="I520" s="21"/>
       <c r="J520" s="3"/>
     </row>
     <row r="521" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16974,10 +16976,10 @@
       <c r="G521" s="8">
         <v>0</v>
       </c>
-      <c r="H521" s="20" t="s">
+      <c r="H521" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I521" s="20"/>
+      <c r="I521" s="21"/>
       <c r="J521" s="3"/>
     </row>
     <row r="522" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17000,10 +17002,10 @@
       <c r="G522" s="8">
         <v>0</v>
       </c>
-      <c r="H522" s="20" t="s">
+      <c r="H522" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I522" s="20"/>
+      <c r="I522" s="21"/>
       <c r="J522" s="3"/>
     </row>
     <row r="523" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17026,8 +17028,8 @@
       <c r="G523" s="8">
         <v>0</v>
       </c>
-      <c r="H523" s="20"/>
-      <c r="I523" s="20"/>
+      <c r="H523" s="21"/>
+      <c r="I523" s="21"/>
       <c r="J523" s="3"/>
     </row>
     <row r="524" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17050,8 +17052,8 @@
       <c r="G524" s="8">
         <v>0</v>
       </c>
-      <c r="H524" s="20"/>
-      <c r="I524" s="20"/>
+      <c r="H524" s="21"/>
+      <c r="I524" s="21"/>
       <c r="J524" s="3"/>
     </row>
     <row r="525" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17076,10 +17078,10 @@
       <c r="G525" s="8">
         <v>0</v>
       </c>
-      <c r="H525" s="20" t="s">
+      <c r="H525" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I525" s="20"/>
+      <c r="I525" s="21"/>
       <c r="J525" s="3"/>
     </row>
     <row r="526" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17104,10 +17106,10 @@
       <c r="G526" s="8">
         <v>0</v>
       </c>
-      <c r="H526" s="20" t="s">
+      <c r="H526" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I526" s="20"/>
+      <c r="I526" s="21"/>
       <c r="J526" s="3"/>
     </row>
     <row r="527" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17130,10 +17132,10 @@
       <c r="G527" s="8">
         <v>0</v>
       </c>
-      <c r="H527" s="20" t="s">
+      <c r="H527" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="I527" s="20"/>
+      <c r="I527" s="21"/>
       <c r="J527" s="3"/>
     </row>
     <row r="528" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17156,8 +17158,8 @@
       <c r="G528" s="8">
         <v>0</v>
       </c>
-      <c r="H528" s="20"/>
-      <c r="I528" s="20"/>
+      <c r="H528" s="21"/>
+      <c r="I528" s="21"/>
       <c r="J528" s="3"/>
     </row>
     <row r="529" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17180,8 +17182,8 @@
       <c r="G529" s="8">
         <v>0</v>
       </c>
-      <c r="H529" s="20"/>
-      <c r="I529" s="20"/>
+      <c r="H529" s="21"/>
+      <c r="I529" s="21"/>
       <c r="J529" s="3"/>
     </row>
     <row r="530" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17206,10 +17208,10 @@
       <c r="G530" s="8">
         <v>2</v>
       </c>
-      <c r="H530" s="20" t="s">
+      <c r="H530" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="I530" s="20"/>
+      <c r="I530" s="21"/>
       <c r="J530" s="3"/>
     </row>
     <row r="531" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17234,10 +17236,10 @@
       <c r="G531" s="8">
         <v>0</v>
       </c>
-      <c r="H531" s="20" t="s">
+      <c r="H531" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I531" s="20"/>
+      <c r="I531" s="21"/>
       <c r="J531" s="3"/>
     </row>
     <row r="532" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17260,10 +17262,10 @@
       <c r="G532" s="8">
         <v>0</v>
       </c>
-      <c r="H532" s="20" t="s">
+      <c r="H532" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I532" s="20"/>
+      <c r="I532" s="21"/>
       <c r="J532" s="3"/>
     </row>
     <row r="533" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17286,8 +17288,8 @@
       <c r="G533" s="8">
         <v>0</v>
       </c>
-      <c r="H533" s="20"/>
-      <c r="I533" s="20"/>
+      <c r="H533" s="21"/>
+      <c r="I533" s="21"/>
       <c r="J533" s="3"/>
     </row>
     <row r="534" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17312,10 +17314,10 @@
       <c r="G534" s="8">
         <v>0</v>
       </c>
-      <c r="H534" s="20" t="s">
+      <c r="H534" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="I534" s="20"/>
+      <c r="I534" s="21"/>
       <c r="J534" s="3"/>
     </row>
     <row r="535" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17340,10 +17342,10 @@
       <c r="G535" s="8">
         <v>0</v>
       </c>
-      <c r="H535" s="20" t="s">
+      <c r="H535" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="I535" s="20"/>
+      <c r="I535" s="21"/>
       <c r="J535" s="3"/>
     </row>
     <row r="536" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17366,8 +17368,8 @@
       <c r="G536" s="8">
         <v>0</v>
       </c>
-      <c r="H536" s="20"/>
-      <c r="I536" s="20"/>
+      <c r="H536" s="21"/>
+      <c r="I536" s="21"/>
       <c r="J536" s="3"/>
     </row>
     <row r="537" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17390,8 +17392,8 @@
       <c r="G537" s="8">
         <v>0</v>
       </c>
-      <c r="H537" s="20"/>
-      <c r="I537" s="20"/>
+      <c r="H537" s="21"/>
+      <c r="I537" s="21"/>
       <c r="J537" s="3"/>
     </row>
     <row r="538" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17416,10 +17418,10 @@
       <c r="G538" s="8">
         <v>1</v>
       </c>
-      <c r="H538" s="20" t="s">
+      <c r="H538" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="I538" s="20"/>
+      <c r="I538" s="21"/>
       <c r="J538" s="3"/>
     </row>
     <row r="539" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17444,10 +17446,10 @@
       <c r="G539" s="8">
         <v>0</v>
       </c>
-      <c r="H539" s="20" t="s">
+      <c r="H539" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="I539" s="20"/>
+      <c r="I539" s="21"/>
       <c r="J539" s="3"/>
     </row>
     <row r="540" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17472,10 +17474,10 @@
       <c r="G540" s="8">
         <v>0</v>
       </c>
-      <c r="H540" s="20" t="s">
+      <c r="H540" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I540" s="20"/>
+      <c r="I540" s="21"/>
       <c r="J540" s="3"/>
     </row>
     <row r="541" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17498,10 +17500,10 @@
       <c r="G541" s="8">
         <v>0</v>
       </c>
-      <c r="H541" s="20" t="s">
+      <c r="H541" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I541" s="20"/>
+      <c r="I541" s="21"/>
       <c r="J541" s="3"/>
     </row>
     <row r="542" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17526,10 +17528,10 @@
       <c r="G542" s="8">
         <v>0</v>
       </c>
-      <c r="H542" s="20" t="s">
+      <c r="H542" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I542" s="20"/>
+      <c r="I542" s="21"/>
       <c r="J542" s="3"/>
     </row>
     <row r="543" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17554,10 +17556,10 @@
       <c r="G543" s="8">
         <v>0</v>
       </c>
-      <c r="H543" s="20" t="s">
+      <c r="H543" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="I543" s="20"/>
+      <c r="I543" s="21"/>
       <c r="J543" s="3"/>
     </row>
     <row r="544" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17578,8 +17580,8 @@
       <c r="G544" s="8">
         <v>0</v>
       </c>
-      <c r="H544" s="20"/>
-      <c r="I544" s="20"/>
+      <c r="H544" s="21"/>
+      <c r="I544" s="21"/>
       <c r="J544" s="3"/>
     </row>
     <row r="545" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17600,8 +17602,8 @@
       <c r="G545" s="8">
         <v>0</v>
       </c>
-      <c r="H545" s="20"/>
-      <c r="I545" s="20"/>
+      <c r="H545" s="21"/>
+      <c r="I545" s="21"/>
       <c r="J545" s="3"/>
     </row>
     <row r="546" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17622,8 +17624,8 @@
       <c r="G546" s="8">
         <v>0</v>
       </c>
-      <c r="H546" s="20"/>
-      <c r="I546" s="20"/>
+      <c r="H546" s="21"/>
+      <c r="I546" s="21"/>
       <c r="J546" s="3"/>
     </row>
     <row r="547" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17644,8 +17646,8 @@
       <c r="G547" s="8">
         <v>0</v>
       </c>
-      <c r="H547" s="20"/>
-      <c r="I547" s="20"/>
+      <c r="H547" s="21"/>
+      <c r="I547" s="21"/>
       <c r="J547" s="3"/>
     </row>
     <row r="548" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17666,8 +17668,8 @@
       <c r="G548" s="8">
         <v>0</v>
       </c>
-      <c r="H548" s="20"/>
-      <c r="I548" s="20"/>
+      <c r="H548" s="21"/>
+      <c r="I548" s="21"/>
       <c r="J548" s="3"/>
     </row>
     <row r="549" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17688,8 +17690,8 @@
       <c r="G549" s="8">
         <v>0</v>
       </c>
-      <c r="H549" s="20"/>
-      <c r="I549" s="20"/>
+      <c r="H549" s="21"/>
+      <c r="I549" s="21"/>
       <c r="J549" s="3"/>
     </row>
     <row r="550" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17710,8 +17712,8 @@
       <c r="G550" s="8">
         <v>0</v>
       </c>
-      <c r="H550" s="20"/>
-      <c r="I550" s="20"/>
+      <c r="H550" s="21"/>
+      <c r="I550" s="21"/>
       <c r="J550" s="3"/>
     </row>
     <row r="551" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17732,8 +17734,8 @@
       <c r="G551" s="8">
         <v>0</v>
       </c>
-      <c r="H551" s="20"/>
-      <c r="I551" s="20"/>
+      <c r="H551" s="21"/>
+      <c r="I551" s="21"/>
       <c r="J551" s="3"/>
     </row>
     <row r="552" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17754,8 +17756,8 @@
       <c r="G552" s="8">
         <v>0</v>
       </c>
-      <c r="H552" s="20"/>
-      <c r="I552" s="20"/>
+      <c r="H552" s="21"/>
+      <c r="I552" s="21"/>
       <c r="J552" s="3"/>
     </row>
     <row r="553" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17776,8 +17778,8 @@
       <c r="G553" s="8">
         <v>0</v>
       </c>
-      <c r="H553" s="20"/>
-      <c r="I553" s="20"/>
+      <c r="H553" s="21"/>
+      <c r="I553" s="21"/>
       <c r="J553" s="3"/>
     </row>
     <row r="554" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17798,8 +17800,8 @@
       <c r="G554" s="8">
         <v>0</v>
       </c>
-      <c r="H554" s="20"/>
-      <c r="I554" s="20"/>
+      <c r="H554" s="21"/>
+      <c r="I554" s="21"/>
       <c r="J554" s="3"/>
     </row>
     <row r="555" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17809,21 +17811,21 @@
       <c r="B555" s="10">
         <v>538</v>
       </c>
-      <c r="C555" s="21" t="s">
+      <c r="C555" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="D555" s="22"/>
+      <c r="D555" s="23"/>
       <c r="E555" s="10">
         <v>11</v>
       </c>
-      <c r="F555" s="21" t="s">
+      <c r="F555" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="G555" s="22"/>
-      <c r="H555" s="23">
+      <c r="G555" s="23"/>
+      <c r="H555" s="24">
         <v>549</v>
       </c>
-      <c r="I555" s="24"/>
+      <c r="I555" s="25"/>
       <c r="J555" s="3"/>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.3">
